--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_4.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_4.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19:52:23</t>
+          <t>15:27:01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Monsieur, et cette fois je ne veux pas tarder à vous répondre ..." à Berville, 1835-12-21, https://constance-de-salm.de/archiv/#/document/5110 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Monsieur, et cette fois je ne veux pas tarder à vous répondre ...« à Berville, 1835-12-21, https://constance-de-salm.de/archiv/#/document/5110 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19:30:41</t>
+          <t>17:17:07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Que vous dire, mon ancien ami, sur mon long silence? ..." à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/8304 #onthisday</t>
+          <t>»Que vous dire, mon ancien ami, sur mon long silence? ...« à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/8304 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,12 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19:48:46</t>
+          <t>15:40:57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Que vous dire, mon ancien ami, sur mon long silence? ..." à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/4665 #onthisday</t>
+          <t>»Que vous dire, mon ancien ami, sur mon long silence? ...« à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/4665 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:17:44</t>
+          <t>11:22:10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Je m’empresse de vous apprendre, Monsieur, quoique ce ne soit pas une grande nouvelle, que j’ai réussi ..." à Jullien de Paris, 1828-12-24, https://constance-de-salm.de/archiv/#/document/9299 #onthisday</t>
+          <t>»Je m’empresse de vous apprendre, Monsieur, quoique ce ne soit pas une grande nouvelle, que j’ai réussi ...« à Jullien de Paris, 1828-12-24, https://constance-de-salm.de/archiv/#/document/9299 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:29:08</t>
+          <t>09:31:39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps, je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami,  ..." à Raboteau, 1822-12-25, https://constance-de-salm.de/archiv/#/document/4863 #onthisday</t>
+          <t>»Depuis bien longtemps, je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami,  ...« à Raboteau, 1822-12-25, https://constance-de-salm.de/archiv/#/document/4863 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:37:35</t>
+          <t>19:44:43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Étienne, en vérité, vous m’embarrassez fort: / Pour vous fêter en bonne catholique / J’ai feuilleté… ..." à Clavier, 1800-12-26, https://constance-de-salm.de/archiv/#/document/8609 #onthisday</t>
+          <t>»Étienne, en vérité, vous m’embarrassez fort: / Pour vous fêter en bonne catholique / J’ai feuilleté… ...« à Clavier, 1800-12-26, https://constance-de-salm.de/archiv/#/document/8609 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:40:50</t>
+          <t>09:10:06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre et votre réponse, mon ancien voisin ..." à Prous, 1819-12-26, https://constance-de-salm.de/archiv/#/document/4492 #onthisday</t>
+          <t>»J'ai reçu votre lettre et votre réponse, mon ancien voisin ...« à Prous, 1819-12-26, https://constance-de-salm.de/archiv/#/document/4492 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19:15:16</t>
+          <t>19:00:28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Plus de vers galants ou joyeux, / Plus de couplets, plus de saillies, / Plus de ces vives réparties / D’où naissent les ris et les jeux ..." à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/3921 #onthisday</t>
+          <t>»Plus de vers galants ou joyeux, / Plus de couplets, plus de saillies, / Plus de ces vives réparties / D’où naissent les ris et les jeux ...« à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/3921 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14:51:30</t>
+          <t>15:55:01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Nous avons lu avec la plus grande attention la lettre que mon beau-frère nous a écrite relativement au projet ..." à Salm-Reifferscheidt-Dyck, 1819-12-27, https://constance-de-salm.de/archiv/#/document/9899 #onthisday</t>
+          <t>»Nous avons lu avec la plus grande attention la lettre que mon beau-frère nous a écrite relativement au projet ...« à Salm-Reifferscheidt-Dyck, 1819-12-27, https://constance-de-salm.de/archiv/#/document/9899 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16:39:35</t>
+          <t>16:53:39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelques jours votre très bonne lettre, ma chère sœur, je reçois à l’instant celle de mon frère ..." à Théis, 1828-12-28, https://constance-de-salm.de/archiv/#/document/9305 #onthisday</t>
+          <t>»J’ai reçu il y a quelques jours votre très bonne lettre, ma chère sœur, je reçois à l’instant celle de mon frère ...« à Théis, 1828-12-28, https://constance-de-salm.de/archiv/#/document/9305 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:46:09</t>
+          <t>13:49:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, mon cher Naigeon, que vous n'avez entendu parler de moi ..." à Naigeon, 1830-12-29, https://constance-de-salm.de/archiv/#/document/5201 #onthisday</t>
+          <t>»Il y a bien longtemps, mon cher Naigeon, que vous n'avez entendu parler de moi ...« à Naigeon, 1830-12-29, https://constance-de-salm.de/archiv/#/document/5201 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16:48:05</t>
+          <t>10:22:27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"J'ai été si accablée tous ces jours-ci, Monsieur, que je n'ai pu écrire une foule de billets ..." à Drais, 1833-12-29, https://constance-de-salm.de/archiv/#/document/5309 #onthisday</t>
+          <t>»J'ai été si accablée tous ces jours-ci, Monsieur, que je n'ai pu écrire une foule de billets ...« à Drais, 1833-12-29, https://constance-de-salm.de/archiv/#/document/5309 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19:58:49</t>
+          <t>09:32:19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"J’ai éprouvé une bien agréable surprise, ma très belle, en recevant l’ouvrage que vous venez de publier ..." à Laya, 1827-12-31, https://constance-de-salm.de/archiv/#/document/9105 #onthisday</t>
+          <t>»J’ai éprouvé une bien agréable surprise, ma très belle, en recevant l’ouvrage que vous venez de publier ...« à Laya, 1827-12-31, https://constance-de-salm.de/archiv/#/document/9105 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2027-1-1</t>
+          <t>2027-01-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08:53:00</t>
+          <t>16:13:11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"La première lettre que j'écris dans ce pays depuis ma maladie est adressée à mes bons voisins ..." à Prous, 1821-01-01, https://constance-de-salm.de/archiv/#/document/4551 #onthisday</t>
+          <t>»La première lettre que j'écris dans ce pays depuis ma maladie est adressée à mes bons voisins ...« à Prous, 1821-01-01, https://constance-de-salm.de/archiv/#/document/4551 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2027-1-1</t>
+          <t>2027-01-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:10:29</t>
+          <t>17:53:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, à quel point j’ai été charmée et touchée des vers que vous m’avez adressés hier ..." à Villenave, 1828-01-01, https://constance-de-salm.de/archiv/#/document/10996 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, à quel point j’ai été charmée et touchée des vers que vous m’avez adressés hier ...« à Villenave, 1828-01-01, https://constance-de-salm.de/archiv/#/document/10996 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2027-1-2</t>
+          <t>2027-01-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11:54:34</t>
+          <t>09:45:11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Je rentre, et je pense tout à coup que j’ai bien mal fait de ne pas vous avoir engagé à venir dîner avec nous aujourd’hui ..." à Ladoucette, 1828-01-02, https://constance-de-salm.de/archiv/#/document/9109 #onthisday</t>
+          <t>»Je rentre, et je pense tout à coup que j’ai bien mal fait de ne pas vous avoir engagé à venir dîner avec nous aujourd’hui ...« à Ladoucette, 1828-01-02, https://constance-de-salm.de/archiv/#/document/9109 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2027-1-2</t>
+          <t>2027-01-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:52:01</t>
+          <t>09:14:44</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, comment il s'est fait que je ne vous ai point encore dit à quel point j'ai été sensible à votre aimable lettre et à vos gracieux vers ..." à Sanson de Pongerville, 1830-01-02, https://constance-de-salm.de/archiv/#/document/5145 #onthisday</t>
+          <t>»Je ne sais, Monsieur, comment il s'est fait que je ne vous ai point encore dit à quel point j'ai été sensible à votre aimable lettre et à vos gracieux vers ...« à Sanson de Pongerville, 1830-01-02, https://constance-de-salm.de/archiv/#/document/5145 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2027-1-3</t>
+          <t>2027-01-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16:03:25</t>
+          <t>09:08:33</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre seconde lettre, Monsieur, et je me hâte de vous écrire un mot pour vous apprendre ..." à Boucharlat, 1835-01-03, https://constance-de-salm.de/archiv/#/document/9556 #onthisday</t>
+          <t>»J’ai reçu votre seconde lettre, Monsieur, et je me hâte de vous écrire un mot pour vous apprendre ...« à Boucharlat, 1835-01-03, https://constance-de-salm.de/archiv/#/document/9556 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2027-1-4</t>
+          <t>2027-01-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18:45:32</t>
+          <t>19:34:53</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"J’ai reçu vos deux lettres, Monsieur, et il y a bien longtemps que je me propose d’y répondre; ..." à Schepeler, 1836-01-04, https://constance-de-salm.de/archiv/#/document/9685 #onthisday</t>
+          <t>»J’ai reçu vos deux lettres, Monsieur, et il y a bien longtemps que je me propose d’y répondre; ...« à Schepeler, 1836-01-04, https://constance-de-salm.de/archiv/#/document/9685 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2027-1-5</t>
+          <t>2027-01-05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11:16:57</t>
+          <t>17:30:36</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de toi, cher frère, tu ne m’as écrit que deux fois pendant tout mon séjour à Dyck ..." à Théis, 1840-01-05, https://constance-de-salm.de/archiv/#/document/10937 #onthisday</t>
+          <t>»Je n’entends point parler de toi, cher frère, tu ne m’as écrit que deux fois pendant tout mon séjour à Dyck ...« à Théis, 1840-01-05, https://constance-de-salm.de/archiv/#/document/10937 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2027-1-7</t>
+          <t>2027-01-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:45:34</t>
+          <t>18:13:30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Il faut pourtant, mon cher ami, que je vous dise mes réflexions que j’ai fait[es] à votre sujet ..." à Raboteau, 1819-01-07, https://constance-de-salm.de/archiv/#/document/6502 #onthisday</t>
+          <t>»Il faut pourtant, mon cher ami, que je vous dise mes réflexions que j’ai fait[es] à votre sujet ...« à Raboteau, 1819-01-07, https://constance-de-salm.de/archiv/#/document/6502 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2027-1-8</t>
+          <t>2027-01-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17:45:17</t>
+          <t>18:29:23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Madame, à quel point j'ai été touchée de la lettre que vous m'avez écrite ..." à Sandt, 1838-01-08, https://constance-de-salm.de/archiv/#/document/7882 #onthisday</t>
+          <t>»Je ne puis vous dire, Madame, à quel point j'ai été touchée de la lettre que vous m'avez écrite ...« à Sandt, 1838-01-08, https://constance-de-salm.de/archiv/#/document/7882 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2027-1-9</t>
+          <t>2027-01-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16:19:23</t>
+          <t>19:10:23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot pour toi, ma chère Joséphine, à la lettre que j’écris à ton mari et répondre aussi à celle que j’ai reçue de toi ..." à Théis, 1828-01-09, https://constance-de-salm.de/archiv/#/document/10704 #onthisday</t>
+          <t>»Je veux joindre un mot pour toi, ma chère Joséphine, à la lettre que j’écris à ton mari et répondre aussi à celle que j’ai reçue de toi ...« à Théis, 1828-01-09, https://constance-de-salm.de/archiv/#/document/10704 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2027-1-9</t>
+          <t>2027-01-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:29:15</t>
+          <t>19:23:20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot pour toi, ma chère Joséphine, à la lettre que j’écris à ton mari et répondre aussi à celle que j’ai reçue de toi ..." à Théis, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9128 #onthisday</t>
+          <t>»Je veux joindre un mot pour toi, ma chère Joséphine, à la lettre que j’écris à ton mari et répondre aussi à celle que j’ai reçue de toi ...« à Théis, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9128 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2027-1-10</t>
+          <t>2027-01-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16:16:07</t>
+          <t>17:56:14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Nous voilà bien tristes, Monsieur; on nous interdit les journaux des Pays-Bas ..." à Barbier, 1820-01-10, https://constance-de-salm.de/archiv/#/document/4496 #onthisday</t>
+          <t>»Nous voilà bien tristes, Monsieur; on nous interdit les journaux des Pays-Bas ...« à Barbier, 1820-01-10, https://constance-de-salm.de/archiv/#/document/4496 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2027-1-12</t>
+          <t>2027-01-12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:55:41</t>
+          <t>11:29:51</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"J’ai reçu ces jours-ci votre très bonne lettre, Monsieur, et je sens le besoin de vous répondre ..." à Villenave, 1829-01-12, https://constance-de-salm.de/archiv/#/document/9309 #onthisday</t>
+          <t>»J’ai reçu ces jours-ci votre très bonne lettre, Monsieur, et je sens le besoin de vous répondre ...« à Villenave, 1829-01-12, https://constance-de-salm.de/archiv/#/document/9309 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2027-1-13</t>
+          <t>2027-01-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19:41:20</t>
+          <t>13:28:27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Le Prince et la Princesse de Salm prient Monsieur et Madame de Villenave, Madame Waldor ..." à Villenave, 1828-01-13, https://constance-de-salm.de/archiv/#/document/10998 #onthisday</t>
+          <t>»Le Prince et la Princesse de Salm prient Monsieur et Madame de Villenave, Madame Waldor ...« à Villenave, 1828-01-13, https://constance-de-salm.de/archiv/#/document/10998 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2027-1-14</t>
+          <t>2027-01-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12:21:24</t>
+          <t>10:00:01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Comme voici la première lettre que je vous écris de l'année, Monsieur et ami ..." à Barbier, 1818-01-14, https://constance-de-salm.de/archiv/#/document/4426 #onthisday</t>
+          <t>»Comme voici la première lettre que je vous écris de l'année, Monsieur et ami ...« à Barbier, 1818-01-14, https://constance-de-salm.de/archiv/#/document/4426 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2027-1-14</t>
+          <t>2027-01-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11:49:07</t>
+          <t>16:52:36</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Madame la Princesse de Salm Dyck s'empresse de se rappeler au souvenir de Monsieur le duc de Richelieu ..." à Richelieu, 1819-01-14, https://constance-de-salm.de/archiv/#/document/4465 #onthisday</t>
+          <t>»Madame la Princesse de Salm Dyck s'empresse de se rappeler au souvenir de Monsieur le duc de Richelieu ...« à Richelieu, 1819-01-14, https://constance-de-salm.de/archiv/#/document/4465 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2027-1-15</t>
+          <t>2027-01-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15:09:27</t>
+          <t>15:54:15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a peu de temps, Monsieur, votre lettre du 23 novembre qui est arrivée à Paris au moment où j'étais en Allemagne ..." à Petriconi, 1832-01-15, https://constance-de-salm.de/archiv/#/document/5395 #onthisday</t>
+          <t>»J'ai reçu il y a peu de temps, Monsieur, votre lettre du 23 novembre qui est arrivée à Paris au moment où j'étais en Allemagne ...« à Petriconi, 1832-01-15, https://constance-de-salm.de/archiv/#/document/5395 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2027-1-16</t>
+          <t>2027-01-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12:13:45</t>
+          <t>13:12:26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Venez, à nos désirs propice / Avec de vieux amis de vous voir enchantés / Manger aile, pied… ..." à Ladoucette, 1827-01-16, https://constance-de-salm.de/archiv/#/document/9054 #onthisday</t>
+          <t>»Venez, à nos désirs propice / Avec de vieux amis de vous voir enchantés / Manger aile, pied… ...« à Ladoucette, 1827-01-16, https://constance-de-salm.de/archiv/#/document/9054 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2027-1-18</t>
+          <t>2027-01-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:31:19</t>
+          <t>11:33:24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Cette date du 18 me semble, Monsieur, une sorte d'accusation contre moi ..." à Raboteau, 1816-01-18, https://constance-de-salm.de/archiv/#/document/4287 #onthisday</t>
+          <t>»Cette date du 18 me semble, Monsieur, une sorte d'accusation contre moi ...« à Raboteau, 1816-01-18, https://constance-de-salm.de/archiv/#/document/4287 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2027-1-19</t>
+          <t>2027-01-19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>09:38:50</t>
+          <t>11:28:48</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Madame Outhwaite vient de me lire, Madame et bien chère voisine, ce qu'elle vous dit de notre séjour à Aix ..." à Locquenghien, 1840-01-19, https://constance-de-salm.de/archiv/#/document/8149 #onthisday</t>
+          <t>»Madame Outhwaite vient de me lire, Madame et bien chère voisine, ce qu'elle vous dit de notre séjour à Aix ...« à Locquenghien, 1840-01-19, https://constance-de-salm.de/archiv/#/document/8149 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2027-1-21</t>
+          <t>2027-01-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14:56:30</t>
+          <t>10:24:06</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm remercie mille fois Monsieur le baron de Ladoucette ..." à Ladoucette, 1823-01-21, https://constance-de-salm.de/archiv/#/document/49 #onthisday</t>
+          <t>»La Princesse de Salm remercie mille fois Monsieur le baron de Ladoucette ...« à Ladoucette, 1823-01-21, https://constance-de-salm.de/archiv/#/document/49 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2027-1-21</t>
+          <t>2027-01-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:02:22</t>
+          <t>14:32:28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Étant retenue au lit par une légère indisposition, je me vois forcée ..." à Pailliet, 1825-01-21, https://constance-de-salm.de/archiv/#/document/11334 #onthisday</t>
+          <t>»Étant retenue au lit par une légère indisposition, je me vois forcée ...« à Pailliet, 1825-01-21, https://constance-de-salm.de/archiv/#/document/11334 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2027-1-23</t>
+          <t>2027-01-23</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09:44:02</t>
+          <t>16:49:56</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Je sais fort bien que quand on est malade / On ne peut boire ni manger / Que d‘un repas d’amis ..." à Amalric, 1827-01-23, https://constance-de-salm.de/archiv/#/document/9056 #onthisday</t>
+          <t>»Je sais fort bien que quand on est malade / On ne peut boire ni manger / Que d‘un repas d’amis ...« à Amalric, 1827-01-23, https://constance-de-salm.de/archiv/#/document/9056 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2027-1-25</t>
+          <t>2027-01-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10:47:10</t>
+          <t>08:08:21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Au moment de partir pour retourner à Paris, Monsieur, je reçois une lettre de Monsieur Faucheux qui me parait fort extraordinaire ..." à Paillet, 1834-01-25, https://constance-de-salm.de/archiv/#/document/5538 #onthisday</t>
+          <t>»Au moment de partir pour retourner à Paris, Monsieur, je reçois une lettre de Monsieur Faucheux qui me parait fort extraordinaire ...« à Paillet, 1834-01-25, https://constance-de-salm.de/archiv/#/document/5538 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2027-1-26</t>
+          <t>2027-01-26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14:33:33</t>
+          <t>17:03:38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Votre très bonne lettre que j'ai reçue il y a quelques jours, ma chère voisine et amie, m'a fait le plus grand plaisir ..." à Locquenghien, 1842-01-26, https://constance-de-salm.de/archiv/#/document/7578 #onthisday</t>
+          <t>»Votre très bonne lettre que j'ai reçue il y a quelques jours, ma chère voisine et amie, m'a fait le plus grand plaisir ...« à Locquenghien, 1842-01-26, https://constance-de-salm.de/archiv/#/document/7578 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2027-1-27</t>
+          <t>2027-01-27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11:05:02</t>
+          <t>13:38:47</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Madame votre fille m'écrit, Monsieur, que vous vous affligez de ne pas entendre parler de moi ..." à Villenave, 1834-01-27, https://constance-de-salm.de/archiv/#/document/5539 #onthisday</t>
+          <t>»Madame votre fille m'écrit, Monsieur, que vous vous affligez de ne pas entendre parler de moi ...« à Villenave, 1834-01-27, https://constance-de-salm.de/archiv/#/document/5539 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2027-1-28</t>
+          <t>2027-01-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14:38:42</t>
+          <t>16:35:32</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous allez nous quitter ..." à Prous, 1817-01-28, https://constance-de-salm.de/archiv/#/document/4344 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous allez nous quitter ...« à Prous, 1817-01-28, https://constance-de-salm.de/archiv/#/document/4344 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2027-1-29</t>
+          <t>2027-01-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:00:06</t>
+          <t>10:17:57</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de plaisir, ma chère amie, que j’ai reçu et lu votre lettre ..." à Naigeon, 1835-01-29, https://constance-de-salm.de/archiv/#/document/9561 #onthisday</t>
+          <t>»C’est avec beaucoup de plaisir, ma chère amie, que j’ai reçu et lu votre lettre ...« à Naigeon, 1835-01-29, https://constance-de-salm.de/archiv/#/document/9561 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2027-1-30</t>
+          <t>2027-01-30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13:11:31</t>
+          <t>13:47:39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Je suis à Aix-la-Chapelle comme vous le voyez, Monsieur le baron; j’y reçois aujourd’hui votre dernière lettre ..." à Ladoucette, 1835-01-30, https://constance-de-salm.de/archiv/#/document/9563 #onthisday</t>
+          <t>»Je suis à Aix-la-Chapelle comme vous le voyez, Monsieur le baron; j’y reçois aujourd’hui votre dernière lettre ...« à Ladoucette, 1835-01-30, https://constance-de-salm.de/archiv/#/document/9563 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2027-1-31</t>
+          <t>2027-01-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11:11:25</t>
+          <t>11:14:01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Je me hâte, mon cher voisin de Paris, de vous écire quelques lignes ..." à Ladoucette, 1838-01-31, https://constance-de-salm.de/archiv/#/document/7888 #onthisday</t>
+          <t>»Je me hâte, mon cher voisin de Paris, de vous écire quelques lignes ...« à Ladoucette, 1838-01-31, https://constance-de-salm.de/archiv/#/document/7888 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2027-2-2</t>
+          <t>2027-02-02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:50:41</t>
+          <t>10:02:23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Votre lettre que j'ai reçue hier, Madame et amie, nous a tous bien vivement frapppés et affligés ..." à Waldor, 1839-02-02, https://constance-de-salm.de/archiv/#/document/7991 #onthisday</t>
+          <t>»Votre lettre que j'ai reçue hier, Madame et amie, nous a tous bien vivement frapppés et affligés ...« à Waldor, 1839-02-02, https://constance-de-salm.de/archiv/#/document/7991 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2027-2-3</t>
+          <t>2027-02-03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:45:48</t>
+          <t>13:01:39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"J’ai vu ces jours-ci, Monsieur le baron, Monsieur Sinsteden qui partait pour Paris, fort inquiet d’une affaire ..." à Ladoucette, 1829-02-03, https://constance-de-salm.de/archiv/#/document/9311 #onthisday</t>
+          <t>»J’ai vu ces jours-ci, Monsieur le baron, Monsieur Sinsteden qui partait pour Paris, fort inquiet d’une affaire ...« à Ladoucette, 1829-02-03, https://constance-de-salm.de/archiv/#/document/9311 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2027-2-4</t>
+          <t>2027-02-04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11:19:49</t>
+          <t>14:57:45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Ce sera avec plaisir, Monsieur, que je vous donnerai une lettre pour Monsieur de Humboldt; mais je désirerais connaître ..." à Audouin de Géronval, 1836-02-04, https://constance-de-salm.de/archiv/#/document/9699 #onthisday</t>
+          <t>»Ce sera avec plaisir, Monsieur, que je vous donnerai une lettre pour Monsieur de Humboldt; mais je désirerais connaître ...« à Audouin de Géronval, 1836-02-04, https://constance-de-salm.de/archiv/#/document/9699 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2027-2-5</t>
+          <t>2027-02-05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:11:40</t>
+          <t>10:07:41</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Je reçois vos livres, et je les remettrai demain en place ..." à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/10648 #onthisday</t>
+          <t>»Je reçois vos livres, et je les remettrai demain en place ...« à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/10648 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2027-2-6</t>
+          <t>2027-02-06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>19:44:42</t>
+          <t>19:26:27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, les nouvelles notes que je vous ai promises ..." à Sanson de Pongerville, 1836-02-06, https://constance-de-salm.de/archiv/#/document/9700 #onthisday</t>
+          <t>»Voici, Monsieur, les nouvelles notes que je vous ai promises ...« à Sanson de Pongerville, 1836-02-06, https://constance-de-salm.de/archiv/#/document/9700 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2027-2-7</t>
+          <t>2027-02-07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17:00:29</t>
+          <t>16:11:49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur; j’en suis sensiblement touchée, et je ne veux pas perdre un instant ..." à N.N., 1835-02-07, https://constance-de-salm.de/archiv/#/document/9565 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur; j’en suis sensiblement touchée, et je ne veux pas perdre un instant ...« à N.N., 1835-02-07, https://constance-de-salm.de/archiv/#/document/9565 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2027-2-8</t>
+          <t>2027-02-08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15:06:25</t>
+          <t>19:36:05</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, envoie à Monsieur de la Noue les „Pensées“ qu'elle lui a promises pour la Psyché ..." à Cordellier-Delanoue, 1830-02-08, https://constance-de-salm.de/archiv/#/document/5148 #onthisday</t>
+          <t>»La Princesse de Salm, envoie à Monsieur de la Noue les „Pensées“ qu'elle lui a promises pour la Psyché ...« à Cordellier-Delanoue, 1830-02-08, https://constance-de-salm.de/archiv/#/document/5148 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2027-2-11</t>
+          <t>2027-02-11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>19:05:36</t>
+          <t>18:21:58</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Mon mari m’apporte votre lettre ..." à Hatzfeldt, 1819-02-11, https://constance-de-salm.de/archiv/#/document/753 #onthisday</t>
+          <t>»Mon mari m’apporte votre lettre ...« à Hatzfeldt, 1819-02-11, https://constance-de-salm.de/archiv/#/document/753 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2027-2-12</t>
+          <t>2027-02-12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13:29:39</t>
+          <t>11:37:02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Tu dois être bien étonné, cher frère, de n’avoir pas de mes nouvelles ..." à Théis, 1829-02-12, https://constance-de-salm.de/archiv/#/document/10749 #onthisday</t>
+          <t>»Tu dois être bien étonné, cher frère, de n’avoir pas de mes nouvelles ...« à Théis, 1829-02-12, https://constance-de-salm.de/archiv/#/document/10749 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2027-2-13</t>
+          <t>2027-02-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15:17:41</t>
+          <t>16:32:50</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre dernière lettre, Monsieur le baron ..." à Ladoucette, 1831-02-13, https://constance-de-salm.de/archiv/#/document/6378 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre dernière lettre, Monsieur le baron ...« à Ladoucette, 1831-02-13, https://constance-de-salm.de/archiv/#/document/6378 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2027-2-14</t>
+          <t>2027-02-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12:30:14</t>
+          <t>08:13:21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Je viens de répondre à Monsieur de Montferrand, Monsieur, je lui ai dit ..." à Sanson de Pongerville, 1836-02-14, https://constance-de-salm.de/archiv/#/document/5116 #onthisday</t>
+          <t>»Je viens de répondre à Monsieur de Montferrand, Monsieur, je lui ai dit ...« à Sanson de Pongerville, 1836-02-14, https://constance-de-salm.de/archiv/#/document/5116 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2027-2-15</t>
+          <t>2027-02-15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11:40:35</t>
+          <t>12:55:03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Je ne puis assez vous remercier, Monsieur, du double cadeau que vous m'avez fait ..." à Sanson de Pongerville, 1833-02-15, https://constance-de-salm.de/archiv/#/document/5209 #onthisday</t>
+          <t>»Je ne puis assez vous remercier, Monsieur, du double cadeau que vous m'avez fait ...« à Sanson de Pongerville, 1833-02-15, https://constance-de-salm.de/archiv/#/document/5209 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2027-2-17</t>
+          <t>2027-02-17</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>19:24:46</t>
+          <t>09:51:23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Je veux ajouter un mot, ce matin, Monsieur, à quelques nouvelles notes que j’ai dictées hier au soir ..." à Sanson de Pongerville, 1836-02-17, https://constance-de-salm.de/archiv/#/document/9706 #onthisday</t>
+          <t>»Je veux ajouter un mot, ce matin, Monsieur, à quelques nouvelles notes que j’ai dictées hier au soir ...« à Sanson de Pongerville, 1836-02-17, https://constance-de-salm.de/archiv/#/document/9706 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2027-2-18</t>
+          <t>2027-02-18</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17:36:45</t>
+          <t>18:49:55</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Notre correspondance, comme vous le voyez, est fort active, Monsieur le baron; car j’ai reçu avant-hier votre lettre ..." à Ladoucette, 1835-02-18, https://constance-de-salm.de/archiv/#/document/9568 #onthisday</t>
+          <t>»Notre correspondance, comme vous le voyez, est fort active, Monsieur le baron; car j’ai reçu avant-hier votre lettre ...« à Ladoucette, 1835-02-18, https://constance-de-salm.de/archiv/#/document/9568 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2027-2-19</t>
+          <t>2027-02-19</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10:24:45</t>
+          <t>15:23:35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"C’est avec regret que j’apprends que Monsieur Borard ne peut me dire le nom du très aimable auteur ..." à Ritz, 1825-02-19, https://constance-de-salm.de/archiv/#/document/8934 #onthisday</t>
+          <t>»C’est avec regret que j’apprends que Monsieur Borard ne peut me dire le nom du très aimable auteur ...« à Ritz, 1825-02-19, https://constance-de-salm.de/archiv/#/document/8934 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2027-2-19</t>
+          <t>2027-02-19</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10:35:08</t>
+          <t>18:10:29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Votre dernière lettre, Monsieur, a été remise par le consul de Prusse à Elseneur à qui vous l'aviez confiée ..." à Depping, 1832-02-19, https://constance-de-salm.de/archiv/#/document/5399 #onthisday</t>
+          <t>»Votre dernière lettre, Monsieur, a été remise par le consul de Prusse à Elseneur à qui vous l'aviez confiée ...« à Depping, 1832-02-19, https://constance-de-salm.de/archiv/#/document/5399 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2027-2-20</t>
+          <t>2027-02-20</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11:32:34</t>
+          <t>12:19:18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Je suis fort touchée, Madame et amie, de tous les sentiments qui vous ont fait m‘écrire au moment où vous avez appris ..." à Laya, 1835-02-20, https://constance-de-salm.de/archiv/#/document/9571 #onthisday</t>
+          <t>»Je suis fort touchée, Madame et amie, de tous les sentiments qui vous ont fait m‘écrire au moment où vous avez appris ...« à Laya, 1835-02-20, https://constance-de-salm.de/archiv/#/document/9571 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2027-2-21</t>
+          <t>2027-02-21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>18:36:27</t>
+          <t>12:42:25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que j’ai reçu votre dernière lettre et que je me propose de vous répondre; ..." à Jullien de Paris, 1835-02-21, https://constance-de-salm.de/archiv/#/document/9572 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que j’ai reçu votre dernière lettre et que je me propose de vous répondre; ...« à Jullien de Paris, 1835-02-21, https://constance-de-salm.de/archiv/#/document/9572 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2027-2-22</t>
+          <t>2027-02-22</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09:04:34</t>
+          <t>18:21:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Je ne sais si je vous ai écrit que la lettre bien plus amicale qu’autre chose que j’ai répondue à la sortie extraordinaire de mon frère ..." à Drais, 1835-02-22, https://constance-de-salm.de/archiv/#/document/9574 #onthisday</t>
+          <t>»Je ne sais si je vous ai écrit que la lettre bien plus amicale qu’autre chose que j’ai répondue à la sortie extraordinaire de mon frère ...« à Drais, 1835-02-22, https://constance-de-salm.de/archiv/#/document/9574 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2027-2-23</t>
+          <t>2027-02-23</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14:58:07</t>
+          <t>09:00:13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"J’ai reçu ici votre lettre, ma chère amie; j’ai été charmée d’avoir de vos nouvelles, et aussi d’apprendre que vous avez été occupée ..." à Vanhove, 1835-02-23, https://constance-de-salm.de/archiv/#/document/9576 #onthisday</t>
+          <t>»J’ai reçu ici votre lettre, ma chère amie; j’ai été charmée d’avoir de vos nouvelles, et aussi d’apprendre que vous avez été occupée ...« à Vanhove, 1835-02-23, https://constance-de-salm.de/archiv/#/document/9576 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2027-2-25</t>
+          <t>2027-02-25</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11:32:43</t>
+          <t>13:03:55</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Monsieur votre père vous aura dit, Madame, que je l’ai bien grondé de ne pas vous avoir amenée avec lui mardi; ..." à Waldor, 1836-02-25, https://constance-de-salm.de/archiv/#/document/9714 #onthisday</t>
+          <t>»Monsieur votre père vous aura dit, Madame, que je l’ai bien grondé de ne pas vous avoir amenée avec lui mardi; ...« à Waldor, 1836-02-25, https://constance-de-salm.de/archiv/#/document/9714 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2027-2-26</t>
+          <t>2027-02-26</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>19:05:28</t>
+          <t>10:53:16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Nous sommes encore fort souffrants des suites de la grippe ..." à Viennet, 1837-02-26, https://constance-de-salm.de/archiv/#/document/7729 #onthisday</t>
+          <t>»Nous sommes encore fort souffrants des suites de la grippe ...« à Viennet, 1837-02-26, https://constance-de-salm.de/archiv/#/document/7729 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2027-2-26</t>
+          <t>2027-02-26</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15:27:32</t>
+          <t>08:49:07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Si Monsieur et Madame Viennet étaient libres lundi prochain ..." à Viennet, 1840-02-26, https://constance-de-salm.de/archiv/#/document/11274 #onthisday</t>
+          <t>»Si Monsieur et Madame Viennet étaient libres lundi prochain ...« à Viennet, 1840-02-26, https://constance-de-salm.de/archiv/#/document/11274 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2027-2-27</t>
+          <t>2027-02-27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13:33:00</t>
+          <t>09:12:04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ce n'est pas sans peine que je rassemble mes esprits pour vous écrire quelques mots de bon sens, Madame ..." à Thurn und Taxis, 1821-02-27, https://constance-de-salm.de/archiv/#/document/5808 #onthisday</t>
+          <t>»Ce n'est pas sans peine que je rassemble mes esprits pour vous écrire quelques mots de bon sens, Madame ...« à Thurn und Taxis, 1821-02-27, https://constance-de-salm.de/archiv/#/document/5808 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2027-2-28</t>
+          <t>2027-02-28</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18:20:01</t>
+          <t>09:27:05</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, très aimable dame; j'espérais tous ces jours-ci ..." à Waldor, 1840-02-28, https://constance-de-salm.de/archiv/#/document/8159 #onthisday</t>
+          <t>»Je n'entends point parler de vous, très aimable dame; j'espérais tous ces jours-ci ...« à Waldor, 1840-02-28, https://constance-de-salm.de/archiv/#/document/8159 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2027-2-29</t>
+          <t>2027-02-29</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>08:12:22</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Mon dernier billet et votre dernière lettre ce [sic] sont encore croisés, Monsieur, et j'ai encore remis ..." à Jullien de Paris, 1844-02-29, https://constance-de-salm.de/archiv/#/document/7719 #onthisday</t>
+          <t>»Mon dernier billet et votre dernière lettre ce [sic] sont encore croisés, Monsieur, et j'ai encore remis ...« à Jullien de Paris, 1844-02-29, https://constance-de-salm.de/archiv/#/document/7719 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2027-3-2</t>
+          <t>2027-03-02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18:08:31</t>
+          <t>09:37:12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai vu, Monsieur ..." à Villenave, 1841-03-02, https://constance-de-salm.de/archiv/#/document/7213 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai vu, Monsieur ...« à Villenave, 1841-03-02, https://constance-de-salm.de/archiv/#/document/7213 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2027-3-2</t>
+          <t>2027-03-02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>19:57:20</t>
+          <t>14:38:20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Enfin, cher frère, je commence à me porter un peu moins mal ..." à Théis, 1841-03-02, https://constance-de-salm.de/archiv/#/document/10947 #onthisday</t>
+          <t>»Enfin, cher frère, je commence à me porter un peu moins mal ...« à Théis, 1841-03-02, https://constance-de-salm.de/archiv/#/document/10947 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2027-3-3</t>
+          <t>2027-03-03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>17:30:10</t>
+          <t>09:44:30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre du 5 février très exactement, mon ancien ami ..." à Raboteau, 1820-03-03, https://constance-de-salm.de/archiv/#/document/3981 #onthisday</t>
+          <t>»J'ai reçu votre lettre du 5 février très exactement, mon ancien ami ...« à Raboteau, 1820-03-03, https://constance-de-salm.de/archiv/#/document/3981 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2027-3-5</t>
+          <t>2027-03-05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10:23:55</t>
+          <t>10:51:44</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Que pensez-vous de mon long silence, bien chère Princesse, après la toute aimable lettre que vous m'avez écrite ..." à Thurn und Taxis, 1826-03-05, https://constance-de-salm.de/archiv/#/document/5812 #onthisday</t>
+          <t>»Que pensez-vous de mon long silence, bien chère Princesse, après la toute aimable lettre que vous m'avez écrite ...« à Thurn und Taxis, 1826-03-05, https://constance-de-salm.de/archiv/#/document/5812 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2027-3-6</t>
+          <t>2027-03-06</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19:53:39</t>
+          <t>16:52:47</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Au moment où ma lettre d’hier venait de partir, Monsieur et ami, j’ai pensé que je ne m’étais pas assez expliquée ..." à Barbier, 1825-03-06, https://constance-de-salm.de/archiv/#/document/8938 #onthisday</t>
+          <t>»Au moment où ma lettre d’hier venait de partir, Monsieur et ami, j’ai pensé que je ne m’étais pas assez expliquée ...« à Barbier, 1825-03-06, https://constance-de-salm.de/archiv/#/document/8938 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2027-3-7</t>
+          <t>2027-03-07</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>19:54:38</t>
+          <t>14:08:14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Je m'empresse de vous faire savoir, Monsieur, (quioque peut-être vous le sachiez déjà) que la première livraison de la Biographie ..." à Sanson de Pongerville, 1836-03-07, https://constance-de-salm.de/archiv/#/document/9716 #onthisday</t>
+          <t>»Je m'empresse de vous faire savoir, Monsieur, (quioque peut-être vous le sachiez déjà) que la première livraison de la Biographie ...« à Sanson de Pongerville, 1836-03-07, https://constance-de-salm.de/archiv/#/document/9716 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2027-3-8</t>
+          <t>2027-03-08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13:46:26</t>
+          <t>16:39:32</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"J’arrive à Paris, et un de mes premiers soins est de faire mon compliment à Monsieur Alexandre Dumas ..." à Dumas, 1829-03-08, https://constance-de-salm.de/archiv/#/document/9315 #onthisday</t>
+          <t>»J’arrive à Paris, et un de mes premiers soins est de faire mon compliment à Monsieur Alexandre Dumas ...« à Dumas, 1829-03-08, https://constance-de-salm.de/archiv/#/document/9315 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2027-3-9</t>
+          <t>2027-03-09</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>19:54:32</t>
+          <t>17:32:26</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"J’ai reçu une lettre de Monsieur C. et je n’ai pu jusqu’à présent y répondre ..." à C., 1827-03-09, https://constance-de-salm.de/archiv/#/document/9058 #onthisday</t>
+          <t>»J’ai reçu une lettre de Monsieur C. et je n’ai pu jusqu’à présent y répondre ...« à C., 1827-03-09, https://constance-de-salm.de/archiv/#/document/9058 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2027-3-9</t>
+          <t>2027-03-09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>17:07:31</t>
+          <t>13:12:45</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Je me sens malade, de mauvaise humeur, et je me souviens tout à coup que je ne vous ai pas parlé ..." à Ladoucette, 1829-03-09, https://constance-de-salm.de/archiv/#/document/9317 #onthisday</t>
+          <t>»Je me sens malade, de mauvaise humeur, et je me souviens tout à coup que je ne vous ai pas parlé ...« à Ladoucette, 1829-03-09, https://constance-de-salm.de/archiv/#/document/9317 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2027-3-10</t>
+          <t>2027-03-10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>14:31:13</t>
+          <t>14:29:49</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Monsieur Amaury Duval a dû vous dire, Monsieur, que je devais vous voir ..." à Guyet, 1836-03-10, https://constance-de-salm.de/archiv/#/document/9720 #onthisday</t>
+          <t>»Monsieur Amaury Duval a dû vous dire, Monsieur, que je devais vous voir ...« à Guyet, 1836-03-10, https://constance-de-salm.de/archiv/#/document/9720 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2027-3-12</t>
+          <t>2027-03-12</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>17:23:38</t>
+          <t>16:56:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Que voilà longtemps que n'avez entendu parler de moi, ma chère et aimable voisine ..." à Hompesch, 1830-03-12, https://constance-de-salm.de/archiv/#/document/5156 #onthisday</t>
+          <t>»Que voilà longtemps que n'avez entendu parler de moi, ma chère et aimable voisine ...« à Hompesch, 1830-03-12, https://constance-de-salm.de/archiv/#/document/5156 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2027-3-12</t>
+          <t>2027-03-12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16:52:50</t>
+          <t>13:09:07</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Je reçois ici, Monsieur, la lettre que vous m'avez adressée à Paris, et par laquelle vous m'annoncez que l'Académie a bien voulu m'admettre au nombre de ses associés correspondants ..." à N.N., 1832-03-12, https://constance-de-salm.de/archiv/#/document/5403 #onthisday</t>
+          <t>»Je reçois ici, Monsieur, la lettre que vous m'avez adressée à Paris, et par laquelle vous m'annoncez que l'Académie a bien voulu m'admettre au nombre de ses associés correspondants ...« à N.N., 1832-03-12, https://constance-de-salm.de/archiv/#/document/5403 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2027-3-13</t>
+          <t>2027-03-13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09:54:45</t>
+          <t>17:31:40</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Une promenade que j'ai faite hier, Monsieur, a tellement augmenté mon mal de poitrine ..." à Denis, 1841-03-13, https://constance-de-salm.de/archiv/#/document/7216 #onthisday</t>
+          <t>»Une promenade que j'ai faite hier, Monsieur, a tellement augmenté mon mal de poitrine ...« à Denis, 1841-03-13, https://constance-de-salm.de/archiv/#/document/7216 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2027-3-14</t>
+          <t>2027-03-14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09:20:35</t>
+          <t>12:11:05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, votre très intéressant envoi et je m’empresse de vous en remercier ..." à Montémont, 1828-03-14, https://constance-de-salm.de/archiv/#/document/9135 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, votre très intéressant envoi et je m’empresse de vous en remercier ...« à Montémont, 1828-03-14, https://constance-de-salm.de/archiv/#/document/9135 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2027-3-14</t>
+          <t>2027-03-14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>19:17:41</t>
+          <t>18:35:56</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"C’est avec une grande joie, Monsieur, que j’ai appris la victoire que, grâce à vous, nous venons de remporter ..." à Pailliet, 1829-03-14, https://constance-de-salm.de/archiv/#/document/11353 #onthisday</t>
+          <t>»C’est avec une grande joie, Monsieur, que j’ai appris la victoire que, grâce à vous, nous venons de remporter ...« à Pailliet, 1829-03-14, https://constance-de-salm.de/archiv/#/document/11353 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2027-3-15</t>
+          <t>2027-03-15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16:19:12</t>
+          <t>08:58:41</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur et ancien ami, que vous m’en voulez un peu puisque vous ne m‘écrivez pas ..." à Raboteau, 1825-03-15, https://constance-de-salm.de/archiv/#/document/4036 #onthisday</t>
+          <t>»Il me semble, Monsieur et ancien ami, que vous m’en voulez un peu puisque vous ne m‘écrivez pas ...« à Raboteau, 1825-03-15, https://constance-de-salm.de/archiv/#/document/4036 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2027-3-18</t>
+          <t>2027-03-18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>09:05:08</t>
+          <t>18:35:34</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de Monsieur de Villenave: que devient-il? ..." à Villenave, 1829-03-18, https://constance-de-salm.de/archiv/#/document/9323 #onthisday</t>
+          <t>»Je n’entends point parler de Monsieur de Villenave: que devient-il? ...« à Villenave, 1829-03-18, https://constance-de-salm.de/archiv/#/document/9323 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2027-3-19</t>
+          <t>2027-03-19</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>09:36:10</t>
+          <t>18:57:27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Il y a déjà bien longtemps, cher frère, que je me propose de répondre à ta dernière lettre ..." à Théis, 1839-03-19, https://constance-de-salm.de/archiv/#/document/10916 #onthisday</t>
+          <t>»Il y a déjà bien longtemps, cher frère, que je me propose de répondre à ta dernière lettre ...« à Théis, 1839-03-19, https://constance-de-salm.de/archiv/#/document/10916 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2027-3-20</t>
+          <t>2027-03-20</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18:06:51</t>
+          <t>13:34:41</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Il y a dix mille ans que je voulais vous écrire, mon cher voisin; mais j'ai été si absorbée ..." à Prous, 1820-03-20, https://constance-de-salm.de/archiv/#/document/2827 #onthisday</t>
+          <t>»Il y a dix mille ans que je voulais vous écrire, mon cher voisin; mais j'ai été si absorbée ...« à Prous, 1820-03-20, https://constance-de-salm.de/archiv/#/document/2827 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2027-3-20</t>
+          <t>2027-03-20</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13:11:03</t>
+          <t>15:33:54</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Il y a dix mille ans que je voulais vous écrire, mon cher voisin; mais j'ai été si absorbée ..." à Prous, 1820-03-20, https://constance-de-salm.de/archiv/#/document/4506 #onthisday</t>
+          <t>»Il y a dix mille ans que je voulais vous écrire, mon cher voisin; mais j'ai été si absorbée ...« à Prous, 1820-03-20, https://constance-de-salm.de/archiv/#/document/4506 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2027-3-21</t>
+          <t>2027-03-21</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>17:22:10</t>
+          <t>13:49:47</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Hélas! Monsieur, avec les meilleures intentions du monde, vous avez trouvé le moyen de me faire une peine affreuse ..." à Drais, 1835-03-21, https://constance-de-salm.de/archiv/#/document/9587 #onthisday</t>
+          <t>»Hélas! Monsieur, avec les meilleures intentions du monde, vous avez trouvé le moyen de me faire une peine affreuse ...« à Drais, 1835-03-21, https://constance-de-salm.de/archiv/#/document/9587 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2027-3-22</t>
+          <t>2027-03-22</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>17:30:22</t>
+          <t>10:30:27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Vous serez surprise, Madame, de la date des deux lettres que je joins à celle-ci ..." à Maleszewski, 1839-03-22, https://constance-de-salm.de/archiv/#/document/8012 #onthisday</t>
+          <t>»Vous serez surprise, Madame, de la date des deux lettres que je joins à celle-ci ...« à Maleszewski, 1839-03-22, https://constance-de-salm.de/archiv/#/document/8012 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2027-3-23</t>
+          <t>2027-03-23</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>09:37:43</t>
+          <t>16:27:47</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Puisqu'il vous est égal, Monsieur et Madame, que notre petit dîner d'amis ..." à Sanson de Pongerville, 1842-03-23, https://constance-de-salm.de/archiv/#/document/7597 #onthisday</t>
+          <t>»Puisqu'il vous est égal, Monsieur et Madame, que notre petit dîner d'amis ...« à Sanson de Pongerville, 1842-03-23, https://constance-de-salm.de/archiv/#/document/7597 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2027-3-24</t>
+          <t>2027-03-24</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18:23:02</t>
+          <t>08:24:48</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Le rhume, les épreuves, et le temps froid, m'ont tellement accablée tous ces jours-ci que je n'ai pu penser qu'à me soigner et à avancer mon ouvrage ..." à Ladoucette, 1834-03-24, https://constance-de-salm.de/archiv/#/document/5550 #onthisday</t>
+          <t>»Le rhume, les épreuves, et le temps froid, m'ont tellement accablée tous ces jours-ci que je n'ai pu penser qu'à me soigner et à avancer mon ouvrage ...« à Ladoucette, 1834-03-24, https://constance-de-salm.de/archiv/#/document/5550 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2027-3-25</t>
+          <t>2027-03-25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>19:24:19</t>
+          <t>14:46:27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"C'est avec un véritable plaisir, mon ancien troubadour, que j'ai reçu l'aimable lettre ..." à Brack / Bracq, 1818-03-25, https://constance-de-salm.de/archiv/#/document/4433 #onthisday</t>
+          <t>»C'est avec un véritable plaisir, mon ancien troubadour, que j'ai reçu l'aimable lettre ...« à Brack / Bracq, 1818-03-25, https://constance-de-salm.de/archiv/#/document/4433 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2027-3-25</t>
+          <t>2027-03-25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>19:09:47</t>
+          <t>19:05:04</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, mes nombreux embarras, mon rhume, mes épreuves, m'ont laissé un moment de liberté ..." à Jullien de Paris, 1834-03-25, https://constance-de-salm.de/archiv/#/document/5551 #onthisday</t>
+          <t>»Enfin, Monsieur, mes nombreux embarras, mon rhume, mes épreuves, m'ont laissé un moment de liberté ...« à Jullien de Paris, 1834-03-25, https://constance-de-salm.de/archiv/#/document/5551 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2027-3-26</t>
+          <t>2027-03-26</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>14:26:25</t>
+          <t>12:40:28</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Je remercie beaucoup Monsieur Barbier de m'avoir envoyé le 7ème volume des Mémoires de l'académie ..." à Barbier, 1837-03-26, https://constance-de-salm.de/archiv/#/document/7743 #onthisday</t>
+          <t>»Je remercie beaucoup Monsieur Barbier de m'avoir envoyé le 7ème volume des Mémoires de l'académie ...« à Barbier, 1837-03-26, https://constance-de-salm.de/archiv/#/document/7743 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2027-3-27</t>
+          <t>2027-03-27</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11:02:13</t>
+          <t>11:53:44</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm n’a plus que quelques exemplaires de la seconde édition de ses poésies; mais elle ne peut résister au désir ..." à Berville, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9327 #onthisday</t>
+          <t>»La Princesse de Salm n’a plus que quelques exemplaires de la seconde édition de ses poésies; mais elle ne peut résister au désir ...« à Berville, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9327 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2027-3-28</t>
+          <t>2027-03-28</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>17:41:09</t>
+          <t>10:50:29</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Comme il faut, Monsieur, aimer ses amis non pour soi, mais pour eux, j'ai appris avec une véritable satisfaction que vous venez d'obtenir la place que nous vous désirions tous ..." à Biergans, 1834-03-28, https://constance-de-salm.de/archiv/#/document/5553 #onthisday</t>
+          <t>»Comme il faut, Monsieur, aimer ses amis non pour soi, mais pour eux, j'ai appris avec une véritable satisfaction que vous venez d'obtenir la place que nous vous désirions tous ...« à Biergans, 1834-03-28, https://constance-de-salm.de/archiv/#/document/5553 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2027-3-29</t>
+          <t>2027-03-29</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>19:13:22</t>
+          <t>12:30:54</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ..." à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/4861 #onthisday</t>
+          <t>»Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ...« à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/4861 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2027-3-29</t>
+          <t>2027-03-29</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16:38:56</t>
+          <t>16:07:47</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Puisque l’on trouve que le petit article que j’ai fait sur mon père aurait meilleure grâce si j’avais gardé l’anonyme ..." à Ponce, 1826-03-29, https://constance-de-salm.de/archiv/#/document/8988 #onthisday</t>
+          <t>»Puisque l’on trouve que le petit article que j’ai fait sur mon père aurait meilleure grâce si j’avais gardé l’anonyme ...« à Ponce, 1826-03-29, https://constance-de-salm.de/archiv/#/document/8988 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2027-3-30</t>
+          <t>2027-03-30</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>15:49:29</t>
+          <t>17:37:37</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Si Monsieur le baron voulait passer chez moi ce matin ..." à Ladoucette, 1829-03-30, https://constance-de-salm.de/archiv/#/document/9330 #onthisday</t>
+          <t>»Si Monsieur le baron voulait passer chez moi ce matin ...« à Ladoucette, 1829-03-30, https://constance-de-salm.de/archiv/#/document/9330 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2027-3-30</t>
+          <t>2027-03-30</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>14:21:08</t>
+          <t>12:10:50</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Je préviens, Monsieur le baron, qu'il me sera impossible de trouver un instant de liberté ..." à Maltitz, 1830-03-30, https://constance-de-salm.de/archiv/#/document/5159 #onthisday</t>
+          <t>»Je préviens, Monsieur le baron, qu'il me sera impossible de trouver un instant de liberté ...« à Maltitz, 1830-03-30, https://constance-de-salm.de/archiv/#/document/5159 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2027-3-31</t>
+          <t>2027-03-31</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11:43:45</t>
+          <t>11:13:47</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Si Monsieur et Madame de Paganel sont libres demain jeudi, et s'ils peuvent venir ..." à Paganel, 1841-03-31, https://constance-de-salm.de/archiv/#/document/7221 #onthisday</t>
+          <t>»Si Monsieur et Madame de Paganel sont libres demain jeudi, et s'ils peuvent venir ...« à Paganel, 1841-03-31, https://constance-de-salm.de/archiv/#/document/7221 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2027-4-1</t>
+          <t>2027-04-01</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>14:36:26</t>
+          <t>16:26:36</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"C'est au moment de monter en voiture, Monsieur, que je pourrais enfin répondre un mot à votre dernier billet ..." à Villenave, 1830-04-01, https://constance-de-salm.de/archiv/#/document/5160 #onthisday</t>
+          <t>»C'est au moment de monter en voiture, Monsieur, que je pourrais enfin répondre un mot à votre dernier billet ...« à Villenave, 1830-04-01, https://constance-de-salm.de/archiv/#/document/5160 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2027-4-2</t>
+          <t>2027-04-02</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15:10:30</t>
+          <t>08:19:23</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, à quel point je suis flattée de votre charmant article ..." à Paganel, 1829-04-02, https://constance-de-salm.de/archiv/#/document/9335 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, à quel point je suis flattée de votre charmant article ...« à Paganel, 1829-04-02, https://constance-de-salm.de/archiv/#/document/9335 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2027-4-2</t>
+          <t>2027-04-02</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16:54:45</t>
+          <t>16:30:45</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Si mon cher et ancien confrère en Apollon voulait et pouvait dîner avec mois et deux de ses vieux amis demain ..." à Andrieux, 1830-04-02, https://constance-de-salm.de/archiv/#/document/5161 #onthisday</t>
+          <t>»Si mon cher et ancien confrère en Apollon voulait et pouvait dîner avec mois et deux de ses vieux amis demain ...« à Andrieux, 1830-04-02, https://constance-de-salm.de/archiv/#/document/5161 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2027-4-3</t>
+          <t>2027-04-03</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12:32:58</t>
+          <t>18:34:09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Je ne t’ai pas écrit tout ce temps-ci, cher frère, parce que ta femme m’a dit que tu étais en tournée ..." à Théis, 1829-04-03, https://constance-de-salm.de/archiv/#/document/9338 #onthisday</t>
+          <t>»Je ne t’ai pas écrit tout ce temps-ci, cher frère, parce que ta femme m’a dit que tu étais en tournée ...« à Théis, 1829-04-03, https://constance-de-salm.de/archiv/#/document/9338 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2027-4-4</t>
+          <t>2027-04-04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>19:06:26</t>
+          <t>17:18:50</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, au moment où je pensais à vous écrire ; ..." à Pailliet, 1826-04-04, https://constance-de-salm.de/archiv/#/document/11330 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, au moment où je pensais à vous écrire ; ...« à Pailliet, 1826-04-04, https://constance-de-salm.de/archiv/#/document/11330 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2027-4-4</t>
+          <t>2027-04-04</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>13:11:44</t>
+          <t>18:22:27</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Au moment où j’ai reçu votre aimable envoi, Monsieur et ami, je me disposais à vous écrire pour vous demander de vos nouvelles ..." à Laya, 1828-04-04, https://constance-de-salm.de/archiv/#/document/9139 #onthisday</t>
+          <t>»Au moment où j’ai reçu votre aimable envoi, Monsieur et ami, je me disposais à vous écrire pour vous demander de vos nouvelles ...« à Laya, 1828-04-04, https://constance-de-salm.de/archiv/#/document/9139 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2027-4-5</t>
+          <t>2027-04-05</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>11:26:31</t>
+          <t>14:48:32</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Madame, quoique je n'aie eu l'honneur de voir votre Altesse Royale ..." à Preußen, 1831-04-05, https://constance-de-salm.de/archiv/#/document/6348 #onthisday</t>
+          <t>»Madame, quoique je n'aie eu l'honneur de voir votre Altesse Royale ...« à Preußen, 1831-04-05, https://constance-de-salm.de/archiv/#/document/6348 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2027-4-5</t>
+          <t>2027-04-05</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16:49:28</t>
+          <t>16:13:15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"J'ai été charmée, Monsieur, de recevoir votre toute aimable lettre ..." à Paganel, 1833-04-05, https://constance-de-salm.de/archiv/#/document/5211 #onthisday</t>
+          <t>»J'ai été charmée, Monsieur, de recevoir votre toute aimable lettre ...« à Paganel, 1833-04-05, https://constance-de-salm.de/archiv/#/document/5211 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2027-4-6</t>
+          <t>2027-04-06</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>19:55:43</t>
+          <t>09:06:49</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Je pars cette nuit, Monsieur, et j'ai à peine le temps de vous dire que j'ai reçu votre lettre ..." à Monglave, 1830-04-06, https://constance-de-salm.de/archiv/#/document/5164 #onthisday</t>
+          <t>»Je pars cette nuit, Monsieur, et j'ai à peine le temps de vous dire que j'ai reçu votre lettre ...« à Monglave, 1830-04-06, https://constance-de-salm.de/archiv/#/document/5164 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2027-4-7</t>
+          <t>2027-04-07</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>11:21:57</t>
+          <t>11:12:58</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit hier en grande hâte, mon cher voisin, et je vous ai envoyé ..." à Prous, 1820-04-07, https://constance-de-salm.de/archiv/#/document/4514 #onthisday</t>
+          <t>»Je vous ai écrit hier en grande hâte, mon cher voisin, et je vous ai envoyé ...« à Prous, 1820-04-07, https://constance-de-salm.de/archiv/#/document/4514 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2027-4-8</t>
+          <t>2027-04-08</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>11:49:03</t>
+          <t>12:50:11</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Pongerville qui vous a vu, m'a dit, mon cher Duval, que vous alliez mieux ..." à Duval, 1837-04-08, https://constance-de-salm.de/archiv/#/document/7751 #onthisday</t>
+          <t>»Pongerville qui vous a vu, m'a dit, mon cher Duval, que vous alliez mieux ...« à Duval, 1837-04-08, https://constance-de-salm.de/archiv/#/document/7751 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2027-4-8</t>
+          <t>2027-04-08</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>18:22:37</t>
+          <t>12:17:14</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Félix qui a été hier chez vous sans vous trouver, ma chère, et qui vous a rencontré en voiture ..." à Châlot, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7227 #onthisday</t>
+          <t>»Mon petit-fils Félix qui a été hier chez vous sans vous trouver, ma chère, et qui vous a rencontré en voiture ...« à Châlot, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7227 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2027-4-9</t>
+          <t>2027-04-09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>15:14:01</t>
+          <t>18:24:03</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Je me hâte, Monsieur, de m'accuser d'une grosse faute d'allemand que j'ai faite hier ..." à Châtelain, 1837-04-09, https://constance-de-salm.de/archiv/#/document/8323 #onthisday</t>
+          <t>»Je me hâte, Monsieur, de m'accuser d'une grosse faute d'allemand que j'ai faite hier ...« à Châtelain, 1837-04-09, https://constance-de-salm.de/archiv/#/document/8323 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2027-4-10</t>
+          <t>2027-04-10</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>14:41:11</t>
+          <t>19:07:42</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"La grande gaîté de Madame Dauriat m’a fait oublier hier soir, mon cher voisin, de vous engager à passer encore un jour avec moi ..." à Ladoucette, 1827-04-10, https://constance-de-salm.de/archiv/#/document/9066 #onthisday</t>
+          <t>»La grande gaîté de Madame Dauriat m’a fait oublier hier soir, mon cher voisin, de vous engager à passer encore un jour avec moi ...« à Ladoucette, 1827-04-10, https://constance-de-salm.de/archiv/#/document/9066 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2027-4-11</t>
+          <t>2027-04-11</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>13:00:20</t>
+          <t>18:03:01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, de toutes les peines que vous vous êtes données pour mon vieux „traître” ..." à Coubard d'Aulnay, 1834-04-11, https://constance-de-salm.de/archiv/#/document/5559 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, de toutes les peines que vous vous êtes données pour mon vieux „traître” ...« à Coubard d'Aulnay, 1834-04-11, https://constance-de-salm.de/archiv/#/document/5559 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2027-4-12</t>
+          <t>2027-04-12</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>13:02:47</t>
+          <t>12:41:52</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm a fait remettre au bureau du Journal des débats deux exemplaires ..." à Bertin, 1824-04-12, https://constance-de-salm.de/archiv/#/document/8883 #onthisday</t>
+          <t>»La Princesse de Salm a fait remettre au bureau du Journal des débats deux exemplaires ...« à Bertin, 1824-04-12, https://constance-de-salm.de/archiv/#/document/8883 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2027-4-12</t>
+          <t>2027-04-12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14:47:10</t>
+          <t>10:00:53</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm est encore si fatiguée, qu’elle emprunte la main de Mademoiselle Simons ..." à Ladoucette, 1824-04-12, https://constance-de-salm.de/archiv/#/document/8882 #onthisday</t>
+          <t>»La Princesse de Salm est encore si fatiguée, qu’elle emprunte la main de Mademoiselle Simons ...« à Ladoucette, 1824-04-12, https://constance-de-salm.de/archiv/#/document/8882 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2027-4-13</t>
+          <t>2027-04-13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>18:00:35</t>
+          <t>18:02:37</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Je vous ai envoyé hier, Monsieur, la signification du jugement ..." à Pailliet, 1827-04-13, https://constance-de-salm.de/archiv/#/document/11366 #onthisday</t>
+          <t>»Je vous ai envoyé hier, Monsieur, la signification du jugement ...« à Pailliet, 1827-04-13, https://constance-de-salm.de/archiv/#/document/11366 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2027-4-13</t>
+          <t>2027-04-13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>10:49:46</t>
+          <t>11:10:42</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"J’espère toujours, Monsieur, que vous alliez venir à Paris, et c’est pourquoi je ne vous ai pas écrit depuis longtemps ..." à Pailliet, 1828-04-13, https://constance-de-salm.de/archiv/#/document/11350 #onthisday</t>
+          <t>»J’espère toujours, Monsieur, que vous alliez venir à Paris, et c’est pourquoi je ne vous ai pas écrit depuis longtemps ...« à Pailliet, 1828-04-13, https://constance-de-salm.de/archiv/#/document/11350 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2027-4-14</t>
+          <t>2027-04-14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12:39:12</t>
+          <t>09:43:29</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Si par hasard, Monsieur le baron de Ladoucette est encore chez lui; voudrait-il bien ..." à Ladoucette, 1829-04-14, https://constance-de-salm.de/archiv/#/document/9347 #onthisday</t>
+          <t>»Si par hasard, Monsieur le baron de Ladoucette est encore chez lui; voudrait-il bien ...« à Ladoucette, 1829-04-14, https://constance-de-salm.de/archiv/#/document/9347 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2027-4-15</t>
+          <t>2027-04-15</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>09:22:57</t>
+          <t>09:15:36</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Mon mari me presse de partir, Madame; je ne puis me résoudre à le laisser seul ..." à Waldor, 1836-04-15, https://constance-de-salm.de/archiv/#/document/9732 #onthisday</t>
+          <t>»Mon mari me presse de partir, Madame; je ne puis me résoudre à le laisser seul ...« à Waldor, 1836-04-15, https://constance-de-salm.de/archiv/#/document/9732 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2027-4-16</t>
+          <t>2027-04-16</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>13:03:57</t>
+          <t>09:03:45</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Je suis bien sensible, Monsieur le baron, à l’extrême amabilité avec laquelle vous m’engagez à prendre place aujourd’hui ..." à Ladoucette, 1826-04-16, https://constance-de-salm.de/archiv/#/document/8992 #onthisday</t>
+          <t>»Je suis bien sensible, Monsieur le baron, à l’extrême amabilité avec laquelle vous m’engagez à prendre place aujourd’hui ...« à Ladoucette, 1826-04-16, https://constance-de-salm.de/archiv/#/document/8992 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2027-4-17</t>
+          <t>2027-04-17</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10:38:42</t>
+          <t>18:56:40</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"L’article a besoin d’être recopié; j’en veux aussi parler avant de la donner ..." à Ladoucette, 1829-04-17, https://constance-de-salm.de/archiv/#/document/9350 #onthisday</t>
+          <t>»L’article a besoin d’être recopié; j’en veux aussi parler avant de la donner ...« à Ladoucette, 1829-04-17, https://constance-de-salm.de/archiv/#/document/9350 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2027-4-17</t>
+          <t>2027-04-17</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>14:03:06</t>
+          <t>19:38:13</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Madame, à quel point je suis flattée de ce que vous me dites d’aimable ..." à Cabanis, 1829-04-17, https://constance-de-salm.de/archiv/#/document/9349 #onthisday</t>
+          <t>»Je ne puis vous dire, Madame, à quel point je suis flattée de ce que vous me dites d’aimable ...« à Cabanis, 1829-04-17, https://constance-de-salm.de/archiv/#/document/9349 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2027-4-18</t>
+          <t>2027-04-18</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>18:25:20</t>
+          <t>12:26:22</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Monsieur Berville s’était chargé hier d’engager Monsieur Andrieux de la part du Prince et de la Princesse de Salm ..." à Andrieux, 1828-04-18, https://constance-de-salm.de/archiv/#/document/9150 #onthisday</t>
+          <t>»Monsieur Berville s’était chargé hier d’engager Monsieur Andrieux de la part du Prince et de la Princesse de Salm ...« à Andrieux, 1828-04-18, https://constance-de-salm.de/archiv/#/document/9150 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2027-4-20</t>
+          <t>2027-04-20</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>13:51:11</t>
+          <t>11:48:10</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur le président, la lettre que vous m’avez adressée et j’ai été extrêmement flattée de la preuve particulière d’estime ..." à Ursin, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9154 #onthisday</t>
+          <t>»J’ai reçu, Monsieur le président, la lettre que vous m’avez adressée et j’ai été extrêmement flattée de la preuve particulière d’estime ...« à Ursin, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9154 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2027-4-20</t>
+          <t>2027-04-20</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>19:43:17</t>
+          <t>16:58:30</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Monsieur, et l‘intéressant ouvrage qui y était joint ..." à Asfeld, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9152 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Monsieur, et l‘intéressant ouvrage qui y était joint ...« à Asfeld, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9152 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2027-4-21</t>
+          <t>2027-04-21</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>12:51:55</t>
+          <t>09:35:46</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Il a été décidé en cour plénière que Monsieur le baron de Ladoucette avait raison, ce qui ne surprendra personne; ..." à Ladoucette, 1829-04-21, https://constance-de-salm.de/archiv/#/document/9354 #onthisday</t>
+          <t>»Il a été décidé en cour plénière que Monsieur le baron de Ladoucette avait raison, ce qui ne surprendra personne; ...« à Ladoucette, 1829-04-21, https://constance-de-salm.de/archiv/#/document/9354 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2027-4-23</t>
+          <t>2027-04-23</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16:01:26</t>
+          <t>11:03:10</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Monsieur ..." à Pailliet, 1825-04-23, https://constance-de-salm.de/archiv/#/document/11339 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Monsieur ...« à Pailliet, 1825-04-23, https://constance-de-salm.de/archiv/#/document/11339 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2027-4-24</t>
+          <t>2027-04-24</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10:38:55</t>
+          <t>08:31:46</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Je suis charmé, Monsieur, de vous voir de mon avis sur le petit changement que je désirais faire à l’article de Monsieur de Villenave; ..." à Jullien de Paris, 1828-04-24, https://constance-de-salm.de/archiv/#/document/9156 #onthisday</t>
+          <t>»Je suis charmé, Monsieur, de vous voir de mon avis sur le petit changement que je désirais faire à l’article de Monsieur de Villenave; ...« à Jullien de Paris, 1828-04-24, https://constance-de-salm.de/archiv/#/document/9156 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2027-4-25</t>
+          <t>2027-04-25</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>11:26:20</t>
+          <t>11:29:34</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"J’ai reçu ces jours-ci votre seconde lettre, ma chère amie, l’affection si sincère que vous me témoignez ..." à Vanhove, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9597 #onthisday</t>
+          <t>»J’ai reçu ces jours-ci votre seconde lettre, ma chère amie, l’affection si sincère que vous me témoignez ...« à Vanhove, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9597 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2027-4-26</t>
+          <t>2027-04-26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>13:54:15</t>
+          <t>17:12:45</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"Je ne puis pas vous savoir si près de moi, et ne vous rien dire, mon cher voisin ..." à Prous, 1820-04-26, https://constance-de-salm.de/archiv/#/document/4520 #onthisday</t>
+          <t>»Je ne puis pas vous savoir si près de moi, et ne vous rien dire, mon cher voisin ...« à Prous, 1820-04-26, https://constance-de-salm.de/archiv/#/document/4520 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2027-4-27</t>
+          <t>2027-04-27</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>13:41:25</t>
+          <t>13:13:43</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Je me réveille, Monsieur le baron, avec le désir de réfléchir encore au projet de donner mes „Pensées“ à la Société philotechnique ..." à Ladoucette, 1829-04-27, https://constance-de-salm.de/archiv/#/document/9359 #onthisday</t>
+          <t>»Je me réveille, Monsieur le baron, avec le désir de réfléchir encore au projet de donner mes „Pensées“ à la Société philotechnique ...« à Ladoucette, 1829-04-27, https://constance-de-salm.de/archiv/#/document/9359 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2027-4-27</t>
+          <t>2027-04-27</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>13:23:55</t>
+          <t>18:08:30</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre excellente lettre, Madame et bien chère amie; j'en suis vivement touchée, et je me reprocherais de ne pas vous répondre à l'instant ..." à Salis, 1832-04-27, https://constance-de-salm.de/archiv/#/document/5388 #onthisday</t>
+          <t>»Je reçois ici votre excellente lettre, Madame et bien chère amie; j'en suis vivement touchée, et je me reprocherais de ne pas vous répondre à l'instant ...« à Salis, 1832-04-27, https://constance-de-salm.de/archiv/#/document/5388 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2027-4-28</t>
+          <t>2027-04-28</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>13:44:46</t>
+          <t>13:07:19</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Je pars demain, Monsieur et ancien ami, et je veux vous répondre avant de partir, c’est-à-dire que je vous ai gardé ..." à Andrieux, 1828-04-28, https://constance-de-salm.de/archiv/#/document/9158 #onthisday</t>
+          <t>»Je pars demain, Monsieur et ancien ami, et je veux vous répondre avant de partir, c’est-à-dire que je vous ai gardé ...« à Andrieux, 1828-04-28, https://constance-de-salm.de/archiv/#/document/9158 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2027-4-29</t>
+          <t>2027-04-29</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>13:12:58</t>
+          <t>18:54:36</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"J’ai vu hier Monsieur Boucharlat, Monsieur; il n’a pu qu’être satisfait ..." à Paillet, 1836-04-29, https://constance-de-salm.de/archiv/#/document/9738 #onthisday</t>
+          <t>»J’ai vu hier Monsieur Boucharlat, Monsieur; il n’a pu qu’être satisfait ...« à Paillet, 1836-04-29, https://constance-de-salm.de/archiv/#/document/9738 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2027-4-30</t>
+          <t>2027-04-30</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>12:34:17</t>
+          <t>17:56:06</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"J’envoyais chercher vos ouvrages, Madame, au moment même où on me les a remis de votre part ..." à Babois, 1829-04-30, https://constance-de-salm.de/archiv/#/document/9365 #onthisday</t>
+          <t>»J’envoyais chercher vos ouvrages, Madame, au moment même où on me les a remis de votre part ...« à Babois, 1829-04-30, https://constance-de-salm.de/archiv/#/document/9365 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2027-5-1</t>
+          <t>2027-05-01</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09:15:44</t>
+          <t>18:00:42</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Je n’entends pas parler de vous, Monsieur, et je m’en alarme ..." à Pailliet, 1829-05-01, https://constance-de-salm.de/archiv/#/document/11354 #onthisday</t>
+          <t>»Je n’entends pas parler de vous, Monsieur, et je m’en alarme ...« à Pailliet, 1829-05-01, https://constance-de-salm.de/archiv/#/document/11354 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,17 +4270,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2027-5-2</t>
+          <t>2027-05-02</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>11:52:52</t>
+          <t>17:18:54</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"J’arrive de Paris, Monsieur le baron, je reste ici jusqu‘à mardi prochain et je profite de ce court séjour pour me rappeler à votre souvenir ..." à Stassart, 1828-05-02, https://constance-de-salm.de/archiv/#/document/9160 #onthisday</t>
+          <t>»J’arrive de Paris, Monsieur le baron, je reste ici jusqu‘à mardi prochain et je profite de ce court séjour pour me rappeler à votre souvenir ...« à Stassart, 1828-05-02, https://constance-de-salm.de/archiv/#/document/9160 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4297,17 +4297,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2027-5-3</t>
+          <t>2027-05-03</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>08:02:19</t>
+          <t>19:32:22</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Je vous ai promis de vous écrire, avant de quitter Paris, Monsieur et ami, et je tiens ma promesse ..." à Raboteau, 1824-05-03, https://constance-de-salm.de/archiv/#/document/4866 #onthisday</t>
+          <t>»Je vous ai promis de vous écrire, avant de quitter Paris, Monsieur et ami, et je tiens ma promesse ...« à Raboteau, 1824-05-03, https://constance-de-salm.de/archiv/#/document/4866 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2027-5-4</t>
+          <t>2027-05-04</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16:57:44</t>
+          <t>16:00:38</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"J’ai lu la tragédie du jeune auteur comme je le lui avais promis; ..." à Villenave, 1828-05-04, https://constance-de-salm.de/archiv/#/document/9163 #onthisday</t>
+          <t>»J’ai lu la tragédie du jeune auteur comme je le lui avais promis; ...« à Villenave, 1828-05-04, https://constance-de-salm.de/archiv/#/document/9163 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2027-5-5</t>
+          <t>2027-05-05</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>11:23:05</t>
+          <t>14:07:29</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Nous nous perdons tout à fait de vue, Madame et ancienne amie, et il est si peu dans mon caractère ..." à Salis, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9371 #onthisday</t>
+          <t>»Nous nous perdons tout à fait de vue, Madame et ancienne amie, et il est si peu dans mon caractère ...« à Salis, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9371 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4378,17 +4378,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2027-5-6</t>
+          <t>2027-05-06</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>17:37:30</t>
+          <t>17:30:57</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Si l’aimable voisin pouvait venir ce soir, il nous ferait grand plaisir; ..." à Ladoucette, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9373 #onthisday</t>
+          <t>»Si l’aimable voisin pouvait venir ce soir, il nous ferait grand plaisir; ...« à Ladoucette, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9373 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4405,17 +4405,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2027-5-7</t>
+          <t>2027-05-07</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16:58:08</t>
+          <t>08:15:16</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Je retrouve une belle double copie que j’avais fait faire de l’article ..." à Ladoucette, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9377 #onthisday</t>
+          <t>»Je retrouve une belle double copie que j’avais fait faire de l’article ...« à Ladoucette, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9377 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2027-5-8</t>
+          <t>2027-05-08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>19:30:38</t>
+          <t>13:34:34</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"J’ai chargé Monsieur Drais, Monsieur, de vous donner de mes nouvelles et de vous dire un mot au sujet du Journal des Débats ..." à Barbier, 1828-05-08, https://constance-de-salm.de/archiv/#/document/9165 #onthisday</t>
+          <t>»J’ai chargé Monsieur Drais, Monsieur, de vous donner de mes nouvelles et de vous dire un mot au sujet du Journal des Débats ...« à Barbier, 1828-05-08, https://constance-de-salm.de/archiv/#/document/9165 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4459,17 +4459,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2027-5-9</t>
+          <t>2027-05-09</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:14:27</t>
+          <t>13:07:46</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, la lettre que vous m’avez écrite et l’ouvrage que vous avez bien voulu y joindre ..." à Gence, 1829-05-09, https://constance-de-salm.de/archiv/#/document/9380 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, la lettre que vous m’avez écrite et l’ouvrage que vous avez bien voulu y joindre ...« à Gence, 1829-05-09, https://constance-de-salm.de/archiv/#/document/9380 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4486,17 +4486,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2027-5-10</t>
+          <t>2027-05-10</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>17:20:43</t>
+          <t>13:12:30</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, combien je suis charmée de vous savoir si près de moi ..." à Say, 1831-05-10, https://constance-de-salm.de/archiv/#/document/9501 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, combien je suis charmée de vous savoir si près de moi ...« à Say, 1831-05-10, https://constance-de-salm.de/archiv/#/document/9501 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4513,17 +4513,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2027-5-11</t>
+          <t>2027-05-11</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10:37:54</t>
+          <t>18:14:29</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Vous aurez été bien surpris, Monsieur et ami, de mon long silence après le tout aimable article du Moniteur ..." à Sauvo, 1836-05-11, https://constance-de-salm.de/archiv/#/document/9743 #onthisday</t>
+          <t>»Vous aurez été bien surpris, Monsieur et ami, de mon long silence après le tout aimable article du Moniteur ...« à Sauvo, 1836-05-11, https://constance-de-salm.de/archiv/#/document/9743 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2027-5-12</t>
+          <t>2027-05-12</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>13:50:33</t>
+          <t>10:52:18</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"J’ai l’honneur de vous adresser le „Journal des dames“ où l’on parle ..." à Ladoucette, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9383 #onthisday</t>
+          <t>»J’ai l’honneur de vous adresser le „Journal des dames“ où l’on parle ...« à Ladoucette, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9383 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2027-5-13</t>
+          <t>2027-05-13</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10:23:00</t>
+          <t>10:12:54</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Vous allez être bien étonné, Monsieur, d’apprendre que je suis encore ici ..." à Berville, 1829-05-13, https://constance-de-salm.de/archiv/#/document/9384 #onthisday</t>
+          <t>»Vous allez être bien étonné, Monsieur, d’apprendre que je suis encore ici ...« à Berville, 1829-05-13, https://constance-de-salm.de/archiv/#/document/9384 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4594,17 +4594,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2027-5-14</t>
+          <t>2027-05-14</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>09:56:41</t>
+          <t>19:56:32</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Mon ancien ami, un de mes premiers soins en arrivant est de vous écrire un mot ..." à Raboteau, 1819-05-14, https://constance-de-salm.de/archiv/#/document/4470 #onthisday</t>
+          <t>»Mon ancien ami, un de mes premiers soins en arrivant est de vous écrire un mot ...« à Raboteau, 1819-05-14, https://constance-de-salm.de/archiv/#/document/4470 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4621,17 +4621,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2027-5-15</t>
+          <t>2027-05-15</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>14:43:08</t>
+          <t>11:05:01</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Quoique je sois bien souffrante, Monsieur et véritable ami, je veux vous écrire ..." à Raboteau, 1821-05-15, https://constance-de-salm.de/archiv/#/document/8283 #onthisday</t>
+          <t>»Quoique je sois bien souffrante, Monsieur et véritable ami, je veux vous écrire ...« à Raboteau, 1821-05-15, https://constance-de-salm.de/archiv/#/document/8283 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2027-5-15</t>
+          <t>2027-05-15</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10:35:01</t>
+          <t>18:40:21</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Quoique je sois bien souffrante, Monsieur et véritable ami, je veux vous écrire ..." à Raboteau, 1821-05-15, https://constance-de-salm.de/archiv/#/document/3877 #onthisday</t>
+          <t>»Quoique je sois bien souffrante, Monsieur et véritable ami, je veux vous écrire ...« à Raboteau, 1821-05-15, https://constance-de-salm.de/archiv/#/document/3877 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4675,17 +4675,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2027-5-16</t>
+          <t>2027-05-16</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>14:46:58</t>
+          <t>14:55:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Mille remerciments, Monsieur, de votre très aimable cadeau ..." à Barbier, 1817-05-16, https://constance-de-salm.de/archiv/#/document/4357 #onthisday</t>
+          <t>»Mille remerciments, Monsieur, de votre très aimable cadeau ...« à Barbier, 1817-05-16, https://constance-de-salm.de/archiv/#/document/4357 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2027-5-16</t>
+          <t>2027-05-16</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>11:51:22</t>
+          <t>15:44:46</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Je veux vous faire savoir moi-même, Monsieur et ancien ami, que je suis arrivée ..." à Thurot, 1819-05-16, https://constance-de-salm.de/archiv/#/document/4472 #onthisday</t>
+          <t>»Je veux vous faire savoir moi-même, Monsieur et ancien ami, que je suis arrivée ...« à Thurot, 1819-05-16, https://constance-de-salm.de/archiv/#/document/4472 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4729,17 +4729,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2027-5-17</t>
+          <t>2027-05-17</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>16:51:38</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Comment se porte Monsieur Prous? ..." à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/8851 #onthisday</t>
+          <t>»Comment se porte Monsieur Prous? ...« à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/8851 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2027-5-18</t>
+          <t>2027-05-18</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>11:56:21</t>
+          <t>13:05:14</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Sire, j’ai reçu à Paris la lettre dont V[otre] M[ajesté] m’a honorée en réponse à celles que j’ai pris la liberté de lui écrire ..." à Friedrich Wilhelm III., 1828-05-18, https://constance-de-salm.de/archiv/#/document/9108 #onthisday</t>
+          <t>»Sire, j’ai reçu à Paris la lettre dont V[otre] M[ajesté] m’a honorée en réponse à celles que j’ai pris la liberté de lui écrire ...« à Friedrich Wilhelm III., 1828-05-18, https://constance-de-salm.de/archiv/#/document/9108 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4783,17 +4783,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2027-5-19</t>
+          <t>2027-05-19</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16:24:21</t>
+          <t>14:40:55</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Je viens d’examiner, Monsieur, les copies que Monsieur Drais a faites, depuis que je suis ici, de quelques unes de mes lettres ..." à Barbier, 1829-05-19, https://constance-de-salm.de/archiv/#/document/9386 #onthisday</t>
+          <t>»Je viens d’examiner, Monsieur, les copies que Monsieur Drais a faites, depuis que je suis ici, de quelques unes de mes lettres ...« à Barbier, 1829-05-19, https://constance-de-salm.de/archiv/#/document/9386 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2027-5-19</t>
+          <t>2027-05-19</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>14:24:26</t>
+          <t>19:17:13</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"J'ai vendredi prochain, Monsieur, une petite dernière réunion, où se trouveront quelques amis qui n'ont pu venir lundi passé ..." à Coubard d'Aulnay, 1834-05-19, https://constance-de-salm.de/archiv/#/document/5567 #onthisday</t>
+          <t>»J'ai vendredi prochain, Monsieur, une petite dernière réunion, où se trouveront quelques amis qui n'ont pu venir lundi passé ...« à Coubard d'Aulnay, 1834-05-19, https://constance-de-salm.de/archiv/#/document/5567 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2027-5-20</t>
+          <t>2027-05-20</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16:35:25</t>
+          <t>09:14:35</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"Sire, je prends la liberté de joindre à cette lettre un exemplaire ..." à Friedrich Wilhelm III., 1820-05-20, https://constance-de-salm.de/archiv/#/document/4530 #onthisday</t>
+          <t>»Sire, je prends la liberté de joindre à cette lettre un exemplaire ...« à Friedrich Wilhelm III., 1820-05-20, https://constance-de-salm.de/archiv/#/document/4530 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4864,17 +4864,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2027-5-20</t>
+          <t>2027-05-20</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>12:16:57</t>
+          <t>14:14:02</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"Je suis fâchée de ce que vous vous êtes roidi ..." à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/8861 #onthisday</t>
+          <t>»Je suis fâchée de ce que vous vous êtes roidi ...« à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/8861 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2027-5-21</t>
+          <t>2027-05-21</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>13:14:54</t>
+          <t>13:32:14</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"Me voilà enfin ici, Monsieur, après avoir fait un très bon voyage ..." à Barbier, 1823-05-21, https://constance-de-salm.de/archiv/#/document/63 #onthisday</t>
+          <t>»Me voilà enfin ici, Monsieur, après avoir fait un très bon voyage ...« à Barbier, 1823-05-21, https://constance-de-salm.de/archiv/#/document/63 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4918,17 +4918,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2027-5-22</t>
+          <t>2027-05-22</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>08:51:16</t>
+          <t>12:38:39</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Je viens, mon cher voisin, d'achever la lecture du roman que vous m'avez confié ..." à Ladoucette, 1838-05-22, https://constance-de-salm.de/archiv/#/document/7912 #onthisday</t>
+          <t>»Je viens, mon cher voisin, d'achever la lecture du roman que vous m'avez confié ...« à Ladoucette, 1838-05-22, https://constance-de-salm.de/archiv/#/document/7912 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4945,17 +4945,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2027-5-23</t>
+          <t>2027-05-23</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>18:07:18</t>
+          <t>18:44:36</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"Je pense tout à coup, Monsieur, que c'est aujourd'hui mardi notre ancien jour que Monsieur et Madame de Châlot ..." à Villenave, 1837-05-23, https://constance-de-salm.de/archiv/#/document/7766 #onthisday</t>
+          <t>»Je pense tout à coup, Monsieur, que c'est aujourd'hui mardi notre ancien jour que Monsieur et Madame de Châlot ...« à Villenave, 1837-05-23, https://constance-de-salm.de/archiv/#/document/7766 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4972,17 +4972,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2027-5-24</t>
+          <t>2027-05-24</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>12:06:43</t>
+          <t>14:25:32</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, les quatre petits volumes, mais voulez-vous bien rendre les autres à Monsieur Drais ..." à Villenave, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9751 #onthisday</t>
+          <t>»Voici, Monsieur, les quatre petits volumes, mais voulez-vous bien rendre les autres à Monsieur Drais ...« à Villenave, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9751 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4999,17 +4999,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2027-5-25</t>
+          <t>2027-05-25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>18:14:12</t>
+          <t>12:57:01</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Je n'entends pas parler de Monsieur de Pongerville à qui j'ai écrit ..." à Sanson de Pongerville, 1831-05-25, https://constance-de-salm.de/archiv/#/document/6343 #onthisday</t>
+          <t>»Je n'entends pas parler de Monsieur de Pongerville à qui j'ai écrit ...« à Sanson de Pongerville, 1831-05-25, https://constance-de-salm.de/archiv/#/document/6343 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5026,17 +5026,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2027-5-25</t>
+          <t>2027-05-25</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16:37:01</t>
+          <t>09:29:27</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelques jours, Monsieur, votre numéro 10 qui nous a vivement intéressés ..." à Jullien de Paris, 1832-05-25, https://constance-de-salm.de/archiv/#/document/5406 #onthisday</t>
+          <t>»J'ai reçu il y a quelques jours, Monsieur, votre numéro 10 qui nous a vivement intéressés ...« à Jullien de Paris, 1832-05-25, https://constance-de-salm.de/archiv/#/document/5406 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5053,17 +5053,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2027-5-26</t>
+          <t>2027-05-26</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>11:48:46</t>
+          <t>18:11:19</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Me voici à Aix, Monsieur, bien fatiguée et ayant à peine les forces de tenir ma plume; ..." à Villenave, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9389 #onthisday</t>
+          <t>»Me voici à Aix, Monsieur, bien fatiguée et ayant à peine les forces de tenir ma plume; ...« à Villenave, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9389 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5080,17 +5080,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2027-5-27</t>
+          <t>2027-05-27</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>08:13:14</t>
+          <t>09:01:43</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Vous êtes une des premières à qui je veuille écrire d'ici ..." à Salis, 1823-05-27, https://constance-de-salm.de/archiv/#/document/64 #onthisday</t>
+          <t>»Vous êtes une des premières à qui je veuille écrire d'ici ...« à Salis, 1823-05-27, https://constance-de-salm.de/archiv/#/document/64 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5107,17 +5107,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2027-5-27</t>
+          <t>2027-05-27</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>18:52:16</t>
+          <t>14:30:16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"Vous êtes une des premières à qui je veuille écrire d'ici ..." à Salis, 1823-05-27, https://constance-de-salm.de/archiv/#/document/10338 #onthisday</t>
+          <t>»Vous êtes une des premières à qui je veuille écrire d'ici ...« à Salis, 1823-05-27, https://constance-de-salm.de/archiv/#/document/10338 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5134,17 +5134,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2027-5-28</t>
+          <t>2027-05-28</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16:12:24</t>
+          <t>17:49:49</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"Sire, j’ai l’honneur d’offrir à Votre Majesté la nouvelle Épître dont j’ai pris la liberté de lui parler et dont le sujet ..." à Friedrich Wilhelm III., 1828-05-28, https://constance-de-salm.de/archiv/#/document/9167 #onthisday</t>
+          <t>»Sire, j’ai l’honneur d’offrir à Votre Majesté la nouvelle Épître dont j’ai pris la liberté de lui parler et dont le sujet ...« à Friedrich Wilhelm III., 1828-05-28, https://constance-de-salm.de/archiv/#/document/9167 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5161,17 +5161,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2027-5-28</t>
+          <t>2027-05-28</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>17:48:10</t>
+          <t>10:35:43</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer moi-même, ma très belle, que je suis arrivée heureusement dans mes grands et vieux foyers, après un voyage de 20 jours ..." à Vanhove, 1828-05-28, https://constance-de-salm.de/archiv/#/document/9166 #onthisday</t>
+          <t>»Je veux vous annoncer moi-même, ma très belle, que je suis arrivée heureusement dans mes grands et vieux foyers, après un voyage de 20 jours ...« à Vanhove, 1828-05-28, https://constance-de-salm.de/archiv/#/document/9166 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5188,17 +5188,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2027-5-29</t>
+          <t>2027-05-29</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>11:40:13</t>
+          <t>16:15:20</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"Vous seriez tout à fait en droit de vous plaindre de moi, Monsieur, si je tardais plus longtemps à répondre ..." à Villenave, 1828-05-29, https://constance-de-salm.de/archiv/#/document/9177 #onthisday</t>
+          <t>»Vous seriez tout à fait en droit de vous plaindre de moi, Monsieur, si je tardais plus longtemps à répondre ...« à Villenave, 1828-05-29, https://constance-de-salm.de/archiv/#/document/9177 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5215,17 +5215,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2027-5-29</t>
+          <t>2027-05-29</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>18:48:58</t>
+          <t>09:56:09</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"J'ai bien été surprise, Monsieur, en apprenant hier ..." à Sanson de Pongerville, 1831-05-29, https://constance-de-salm.de/archiv/#/document/6184 #onthisday</t>
+          <t>»J'ai bien été surprise, Monsieur, en apprenant hier ...« à Sanson de Pongerville, 1831-05-29, https://constance-de-salm.de/archiv/#/document/6184 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2027-5-30</t>
+          <t>2027-05-30</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16:43:47</t>
+          <t>10:17:17</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Madame et amie, de vous envoyer un ouvrage que je publie dans ce moment ..." à Gay, 1833-05-30, https://constance-de-salm.de/archiv/#/document/5273 #onthisday</t>
+          <t>»Je m'empresse, Madame et amie, de vous envoyer un ouvrage que je publie dans ce moment ...« à Gay, 1833-05-30, https://constance-de-salm.de/archiv/#/document/5273 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5269,17 +5269,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2027-5-30</t>
+          <t>2027-05-30</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:46:45</t>
+          <t>16:47:46</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, cher frère, que je me propose chaque jour de t’écrire; ..." à Théis, 1834-05-30, https://constance-de-salm.de/archiv/#/document/10843 #onthisday</t>
+          <t>»Il y a déjà quelque temps, cher frère, que je me propose chaque jour de t’écrire; ...« à Théis, 1834-05-30, https://constance-de-salm.de/archiv/#/document/10843 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5296,17 +5296,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2027-5-31</t>
+          <t>2027-05-31</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>09:22:41</t>
+          <t>08:30:11</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"Je saisis avec empressement, Madame, l'occasion qui se présente de vous écrire ..." à Lasteyrie du Saillant, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7773 #onthisday</t>
+          <t>»Je saisis avec empressement, Madame, l'occasion qui se présente de vous écrire ...« à Lasteyrie du Saillant, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7773 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5323,17 +5323,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2027-5-31</t>
+          <t>2027-05-31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>18:04:15</t>
+          <t>17:05:57</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"Je saisis avec empressement, Madame, l'occasion qui se présente de vous écrire ..." à Lasteyrie du Saillant, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7802 #onthisday</t>
+          <t>»Je saisis avec empressement, Madame, l'occasion qui se présente de vous écrire ...« à Lasteyrie du Saillant, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7802 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2027-6-1</t>
+          <t>2027-06-01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>19:01:35</t>
+          <t>12:53:40</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Je me reprocherais vivement de ne pas vous avoir écrit depuis plus d'un mois ..." à Raboteau, 1818-06-01, https://constance-de-salm.de/archiv/#/document/3944 #onthisday</t>
+          <t>»Je me reprocherais vivement de ne pas vous avoir écrit depuis plus d'un mois ...« à Raboteau, 1818-06-01, https://constance-de-salm.de/archiv/#/document/3944 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5377,17 +5377,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2027-6-1</t>
+          <t>2027-06-01</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:56:10</t>
+          <t>10:37:18</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"Loin de Paris dans ce moment, Madame, je n'apprends qu'aujourd'hui qu'on ..." à Genlis, 1820-06-01, https://constance-de-salm.de/archiv/#/document/4538 #onthisday</t>
+          <t>»Loin de Paris dans ce moment, Madame, je n'apprends qu'aujourd'hui qu'on ...« à Genlis, 1820-06-01, https://constance-de-salm.de/archiv/#/document/4538 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2027-6-2</t>
+          <t>2027-06-02</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:11:07</t>
+          <t>11:33:20</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"J’ai été si occupée depuis mon retour ici, cher frère, que je n’ai pu trouver le moment de t’écrire ..." à Théis, 1831-06-02, https://constance-de-salm.de/archiv/#/document/10795 #onthisday</t>
+          <t>»J’ai été si occupée depuis mon retour ici, cher frère, que je n’ai pu trouver le moment de t’écrire ...« à Théis, 1831-06-02, https://constance-de-salm.de/archiv/#/document/10795 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2027-6-2</t>
+          <t>2027-06-02</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>08:17:39</t>
+          <t>18:05:44</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"Une foule d'occupations, un état de souffrance presque continuel et enfin une fluxion de poitrine ..." à Babois, 1833-06-02, https://constance-de-salm.de/archiv/#/document/5216 #onthisday</t>
+          <t>»Une foule d'occupations, un état de souffrance presque continuel et enfin une fluxion de poitrine ...« à Babois, 1833-06-02, https://constance-de-salm.de/archiv/#/document/5216 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5458,17 +5458,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2027-6-3</t>
+          <t>2027-06-03</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>18:42:50</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"Après avoir reçu votre dernière lettre, Monsieur, je me suis décidée, quoique avec beaucoup de regret à quitter Paris ..." à Pailliet, 1829-06-03, https://constance-de-salm.de/archiv/#/document/11372 #onthisday</t>
+          <t>»Après avoir reçu votre dernière lettre, Monsieur, je me suis décidée, quoique avec beaucoup de regret à quitter Paris ...« à Pailliet, 1829-06-03, https://constance-de-salm.de/archiv/#/document/11372 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5485,17 +5485,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2027-6-3</t>
+          <t>2027-06-03</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>09:47:52</t>
+          <t>10:22:47</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"J'offre à mon cher et ancien confrère en Apollon un petit enfant nouveau-né ..." à Andrieux, 1831-06-03, https://constance-de-salm.de/archiv/#/document/6337 #onthisday</t>
+          <t>»J'offre à mon cher et ancien confrère en Apollon un petit enfant nouveau-né ...« à Andrieux, 1831-06-03, https://constance-de-salm.de/archiv/#/document/6337 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5512,17 +5512,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2027-6-5</t>
+          <t>2027-06-05</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16:58:27</t>
+          <t>10:07:06</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"Mon mari vous écrit pour affaires, Monsieur, et je veux joindre un mot à sa lettre ..." à Ritz, 1829-06-05, https://constance-de-salm.de/archiv/#/document/9393 #onthisday</t>
+          <t>»Mon mari vous écrit pour affaires, Monsieur, et je veux joindre un mot à sa lettre ...« à Ritz, 1829-06-05, https://constance-de-salm.de/archiv/#/document/9393 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5539,17 +5539,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2027-6-6</t>
+          <t>2027-06-06</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>12:32:30</t>
+          <t>13:21:30</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une lettre que Monsieur Masselin m’a remise pour vous, et par laquelle vous verrez qu’il avait ..." à Pailliet, 1831-06-06, https://constance-de-salm.de/archiv/#/document/9503 #onthisday</t>
+          <t>»Voici, Monsieur, une lettre que Monsieur Masselin m’a remise pour vous, et par laquelle vous verrez qu’il avait ...« à Pailliet, 1831-06-06, https://constance-de-salm.de/archiv/#/document/9503 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5566,17 +5566,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2027-6-7</t>
+          <t>2027-06-07</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>19:48:02</t>
+          <t>12:43:07</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"J’envoie chez Madame de Dorth, mon cher voisin, et je veux vous dire un mot en passant ..." à Prous, 1821-06-07, https://constance-de-salm.de/archiv/#/document/8866 #onthisday</t>
+          <t>»J’envoie chez Madame de Dorth, mon cher voisin, et je veux vous dire un mot en passant ...« à Prous, 1821-06-07, https://constance-de-salm.de/archiv/#/document/8866 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5593,17 +5593,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2027-6-7</t>
+          <t>2027-06-07</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>14:47:37</t>
+          <t>14:08:58</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"J’envoie chez Madame de Dorth, mon cher voisin, et je veux vous dire un mot en passant ..." à Prous, 1821-06-07, https://constance-de-salm.de/archiv/#/document/2845 #onthisday</t>
+          <t>»J’envoie chez Madame de Dorth, mon cher voisin, et je veux vous dire un mot en passant ...« à Prous, 1821-06-07, https://constance-de-salm.de/archiv/#/document/2845 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5620,17 +5620,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2027-6-8</t>
+          <t>2027-06-08</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08:43:38</t>
+          <t>17:56:08</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Enfin, mon ancien ami, je puis reprendre notre correspondance après 6 mois d’un désespoir qui approchait du délire ..." à Raboteau, 1821-06-08, https://constance-de-salm.de/archiv/#/document/6941 #onthisday</t>
+          <t>»Enfin, mon ancien ami, je puis reprendre notre correspondance après 6 mois d’un désespoir qui approchait du délire ...« à Raboteau, 1821-06-08, https://constance-de-salm.de/archiv/#/document/6941 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5647,17 +5647,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2027-6-8</t>
+          <t>2027-06-08</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10:20:42</t>
+          <t>12:55:49</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"Ma réponse ne se fera pas attendre cette fois, Monsieur et ami ..." à Barbier, 1823-06-08, https://constance-de-salm.de/archiv/#/document/68 #onthisday</t>
+          <t>»Ma réponse ne se fera pas attendre cette fois, Monsieur et ami ...« à Barbier, 1823-06-08, https://constance-de-salm.de/archiv/#/document/68 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2027-6-9</t>
+          <t>2027-06-09</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>09:39:13</t>
+          <t>17:42:28</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"Ma lettre venait de partir, Monsieur et ami, quand j'ai reçu la vôtre ..." à Barbier, 1820-06-09, https://constance-de-salm.de/archiv/#/document/4544 #onthisday</t>
+          <t>»Ma lettre venait de partir, Monsieur et ami, quand j'ai reçu la vôtre ...« à Barbier, 1820-06-09, https://constance-de-salm.de/archiv/#/document/4544 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5701,17 +5701,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2027-6-10</t>
+          <t>2027-06-10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>11:35:14</t>
+          <t>10:14:30</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"Depuis plus de 2 mois, Madame et véritable amie, je me propose sans cesse de vous écrire, de répondre au moins quelques lignes ..." à Gay, 1835-06-10, https://constance-de-salm.de/archiv/#/document/9609 #onthisday</t>
+          <t>»Depuis plus de 2 mois, Madame et véritable amie, je me propose sans cesse de vous écrire, de répondre au moins quelques lignes ...« à Gay, 1835-06-10, https://constance-de-salm.de/archiv/#/document/9609 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5728,17 +5728,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2027-6-10</t>
+          <t>2027-06-10</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>17:24:17</t>
+          <t>19:17:05</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Il me semble, mon cher voisin de Paris, que je dois vous apprendre que je suis arrivée ici ..." à Ladoucette, 1836-06-10, https://constance-de-salm.de/archiv/#/document/9756 #onthisday</t>
+          <t>»Il me semble, mon cher voisin de Paris, que je dois vous apprendre que je suis arrivée ici ...« à Ladoucette, 1836-06-10, https://constance-de-salm.de/archiv/#/document/9756 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5755,17 +5755,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2027-6-11</t>
+          <t>2027-06-11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>11:28:43</t>
+          <t>19:06:36</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Vous pensez donc, très aimable dame, que c’est par coquetterie que je vous ai écrit ..." à Fréville, 1808-06-11, https://constance-de-salm.de/archiv/#/document/8713 #onthisday</t>
+          <t>»Vous pensez donc, très aimable dame, que c’est par coquetterie que je vous ai écrit ...« à Fréville, 1808-06-11, https://constance-de-salm.de/archiv/#/document/8713 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5782,17 +5782,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2027-6-11</t>
+          <t>2027-06-11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>11:11:24</t>
+          <t>13:35:02</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"Lorsqu’entré dans son cabinet / On fait le plan de sa journée ..." à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/8721 #onthisday</t>
+          <t>»Lorsqu’entré dans son cabinet / On fait le plan de sa journée ...« à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/8721 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5809,17 +5809,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2027-6-12</t>
+          <t>2027-06-12</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>08:20:21</t>
+          <t>10:05:14</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"Je fais mettre aujourd'hui à la poste pour vous et votre belle-mère, Madame et amie ..." à Gay, 1831-06-12, https://constance-de-salm.de/archiv/#/document/6638 #onthisday</t>
+          <t>»Je fais mettre aujourd'hui à la poste pour vous et votre belle-mère, Madame et amie ...« à Gay, 1831-06-12, https://constance-de-salm.de/archiv/#/document/6638 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2027-6-13</t>
+          <t>2027-06-13</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>18:26:56</t>
+          <t>19:43:08</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, Madame et amie, une lettre de Monsieur Drais qui m’apprend qu’il vous a rencontré ..." à Laya, 1835-06-13, https://constance-de-salm.de/archiv/#/document/9611 #onthisday</t>
+          <t>»Je reçois à l’instant, Madame et amie, une lettre de Monsieur Drais qui m’apprend qu’il vous a rencontré ...« à Laya, 1835-06-13, https://constance-de-salm.de/archiv/#/document/9611 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5863,17 +5863,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2027-6-14</t>
+          <t>2027-06-14</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>19:25:54</t>
+          <t>14:42:38</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"C’est de mon lit, où je suis retenue depuis quelques jours par une fièvre tierce, que je dicte ce billet, Monsieur; ..." à Barbier, 1828-06-14, https://constance-de-salm.de/archiv/#/document/9180 #onthisday</t>
+          <t>»C’est de mon lit, où je suis retenue depuis quelques jours par une fièvre tierce, que je dicte ce billet, Monsieur; ...« à Barbier, 1828-06-14, https://constance-de-salm.de/archiv/#/document/9180 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5890,17 +5890,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2027-6-15</t>
+          <t>2027-06-15</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>14:10:07</t>
+          <t>09:56:30</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"Ayant un moment de liberté ce matin, Monsieur le baron, je repense à nos discussion amicale d'hier ..." à Ladoucette, 1833-06-15, https://constance-de-salm.de/archiv/#/document/5224 #onthisday</t>
+          <t>»Ayant un moment de liberté ce matin, Monsieur le baron, je repense à nos discussion amicale d'hier ...« à Ladoucette, 1833-06-15, https://constance-de-salm.de/archiv/#/document/5224 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5917,17 +5917,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2027-6-16</t>
+          <t>2027-06-16</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>09:19:49</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"J'ai fait mettre aujourd'hui à la poste pour toi, cher frère, un exemplaire d'un nouvel ouvrage ..." à Théis, 1833-06-16, https://constance-de-salm.de/archiv/#/document/5225 #onthisday</t>
+          <t>»J'ai fait mettre aujourd'hui à la poste pour toi, cher frère, un exemplaire d'un nouvel ouvrage ...« à Théis, 1833-06-16, https://constance-de-salm.de/archiv/#/document/5225 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5944,17 +5944,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2027-6-17</t>
+          <t>2027-06-17</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>18:58:03</t>
+          <t>08:06:52</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Je dois encore vous dire que ne recevant aucun signe de vie de mon frère et de sa famille ..." à Drais, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9615 #onthisday</t>
+          <t>»Je dois encore vous dire que ne recevant aucun signe de vie de mon frère et de sa famille ...« à Drais, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9615 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5971,17 +5971,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2027-6-17</t>
+          <t>2027-06-17</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>08:47:43</t>
+          <t>16:43:42</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps, Mademoiselle et amie, je me propose de vous écrire, de vous dire combien j’ái été touchée ..." à Sobry, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9613 #onthisday</t>
+          <t>»Depuis bien longtemps, Mademoiselle et amie, je me propose de vous écrire, de vous dire combien j’ái été touchée ...« à Sobry, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9613 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5998,17 +5998,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2027-6-18</t>
+          <t>2027-06-18</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>10:23:15</t>
+          <t>17:42:34</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Vous aurez sans doute reçu, Monsieur, le numéro de la Revue où est votre article (page 439) ..." à Richard, 1829-06-18, https://constance-de-salm.de/archiv/#/document/9394 #onthisday</t>
+          <t>»Vous aurez sans doute reçu, Monsieur, le numéro de la Revue où est votre article (page 439) ...« à Richard, 1829-06-18, https://constance-de-salm.de/archiv/#/document/9394 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2027-6-19</t>
+          <t>2027-06-19</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>11:01:15</t>
+          <t>18:27:50</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"Je ne veux pas attendre que vous veniez me voir, Monsieur, pour vous faire mon compliment ..." à Barbier, 1837-06-19, https://constance-de-salm.de/archiv/#/document/7790 #onthisday</t>
+          <t>»Je ne veux pas attendre que vous veniez me voir, Monsieur, pour vous faire mon compliment ...« à Barbier, 1837-06-19, https://constance-de-salm.de/archiv/#/document/7790 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6052,17 +6052,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2027-6-20</t>
+          <t>2027-06-20</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>17:13:08</t>
+          <t>19:15:47</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Je ne vous dirai plus je ne puis vous écrire ..." à Raboteau, 1820-06-20, https://constance-de-salm.de/archiv/#/document/4859 #onthisday</t>
+          <t>»Je ne vous dirai plus je ne puis vous écrire ...« à Raboteau, 1820-06-20, https://constance-de-salm.de/archiv/#/document/4859 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6079,17 +6079,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2027-6-22</t>
+          <t>2027-06-22</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13:42:41</t>
+          <t>18:14:03</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"Je n'ai pas oublié, Madame la comtesse, que je vous ai promis de vous écrire d'ici; ..." à Vaulgrenand, 1831-06-22, https://constance-de-salm.de/archiv/#/document/6463 #onthisday</t>
+          <t>»Je n'ai pas oublié, Madame la comtesse, que je vous ai promis de vous écrire d'ici; ...« à Vaulgrenand, 1831-06-22, https://constance-de-salm.de/archiv/#/document/6463 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6106,17 +6106,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2027-6-22</t>
+          <t>2027-06-22</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16:47:21</t>
+          <t>11:40:42</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"Je m’empresse, Monsieur, de faire hommage à l’Académie de … de trois exemplaires d’un ouvrage que je viens de publier ..." à N.N., 1833-06-22, https://constance-de-salm.de/archiv/#/document/9526 #onthisday</t>
+          <t>»Je m’empresse, Monsieur, de faire hommage à l’Académie de … de trois exemplaires d’un ouvrage que je viens de publier ...« à N.N., 1833-06-22, https://constance-de-salm.de/archiv/#/document/9526 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6133,17 +6133,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2027-6-23</t>
+          <t>2027-06-23</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12:37:33</t>
+          <t>09:36:38</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a peu de jours votre lettre, mon très cher Général; et, quoique je sois encore plus accablée et souffrante ..." à Saint-Mars, 1835-06-23, https://constance-de-salm.de/archiv/#/document/9617 #onthisday</t>
+          <t>»J’ai reçu il y a peu de jours votre lettre, mon très cher Général; et, quoique je sois encore plus accablée et souffrante ...« à Saint-Mars, 1835-06-23, https://constance-de-salm.de/archiv/#/document/9617 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6160,17 +6160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2027-6-24</t>
+          <t>2027-06-24</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>19:54:11</t>
+          <t>11:38:36</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"Je me hâte, Monsieur, de vous dire que je viens de recevoir votre numéro 2, mais que je n’ai pas entendu parler du numéro 1 ..." à Jullien de Paris, 1828-06-24, https://constance-de-salm.de/archiv/#/document/9181 #onthisday</t>
+          <t>»Je me hâte, Monsieur, de vous dire que je viens de recevoir votre numéro 2, mais que je n’ai pas entendu parler du numéro 1 ...« à Jullien de Paris, 1828-06-24, https://constance-de-salm.de/archiv/#/document/9181 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2027-6-24</t>
+          <t>2027-06-24</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15:45:41</t>
+          <t>09:09:37</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, Monsieur, votre numéro 2; j’avais reçu aussi exactement votre numéro 1 ..." à Jullien de Paris, 1829-06-24, https://constance-de-salm.de/archiv/#/document/9396 #onthisday</t>
+          <t>»J’ai reçu hier, Monsieur, votre numéro 2; j’avais reçu aussi exactement votre numéro 1 ...« à Jullien de Paris, 1829-06-24, https://constance-de-salm.de/archiv/#/document/9396 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6214,17 +6214,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2027-6-25</t>
+          <t>2027-06-25</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>11:46:01</t>
+          <t>19:51:06</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, Monsieur, une lettre de Monsieur Dufour relative à des droits de succession qui n’ont pas été payés ..." à Pailliet, 1826-06-25, https://constance-de-salm.de/archiv/#/document/11358 #onthisday</t>
+          <t>»Je reçois à l’instant, Monsieur, une lettre de Monsieur Dufour relative à des droits de succession qui n’ont pas été payés ...« à Pailliet, 1826-06-25, https://constance-de-salm.de/archiv/#/document/11358 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6241,17 +6241,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2027-6-25</t>
+          <t>2027-06-25</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>15:26:17</t>
+          <t>10:34:26</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que je voulais vous écrire relativement au petit accident dont je vous ai parlé ..." à Pailliet, 1828-06-25, https://constance-de-salm.de/archiv/#/document/11326 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que je voulais vous écrire relativement au petit accident dont je vous ai parlé ...« à Pailliet, 1828-06-25, https://constance-de-salm.de/archiv/#/document/11326 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2027-6-26</t>
+          <t>2027-06-26</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>14:57:05</t>
+          <t>11:31:15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta dernière lettre, cher frère, peu après l’arrivée de Charles qui m’avait déjà donné de tes nouvelles ..." à Théis, 1831-06-26, https://constance-de-salm.de/archiv/#/document/10796 #onthisday</t>
+          <t>»J’ai reçu ta dernière lettre, cher frère, peu après l’arrivée de Charles qui m’avait déjà donné de tes nouvelles ...« à Théis, 1831-06-26, https://constance-de-salm.de/archiv/#/document/10796 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2027-6-26</t>
+          <t>2027-06-26</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:35:27</t>
+          <t>14:08:45</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a quelques jours, Monsieur; je suis fort sensible à tout ce qu'elle contient de flatteur pour moi ..." à Audouin de Géronval, 1834-06-26, https://constance-de-salm.de/archiv/#/document/5573 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a quelques jours, Monsieur; je suis fort sensible à tout ce qu'elle contient de flatteur pour moi ...« à Audouin de Géronval, 1834-06-26, https://constance-de-salm.de/archiv/#/document/5573 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2027-6-27</t>
+          <t>2027-06-27</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>09:44:21</t>
+          <t>19:26:24</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Jullien me renvoie votre excellent article, Monsieur; en le relisant, je m'apercois ..." à Villenave, 1831-06-27, https://constance-de-salm.de/archiv/#/document/11030 #onthisday</t>
+          <t>»Jullien me renvoie votre excellent article, Monsieur; en le relisant, je m'apercois ...« à Villenave, 1831-06-27, https://constance-de-salm.de/archiv/#/document/11030 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2027-6-28</t>
+          <t>2027-06-28</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>17:56:17</t>
+          <t>11:06:07</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, et je suis bien éloignée de m'en formaliser: ..." à Sauvo, 1833-06-28, https://constance-de-salm.de/archiv/#/document/5234 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, et je suis bien éloignée de m'en formaliser: ...« à Sauvo, 1833-06-28, https://constance-de-salm.de/archiv/#/document/5234 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2027-6-29</t>
+          <t>2027-06-29</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>11:09:04</t>
+          <t>18:21:15</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé, Madame, à répondre à l’aimable lettre que vous m’avez écrite, et je me le reprocherais fort ..." à Montigny, 1826-06-29, https://constance-de-salm.de/archiv/#/document/9020 #onthisday</t>
+          <t>»J’ai bien tardé, Madame, à répondre à l’aimable lettre que vous m’avez écrite, et je me le reprocherais fort ...« à Montigny, 1826-06-29, https://constance-de-salm.de/archiv/#/document/9020 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2027-6-29</t>
+          <t>2027-06-29</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>14:42:13</t>
+          <t>15:35:55</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre excellente lettre, Monsieur, et si je ne vous ai pas encore répondu ..." à Français de Nantes, 1831-06-29, https://constance-de-salm.de/archiv/#/document/6485 #onthisday</t>
+          <t>»J'ai reçu votre excellente lettre, Monsieur, et si je ne vous ai pas encore répondu ...« à Français de Nantes, 1831-06-29, https://constance-de-salm.de/archiv/#/document/6485 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2027-6-30</t>
+          <t>2027-06-30</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>09:46:52</t>
+          <t>10:09:29</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Cher et excellent voisin, j'ai remis de jour en jour à vous donner de mes nouvelles ..." à Langlès, 1823-06-30, https://constance-de-salm.de/archiv/#/document/70 #onthisday</t>
+          <t>»Cher et excellent voisin, j'ai remis de jour en jour à vous donner de mes nouvelles ...« à Langlès, 1823-06-30, https://constance-de-salm.de/archiv/#/document/70 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2027-7-1</t>
+          <t>2027-07-01</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>15:07:14</t>
+          <t>18:05:05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur le baron, votre volume de fables, et les très agréables vers que vous y avez joints; je suis trop flattée ..." à Roger, 1839-07-01, https://constance-de-salm.de/archiv/#/document/8060 #onthisday</t>
+          <t>»Je reçois, Monsieur le baron, votre volume de fables, et les très agréables vers que vous y avez joints; je suis trop flattée ...« à Roger, 1839-07-01, https://constance-de-salm.de/archiv/#/document/8060 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2027-7-1</t>
+          <t>2027-07-01</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16:04:35</t>
+          <t>13:32:08</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant, mon cher voisin, une lettre de Pongerville qui me propose de venir ..." à Ladoucette, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8213 #onthisday</t>
+          <t>»Je reçois à l'instant, mon cher voisin, une lettre de Pongerville qui me propose de venir ...« à Ladoucette, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8213 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2027-7-2</t>
+          <t>2027-07-02</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:15:46</t>
+          <t>15:39:29</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Voici, Madame, l'album de Madame la duchesse d'Abrantès sur lequel j'ai écrit quelques vers de mon „Épître auf femmes“ ..." à Waldor, 1834-07-02, https://constance-de-salm.de/archiv/#/document/5534 #onthisday</t>
+          <t>»Voici, Madame, l'album de Madame la duchesse d'Abrantès sur lequel j'ai écrit quelques vers de mon „Épître auf femmes“ ...« à Waldor, 1834-07-02, https://constance-de-salm.de/archiv/#/document/5534 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2027-7-2</t>
+          <t>2027-07-02</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>08:08:15</t>
+          <t>19:53:55</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"Madame Waldor m'ayant dit qu'elle viendrait avant 3 heures ..." à Vanhove, 1837-07-02, https://constance-de-salm.de/archiv/#/document/7798 #onthisday</t>
+          <t>»Madame Waldor m'ayant dit qu'elle viendrait avant 3 heures ...« à Vanhove, 1837-07-02, https://constance-de-salm.de/archiv/#/document/7798 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6565,17 +6565,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2027-7-3</t>
+          <t>2027-07-03</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:43:27</t>
+          <t>19:08:36</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"J’ai été bien malade depuis quelque temps, cher frère, je le suis encore; ..." à Théis, 1836-07-03, https://constance-de-salm.de/archiv/#/document/10872 #onthisday</t>
+          <t>»J’ai été bien malade depuis quelque temps, cher frère, je le suis encore; ...« à Théis, 1836-07-03, https://constance-de-salm.de/archiv/#/document/10872 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6592,17 +6592,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2027-7-3</t>
+          <t>2027-07-03</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>09:55:23</t>
+          <t>14:24:47</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Monsieur Christian ne m'a pas encore donné ses petites notes, très aimable dame, et me voilà si près ..." à Waldor, 1839-07-03, https://constance-de-salm.de/archiv/#/document/8065 #onthisday</t>
+          <t>»Monsieur Christian ne m'a pas encore donné ses petites notes, très aimable dame, et me voilà si près ...« à Waldor, 1839-07-03, https://constance-de-salm.de/archiv/#/document/8065 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2027-7-4</t>
+          <t>2027-07-04</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>13:58:40</t>
+          <t>19:35:40</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"Je reçois votre bonne grande lettre, Monsieur, vous devez à présent avoir aussi reçu la mienne; ..." à Jullien de Paris, 1836-07-04, https://constance-de-salm.de/archiv/#/document/9808 #onthisday</t>
+          <t>»Je reçois votre bonne grande lettre, Monsieur, vous devez à présent avoir aussi reçu la mienne; ...« à Jullien de Paris, 1836-07-04, https://constance-de-salm.de/archiv/#/document/9808 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6646,17 +6646,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2027-7-6</t>
+          <t>2027-07-06</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>11:12:20</t>
+          <t>19:47:32</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu une lettre de toi il y a trois jours: ..." à Salm-Reifferscheidt-Dyck, 1844-07-06, https://constance-de-salm.de/archiv/#/document/5376 #onthisday</t>
+          <t>»Cher ami, j’ai reçu une lettre de toi il y a trois jours: ...« à Salm-Reifferscheidt-Dyck, 1844-07-06, https://constance-de-salm.de/archiv/#/document/5376 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6673,17 +6673,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2027-7-8</t>
+          <t>2027-07-08</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>14:45:23</t>
+          <t>09:48:01</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"Je pars dans huit à dix jours, Monsieur, et je voudrais avant de quitter Paris pouvoir faire annoncer ..." à Sauvo, 1839-07-08, https://constance-de-salm.de/archiv/#/document/8067 #onthisday</t>
+          <t>»Je pars dans huit à dix jours, Monsieur, et je voudrais avant de quitter Paris pouvoir faire annoncer ...« à Sauvo, 1839-07-08, https://constance-de-salm.de/archiv/#/document/8067 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6700,17 +6700,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2027-7-8</t>
+          <t>2027-07-08</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>18:35:25</t>
+          <t>18:08:11</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"C'est vous, je n'en doute pas, Monsieur, qui m'avez envoyé de très jolis couplets ..." à Vial, 1840-07-08, https://constance-de-salm.de/archiv/#/document/8222 #onthisday</t>
+          <t>»C'est vous, je n'en doute pas, Monsieur, qui m'avez envoyé de très jolis couplets ...« à Vial, 1840-07-08, https://constance-de-salm.de/archiv/#/document/8222 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6727,17 +6727,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2027-7-9</t>
+          <t>2027-07-09</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>12:44:16</t>
+          <t>13:05:53</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelques jours votre dernière lettre, Monsieur, et je ne veux pas tarder à y répondre ..." à Montémont, 1835-07-09, https://constance-de-salm.de/archiv/#/document/9626 #onthisday</t>
+          <t>»J’ai reçu il y a quelques jours votre dernière lettre, Monsieur, et je ne veux pas tarder à y répondre ...« à Montémont, 1835-07-09, https://constance-de-salm.de/archiv/#/document/9626 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6754,17 +6754,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2027-7-10</t>
+          <t>2027-07-10</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>08:33:10</t>
+          <t>14:52:18</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Depuis que je suis ici, mon ancienne amie, j'espérais sans cesse vous voir arriver ..." à Salis, 1834-07-10, https://constance-de-salm.de/archiv/#/document/10356 #onthisday</t>
+          <t>»Depuis que je suis ici, mon ancienne amie, j'espérais sans cesse vous voir arriver ...« à Salis, 1834-07-10, https://constance-de-salm.de/archiv/#/document/10356 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6781,17 +6781,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2027-7-11</t>
+          <t>2027-07-11</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>13:10:01</t>
+          <t>08:32:46</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Un colonel prussien qui nous arrive, Monsieur, et qui vient de Liège, nous dit que vous êtes attendu ..." à Jullien de Paris, 1836-07-11, https://constance-de-salm.de/archiv/#/document/9818 #onthisday</t>
+          <t>»Un colonel prussien qui nous arrive, Monsieur, et qui vient de Liège, nous dit que vous êtes attendu ...« à Jullien de Paris, 1836-07-11, https://constance-de-salm.de/archiv/#/document/9818 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6808,17 +6808,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2027-7-11</t>
+          <t>2027-07-11</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>13:21:04</t>
+          <t>14:44:40</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"J'ai reçu ta lettre il y a quelques jours, cher frère, et je l'attendais avec impatience ..." à Théis, 1838-07-11, https://constance-de-salm.de/archiv/#/document/7929 #onthisday</t>
+          <t>»J'ai reçu ta lettre il y a quelques jours, cher frère, et je l'attendais avec impatience ...« à Théis, 1838-07-11, https://constance-de-salm.de/archiv/#/document/7929 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6835,17 +6835,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2027-7-12</t>
+          <t>2027-07-12</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>15:19:55</t>
+          <t>19:48:26</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"Je suis vraiment bien fâchée, Monsieur et ami, de l’indisposition très grave que vous venez d’avoir ..." à Raboteau, 1812-07-12, https://constance-de-salm.de/archiv/#/document/3905 #onthisday</t>
+          <t>»Je suis vraiment bien fâchée, Monsieur et ami, de l’indisposition très grave que vous venez d’avoir ...« à Raboteau, 1812-07-12, https://constance-de-salm.de/archiv/#/document/3905 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2027-7-12</t>
+          <t>2027-07-12</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>14:14:10</t>
+          <t>08:42:16</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"J’attendais de vos nouvelles avec beaucoup d’impatience, Monsieur et ami ..." à Raboteau, 1813-07-12, https://constance-de-salm.de/archiv/#/document/2303 #onthisday</t>
+          <t>»J’attendais de vos nouvelles avec beaucoup d’impatience, Monsieur et ami ...« à Raboteau, 1813-07-12, https://constance-de-salm.de/archiv/#/document/2303 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6889,17 +6889,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2027-7-13</t>
+          <t>2027-07-13</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>08:25:22</t>
+          <t>14:56:52</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Votre lettre que j’ai reçue il y a quelque temps, Monsieur, m’a fait grand plaisir ..." à Châtelain, 1836-07-13, https://constance-de-salm.de/archiv/#/document/9820 #onthisday</t>
+          <t>»Votre lettre que j’ai reçue il y a quelque temps, Monsieur, m’a fait grand plaisir ...« à Châtelain, 1836-07-13, https://constance-de-salm.de/archiv/#/document/9820 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6916,17 +6916,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2027-7-14</t>
+          <t>2027-07-14</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>10:11:34</t>
+          <t>09:39:38</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"Cher frère, je reçois à l’instant ta lettre qui me cause une révolution; j’en suis toute tremblante ..." à Théis, 1833-07-14, https://constance-de-salm.de/archiv/#/document/10832 #onthisday</t>
+          <t>»Cher frère, je reçois à l’instant ta lettre qui me cause une révolution; j’en suis toute tremblante ...« à Théis, 1833-07-14, https://constance-de-salm.de/archiv/#/document/10832 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6943,17 +6943,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2027-7-15</t>
+          <t>2027-07-15</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>13:20:39</t>
+          <t>08:43:34</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"Le temps a été si affreux depuis un mois, Monsieur, et j‘étais saisie d’un si grand découragement ..." à Heinsberg, 1829-07-15, https://constance-de-salm.de/archiv/#/document/9402 #onthisday</t>
+          <t>»Le temps a été si affreux depuis un mois, Monsieur, et j‘étais saisie d’un si grand découragement ...« à Heinsberg, 1829-07-15, https://constance-de-salm.de/archiv/#/document/9402 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6970,17 +6970,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2027-7-15</t>
+          <t>2027-07-15</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>09:26:10</t>
+          <t>12:30:12</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>"Votre lettre m'a surprise agréablement de toute façon, Madame, j'ai été charmée d'avoir de vos nouvelles, et d'apprendre que vous vous proposez de venir me voir; ..." à Vaulgrenand, 1830-07-15, https://constance-de-salm.de/archiv/#/document/5176 #onthisday</t>
+          <t>»Votre lettre m'a surprise agréablement de toute façon, Madame, j'ai été charmée d'avoir de vos nouvelles, et d'apprendre que vous vous proposez de venir me voir; ...« à Vaulgrenand, 1830-07-15, https://constance-de-salm.de/archiv/#/document/5176 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6997,17 +6997,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2027-7-16</t>
+          <t>2027-07-16</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>19:53:57</t>
+          <t>15:22:33</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"Je suis arrivée depuis deux jours, souffrante, malade, n'en pouvant plus ..." à Maison, 1837-07-16, https://constance-de-salm.de/archiv/#/document/7806 #onthisday</t>
+          <t>»Je suis arrivée depuis deux jours, souffrante, malade, n'en pouvant plus ...« à Maison, 1837-07-16, https://constance-de-salm.de/archiv/#/document/7806 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2027-7-17</t>
+          <t>2027-07-17</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>10:52:56</t>
+          <t>14:54:26</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur le baron, au milieu de mes embarras de départ ..." à Ladoucette, 1834-07-17, https://constance-de-salm.de/archiv/#/document/5583 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur le baron, au milieu de mes embarras de départ ...« à Ladoucette, 1834-07-17, https://constance-de-salm.de/archiv/#/document/5583 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7051,17 +7051,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2027-7-18</t>
+          <t>2027-07-18</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>17:52:05</t>
+          <t>17:37:16</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis deux jours, Monsieur, et je vais vous l'apprendre moi-même ..." à Boucharlat, 1837-07-18, https://constance-de-salm.de/archiv/#/document/7809 #onthisday</t>
+          <t>»Je suis ici depuis deux jours, Monsieur, et je vais vous l'apprendre moi-même ...« à Boucharlat, 1837-07-18, https://constance-de-salm.de/archiv/#/document/7809 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7078,17 +7078,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2027-7-19</t>
+          <t>2027-07-19</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>10:12:32</t>
+          <t>09:21:20</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"Après que vous avez été parti hier, Monsieur, j'ai pensé, tout en faisant mes visites, à ce que vous veniez de me dire ..." à Tissot, 1834-07-19, https://constance-de-salm.de/archiv/#/document/5584 #onthisday</t>
+          <t>»Après que vous avez été parti hier, Monsieur, j'ai pensé, tout en faisant mes visites, à ce que vous veniez de me dire ...« à Tissot, 1834-07-19, https://constance-de-salm.de/archiv/#/document/5584 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7105,17 +7105,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2027-7-20</t>
+          <t>2027-07-20</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>10:00:20</t>
+          <t>13:47:15</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, Monsieur, et je me hâte d'y répondre ..." à Barbier, 1823-07-20, https://constance-de-salm.de/archiv/#/document/71 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, Monsieur, et je me hâte d'y répondre ...« à Barbier, 1823-07-20, https://constance-de-salm.de/archiv/#/document/71 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7132,17 +7132,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2027-7-20</t>
+          <t>2027-07-20</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16:48:37</t>
+          <t>15:43:07</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"Vous êtes un correspondant exact, Monsieur ..." à Mirault, 1823-07-20, https://constance-de-salm.de/archiv/#/document/72 #onthisday</t>
+          <t>»Vous êtes un correspondant exact, Monsieur ...« à Mirault, 1823-07-20, https://constance-de-salm.de/archiv/#/document/72 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7159,17 +7159,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2027-7-22</t>
+          <t>2027-07-22</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>08:58:49</t>
+          <t>13:42:15</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre, Monsieur, et je me hâte d’y répondre ..." à Barbier, 1836-07-22, https://constance-de-salm.de/archiv/#/document/9824 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre, Monsieur, et je me hâte d’y répondre ...« à Barbier, 1836-07-22, https://constance-de-salm.de/archiv/#/document/9824 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7186,17 +7186,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2027-7-22</t>
+          <t>2027-07-22</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:45:07</t>
+          <t>16:50:07</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Madame, que j'ai reçu votre aimable dernière lettre ..." à Maleszewski, 1837-07-22, https://constance-de-salm.de/archiv/#/document/7812 #onthisday</t>
+          <t>»Il y a bien longtemps, Madame, que j'ai reçu votre aimable dernière lettre ...« à Maleszewski, 1837-07-22, https://constance-de-salm.de/archiv/#/document/7812 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7213,17 +7213,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2027-7-23</t>
+          <t>2027-07-23</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>19:26:37</t>
+          <t>14:20:25</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"Monsieur Drais que j’avais chargé, il y a quelque temps, Monsieur, d’aller chez vous, et de me donner de vos nouvelles ..." à Villenave, 1835-07-23, https://constance-de-salm.de/archiv/#/document/9628 #onthisday</t>
+          <t>»Monsieur Drais que j’avais chargé, il y a quelque temps, Monsieur, d’aller chez vous, et de me donner de vos nouvelles ...« à Villenave, 1835-07-23, https://constance-de-salm.de/archiv/#/document/9628 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7240,17 +7240,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2027-7-24</t>
+          <t>2027-07-24</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>14:25:30</t>
+          <t>17:31:19</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, je n’ai plus un mot de toi depuis la guerre ..." à Francq, 1815-07-24, https://constance-de-salm.de/archiv/#/document/6221 #onthisday</t>
+          <t>»Ma chère Minette, je n’ai plus un mot de toi depuis la guerre ...« à Francq, 1815-07-24, https://constance-de-salm.de/archiv/#/document/6221 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7267,17 +7267,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2027-7-25</t>
+          <t>2027-07-25</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>12:33:19</t>
+          <t>10:14:29</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"Je m'ennuie fort, Monsieur et ami, de n'avoir pas le journal ..." à Raboteau, 1817-07-25, https://constance-de-salm.de/archiv/#/document/3936 #onthisday</t>
+          <t>»Je m'ennuie fort, Monsieur et ami, de n'avoir pas le journal ...« à Raboteau, 1817-07-25, https://constance-de-salm.de/archiv/#/document/3936 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7294,17 +7294,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2027-7-26</t>
+          <t>2027-07-26</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>19:31:00</t>
+          <t>11:11:34</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"Ce n’est point de ma main que je veux vous écrire / Que vous ou moi nous ayons tort / Je ne veux plus que l’on puisse me dire / … ..." à Duval, 1829-07-26, https://constance-de-salm.de/archiv/#/document/9438 #onthisday</t>
+          <t>»Ce n’est point de ma main que je veux vous écrire / Que vous ou moi nous ayons tort / Je ne veux plus que l’on puisse me dire / … ...« à Duval, 1829-07-26, https://constance-de-salm.de/archiv/#/document/9438 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7321,17 +7321,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2027-7-26</t>
+          <t>2027-07-26</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>12:20:48</t>
+          <t>15:41:36</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"Quand le destin à vos voeux est prospère, je ne me presse point de vous féliciter ..." à Ladoucette, 1830-07-26, https://constance-de-salm.de/archiv/#/document/5178 #onthisday</t>
+          <t>»Quand le destin à vos voeux est prospère, je ne me presse point de vous féliciter ...« à Ladoucette, 1830-07-26, https://constance-de-salm.de/archiv/#/document/5178 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2027-7-27</t>
+          <t>2027-07-27</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>17:28:44</t>
+          <t>08:19:24</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre très aimable lettre, Monsieur, et je me hâte de vous répondre un mot pour vous rassurer sur ma santé ..." à Marron, 1826-07-27, https://constance-de-salm.de/archiv/#/document/9023 #onthisday</t>
+          <t>»J’ai reçu hier votre très aimable lettre, Monsieur, et je me hâte de vous répondre un mot pour vous rassurer sur ma santé ...« à Marron, 1826-07-27, https://constance-de-salm.de/archiv/#/document/9023 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7375,17 +7375,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2027-7-28</t>
+          <t>2027-07-28</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:23:53</t>
+          <t>09:30:10</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"Mon départ qui devrait avoir lieu demain ou après-demain, Monsieur, est retardé de 7 à 8 jours par quelques affaires essentielles ..." à Paganel, 1841-07-28, https://constance-de-salm.de/archiv/#/document/7457 #onthisday</t>
+          <t>»Mon départ qui devrait avoir lieu demain ou après-demain, Monsieur, est retardé de 7 à 8 jours par quelques affaires essentielles ...« à Paganel, 1841-07-28, https://constance-de-salm.de/archiv/#/document/7457 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2027-7-29</t>
+          <t>2027-07-29</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>13:56:05</t>
+          <t>13:49:03</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Madame, que j’ai reçu votre excellente épître, et la lettre aussi aimable que flatteuse par laquelle vous me l'annonciez ..." à Dauriat, 1832-07-29, https://constance-de-salm.de/archiv/#/document/5390 #onthisday</t>
+          <t>»Il y a bien longtemps, Madame, que j’ai reçu votre excellente épître, et la lettre aussi aimable que flatteuse par laquelle vous me l'annonciez ...« à Dauriat, 1832-07-29, https://constance-de-salm.de/archiv/#/document/5390 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7429,17 +7429,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2027-7-30</t>
+          <t>2027-07-30</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>09:31:03</t>
+          <t>16:11:12</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Voulez-vous bien, Monsieur, me rendre un petit service: je vais vous expliquer d'abord, et en détail, de quoi il s'agit, afin de n'avoir plus à y penser et de pouvoir répondre tranquillement à votre lettre ..." à Mirault, 1832-07-30, https://constance-de-salm.de/archiv/#/document/5414 #onthisday</t>
+          <t>»Voulez-vous bien, Monsieur, me rendre un petit service: je vais vous expliquer d'abord, et en détail, de quoi il s'agit, afin de n'avoir plus à y penser et de pouvoir répondre tranquillement à votre lettre ...« à Mirault, 1832-07-30, https://constance-de-salm.de/archiv/#/document/5414 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7456,17 +7456,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2027-7-31</t>
+          <t>2027-07-31</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>13:11:19</t>
+          <t>11:52:16</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"J’envoie un paquet de lettres à Monsieur Drais, Monsieur, et je veux y joindre un billet pour vous ..." à Jullien de Paris, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9443 #onthisday</t>
+          <t>»J’envoie un paquet de lettres à Monsieur Drais, Monsieur, et je veux y joindre un billet pour vous ...« à Jullien de Paris, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9443 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7483,17 +7483,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2027-8-1</t>
+          <t>2027-08-01</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>15:38:56</t>
+          <t>12:06:36</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"On m’a écrit, ma très chère, qu’on vous avait rencontrée, qu’on vous avait donné de mes nouvelles et que vous aviez dit que vous alliez m’écrire ..." à Leroy de Bacre, 1826-08-01, https://constance-de-salm.de/archiv/#/document/9025 #onthisday</t>
+          <t>»On m’a écrit, ma très chère, qu’on vous avait rencontrée, qu’on vous avait donné de mes nouvelles et que vous aviez dit que vous alliez m’écrire ...« à Leroy de Bacre, 1826-08-01, https://constance-de-salm.de/archiv/#/document/9025 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7510,17 +7510,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2027-8-2</t>
+          <t>2027-08-02</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>15:12:36</t>
+          <t>13:38:02</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"J'ai reçu vos deux lettres, Monsieur le baron, et je ne veux pas rester plus longtemps sans vous répondre quoique je sois assez mal portante ..." à Ladoucette, 1830-08-02, https://constance-de-salm.de/archiv/#/document/5180 #onthisday</t>
+          <t>»J'ai reçu vos deux lettres, Monsieur le baron, et je ne veux pas rester plus longtemps sans vous répondre quoique je sois assez mal portante ...« à Ladoucette, 1830-08-02, https://constance-de-salm.de/archiv/#/document/5180 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2027-8-3</t>
+          <t>2027-08-03</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>09:31:58</t>
+          <t>09:09:38</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"On vous regrette fort ..." à Prous, 1818-08-03, https://constance-de-salm.de/archiv/#/document/8856 #onthisday</t>
+          <t>»On vous regrette fort ...« à Prous, 1818-08-03, https://constance-de-salm.de/archiv/#/document/8856 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2027-8-4</t>
+          <t>2027-08-04</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>13:09:21</t>
+          <t>14:11:58</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"J’ai reçu, ces jours-ci, votre lettre, Monsieur, et écrivant aujourd’hui à Monsieur Drais, je profite ..." à Montémont, 1836-08-04, https://constance-de-salm.de/archiv/#/document/9828 #onthisday</t>
+          <t>»J’ai reçu, ces jours-ci, votre lettre, Monsieur, et écrivant aujourd’hui à Monsieur Drais, je profite ...« à Montémont, 1836-08-04, https://constance-de-salm.de/archiv/#/document/9828 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7591,17 +7591,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2027-8-5</t>
+          <t>2027-08-05</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16:42:10</t>
+          <t>12:23:25</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"En partant d'Aix, Monsieur, j'ai fait porter chez vous le "Moniteur" ..." à Coëls, 1831-08-05, https://constance-de-salm.de/archiv/#/document/6547 #onthisday</t>
+          <t>»En partant d'Aix, Monsieur, j'ai fait porter chez vous le "Moniteur" ...« à Coëls, 1831-08-05, https://constance-de-salm.de/archiv/#/document/6547 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2027-8-6</t>
+          <t>2027-08-06</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>19:42:44</t>
+          <t>13:34:28</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Monsieur, et je m’empresse de vous dire que c’est avec plaisir que je m’abonne ..." à Sédillot, 1829-08-06, https://constance-de-salm.de/archiv/#/document/9445 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Monsieur, et je m’empresse de vous dire que c’est avec plaisir que je m’abonne ...« à Sédillot, 1829-08-06, https://constance-de-salm.de/archiv/#/document/9445 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7645,17 +7645,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2027-8-7</t>
+          <t>2027-08-07</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>12:28:03</t>
+          <t>10:29:19</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"Je profite d'une lettre que j'écris à Monsieur Drais, mon ancienne amie ..." à Leroy de Bacre, 1833-08-07, https://constance-de-salm.de/archiv/#/document/5243 #onthisday</t>
+          <t>»Je profite d'une lettre que j'écris à Monsieur Drais, mon ancienne amie ...« à Leroy de Bacre, 1833-08-07, https://constance-de-salm.de/archiv/#/document/5243 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7672,17 +7672,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2027-8-8</t>
+          <t>2027-08-08</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>14:21:30</t>
+          <t>10:30:49</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Monsieur, de vous dire une chose que apprends à l'instant ..." à Bélanger, 1837-08-08, https://constance-de-salm.de/archiv/#/document/7821 #onthisday</t>
+          <t>»Je m'empresse, Monsieur, de vous dire une chose que apprends à l'instant ...« à Bélanger, 1837-08-08, https://constance-de-salm.de/archiv/#/document/7821 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7699,17 +7699,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2027-8-9</t>
+          <t>2027-08-09</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>15:13:52</t>
+          <t>13:50:12</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m'écrit, ma chère amie, qu'il a été chez vous et qu'il vous a donné de mes nouvelles ..." à Leroy de Bacre, 1837-08-09, https://constance-de-salm.de/archiv/#/document/7824 #onthisday</t>
+          <t>»Monsieur Drais m'écrit, ma chère amie, qu'il a été chez vous et qu'il vous a donné de mes nouvelles ...« à Leroy de Bacre, 1837-08-09, https://constance-de-salm.de/archiv/#/document/7824 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7726,17 +7726,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2027-8-10</t>
+          <t>2027-08-10</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>17:12:52</t>
+          <t>12:49:30</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, au moment où j'envoie à Monsieur Drais plusieurs billets que je le charge de remettre à mes amis ..." à Montémont, 1834-08-10, https://constance-de-salm.de/archiv/#/document/5590 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, au moment où j'envoie à Monsieur Drais plusieurs billets que je le charge de remettre à mes amis ...« à Montémont, 1834-08-10, https://constance-de-salm.de/archiv/#/document/5590 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7753,17 +7753,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2027-8-11</t>
+          <t>2027-08-11</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>19:10:31</t>
+          <t>09:15:01</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"On me renvoie ici, Monsieur, la lettre que vous m'avez adressée à Paris et je me hâte d'y répondre ..." à Bard, 1832-08-11, https://constance-de-salm.de/archiv/#/document/5418 #onthisday</t>
+          <t>»On me renvoie ici, Monsieur, la lettre que vous m'avez adressée à Paris et je me hâte d'y répondre ...« à Bard, 1832-08-11, https://constance-de-salm.de/archiv/#/document/5418 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2027-8-12</t>
+          <t>2027-08-12</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>19:39:22</t>
+          <t>10:52:49</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"On m’a envoyé ici, Monsieur, la lettre que vous m’aviez adressée à Paris ..." à Deshayes, 1833-08-12, https://constance-de-salm.de/archiv/#/document/9540 #onthisday</t>
+          <t>»On m’a envoyé ici, Monsieur, la lettre que vous m’aviez adressée à Paris ...« à Deshayes, 1833-08-12, https://constance-de-salm.de/archiv/#/document/9540 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7807,17 +7807,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2027-8-13</t>
+          <t>2027-08-13</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>15:11:14</t>
+          <t>09:16:40</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Vous ne m’écrivez pas, Monsieur, j’attendais toujours une lettre de vous; ..." à Villenave, 1829-08-13, https://constance-de-salm.de/archiv/#/document/9448 #onthisday</t>
+          <t>»Vous ne m’écrivez pas, Monsieur, j’attendais toujours une lettre de vous; ...« à Villenave, 1829-08-13, https://constance-de-salm.de/archiv/#/document/9448 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2027-8-14</t>
+          <t>2027-08-14</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>19:13:41</t>
+          <t>16:32:25</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"Je viens, Monsieur, d‘écrire une lettre à Monsieur de Villenave que je joins à celle-ci ..." à Drais, 1829-08-14, https://constance-de-salm.de/archiv/#/document/9455 #onthisday</t>
+          <t>»Je viens, Monsieur, d‘écrire une lettre à Monsieur de Villenave que je joins à celle-ci ...« à Drais, 1829-08-14, https://constance-de-salm.de/archiv/#/document/9455 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7861,17 +7861,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2027-8-15</t>
+          <t>2027-08-15</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>11:16:33</t>
+          <t>15:38:38</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre bonne lettre, ma bien chère amie; j’y suis plus sensible que je ne puis vous le dire ..." à Salis, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9834 #onthisday</t>
+          <t>»Je reçois ici votre bonne lettre, ma bien chère amie; j’y suis plus sensible que je ne puis vous le dire ...« à Salis, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9834 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2027-8-16</t>
+          <t>2027-08-16</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>09:47:22</t>
+          <t>13:36:18</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre, il y a peu de jours, cher frère; elle s’est croisée avec la mienne ..." à Théis, 1832-08-16, https://constance-de-salm.de/archiv/#/document/10820 #onthisday</t>
+          <t>»J’ai reçu ta lettre, il y a peu de jours, cher frère; elle s’est croisée avec la mienne ...« à Théis, 1832-08-16, https://constance-de-salm.de/archiv/#/document/10820 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7915,17 +7915,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2027-8-17</t>
+          <t>2027-08-17</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>10:57:34</t>
+          <t>16:36:49</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre ces jours-ci, mon cher Charles, et écrivant à ton père, je veux profiter de l’occasion ..." à Théis, 1832-08-17, https://constance-de-salm.de/archiv/#/document/10822 #onthisday</t>
+          <t>»J’ai reçu ta lettre ces jours-ci, mon cher Charles, et écrivant à ton père, je veux profiter de l’occasion ...« à Théis, 1832-08-17, https://constance-de-salm.de/archiv/#/document/10822 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7942,17 +7942,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2027-8-17</t>
+          <t>2027-08-17</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>11:17:33</t>
+          <t>14:20:46</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Monsieur, et cependant plusieurs de mes amis m'ont déjà écrit ..." à Boucharlat, 1833-08-17, https://constance-de-salm.de/archiv/#/document/5245 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Monsieur, et cependant plusieurs de mes amis m'ont déjà écrit ...« à Boucharlat, 1833-08-17, https://constance-de-salm.de/archiv/#/document/5245 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7969,17 +7969,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2027-8-18</t>
+          <t>2027-08-18</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>10:29:12</t>
+          <t>14:23:04</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre, cher frère, et quoique je sois un peu incommodée, je ne veux pas tarder ..." à Théis, 1833-08-18, https://constance-de-salm.de/archiv/#/document/10835 #onthisday</t>
+          <t>»J’ai reçu ta lettre, cher frère, et quoique je sois un peu incommodée, je ne veux pas tarder ...« à Théis, 1833-08-18, https://constance-de-salm.de/archiv/#/document/10835 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7996,17 +7996,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2027-8-19</t>
+          <t>2027-08-19</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>19:14:00</t>
+          <t>15:07:39</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"Nous nous sommes bien perdus de vue, Monsieur le baron, au milieu des troubles ..." à Stassart, 1833-08-19, https://constance-de-salm.de/archiv/#/document/5249 #onthisday</t>
+          <t>»Nous nous sommes bien perdus de vue, Monsieur le baron, au milieu des troubles ...« à Stassart, 1833-08-19, https://constance-de-salm.de/archiv/#/document/5249 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8023,17 +8023,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2027-8-20</t>
+          <t>2027-08-20</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>13:01:35</t>
+          <t>10:29:42</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"Je suis bien fâchée, Monsieur, des embarras que je vais encore vous donner pour le tout petit ouvrage ..." à Malo, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9635 #onthisday</t>
+          <t>»Je suis bien fâchée, Monsieur, des embarras que je vais encore vous donner pour le tout petit ouvrage ...« à Malo, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9635 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8050,17 +8050,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2027-8-20</t>
+          <t>2027-08-20</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16:37:22</t>
+          <t>11:32:51</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur et Madame, vous apprendre que je suis arrivée ici assez bien portante quoique le voyage m'ait d'abord extrêmement fatiguée ..." à Raboteau, 1838-08-20, https://constance-de-salm.de/archiv/#/document/7943 #onthisday</t>
+          <t>»Je veux, Monsieur et Madame, vous apprendre que je suis arrivée ici assez bien portante quoique le voyage m'ait d'abord extrêmement fatiguée ...« à Raboteau, 1838-08-20, https://constance-de-salm.de/archiv/#/document/7943 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8077,17 +8077,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2027-8-21</t>
+          <t>2027-08-21</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>17:48:37</t>
+          <t>08:32:13</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Je pensais à vous écrire, Monsieur, au moment où j'ai reçu votre lettre ..." à Boucharlat, 1834-08-21, https://constance-de-salm.de/archiv/#/document/5593 #onthisday</t>
+          <t>»Je pensais à vous écrire, Monsieur, au moment où j'ai reçu votre lettre ...« à Boucharlat, 1834-08-21, https://constance-de-salm.de/archiv/#/document/5593 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8104,17 +8104,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2027-8-21</t>
+          <t>2027-08-21</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>18:30:40</t>
+          <t>11:07:32</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"Je veux vous apprendre moi-même, Monsieur, que je suis arrivée ici après 5 jours d'un voyage que la chaleur a rendu fort pénible ..." à Audiffret, 1834-08-21, https://constance-de-salm.de/archiv/#/document/5592 #onthisday</t>
+          <t>»Je veux vous apprendre moi-même, Monsieur, que je suis arrivée ici après 5 jours d'un voyage que la chaleur a rendu fort pénible ...« à Audiffret, 1834-08-21, https://constance-de-salm.de/archiv/#/document/5592 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8131,17 +8131,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2027-8-23</t>
+          <t>2027-08-23</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>09:51:29</t>
+          <t>14:06:58</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps, Monsieur, je me propose de vous écrire, de vous dire combien j’ai été touchée ..." à Châtelain, 1836-08-23, https://constance-de-salm.de/archiv/#/document/9836 #onthisday</t>
+          <t>»Depuis bien longtemps, Monsieur, je me propose de vous écrire, de vous dire combien j’ai été touchée ...« à Châtelain, 1836-08-23, https://constance-de-salm.de/archiv/#/document/9836 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8158,17 +8158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2027-8-24</t>
+          <t>2027-08-24</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>17:50:35</t>
+          <t>17:20:17</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Félix vous remettra, Monsieur, un petit ouvrage que j'ai fait ici l'été dernier ..." à Ritz, 1839-08-24, https://constance-de-salm.de/archiv/#/document/8098 #onthisday</t>
+          <t>»Mon petit-fils Félix vous remettra, Monsieur, un petit ouvrage que j'ai fait ici l'été dernier ...« à Ritz, 1839-08-24, https://constance-de-salm.de/archiv/#/document/8098 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8185,17 +8185,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2027-8-25</t>
+          <t>2027-08-25</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>09:56:13</t>
+          <t>17:48:44</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami, dans l'espoir de pouvoir vous écrire de ma main ..." à Raboteau, 1822-08-25, https://constance-de-salm.de/archiv/#/document/46 #onthisday</t>
+          <t>»Depuis bien longtemps je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami, dans l'espoir de pouvoir vous écrire de ma main ...« à Raboteau, 1822-08-25, https://constance-de-salm.de/archiv/#/document/46 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8212,17 +8212,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2027-8-26</t>
+          <t>2027-08-26</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>14:20:01</t>
+          <t>09:48:13</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques mois, ma chère amie ..." à Leroy de Bacre, 1840-08-26, https://constance-de-salm.de/archiv/#/document/8238 #onthisday</t>
+          <t>»Je suis ici depuis quelques mois, ma chère amie ...« à Leroy de Bacre, 1840-08-26, https://constance-de-salm.de/archiv/#/document/8238 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8239,17 +8239,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2027-8-27</t>
+          <t>2027-08-27</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>14:40:35</t>
+          <t>17:39:44</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"Enfin, mon cher voisin, j'ai de vos nouvelles; elles m'ont fait grand plaisir ..." à Ladoucette, 1838-08-27, https://constance-de-salm.de/archiv/#/document/7946 #onthisday</t>
+          <t>»Enfin, mon cher voisin, j'ai de vos nouvelles; elles m'ont fait grand plaisir ...« à Ladoucette, 1838-08-27, https://constance-de-salm.de/archiv/#/document/7946 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8266,17 +8266,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2027-8-28</t>
+          <t>2027-08-28</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10:46:54</t>
+          <t>15:29:36</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"Je serai à Paris vers le 12, Monsieur, si, comme je l‘espère, je n’éprouve aucun retard en route ..." à Barbier, 1824-08-28, https://constance-de-salm.de/archiv/#/document/8920 #onthisday</t>
+          <t>»Je serai à Paris vers le 12, Monsieur, si, comme je l‘espère, je n’éprouve aucun retard en route ...« à Barbier, 1824-08-28, https://constance-de-salm.de/archiv/#/document/8920 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8293,17 +8293,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2027-8-29</t>
+          <t>2027-08-29</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>13:05:32</t>
+          <t>13:17:31</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"Ta lettre m’a fait le plus grand plaisir, ma chère amie, c’est toi qui m’as donné la première des nouvelles de mon frère ..." à Théis, 1830-08-29, https://constance-de-salm.de/archiv/#/document/10785 #onthisday</t>
+          <t>»Ta lettre m’a fait le plus grand plaisir, ma chère amie, c’est toi qui m’as donné la première des nouvelles de mon frère ...« à Théis, 1830-08-29, https://constance-de-salm.de/archiv/#/document/10785 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8320,17 +8320,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2027-8-29</t>
+          <t>2027-08-29</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>09:15:20</t>
+          <t>15:30:45</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"Je veux, Madame, vous remercier de la toute aimable lettre que vous m’avez écrite ..." à Waldor, 1835-08-29, https://constance-de-salm.de/archiv/#/document/9641 #onthisday</t>
+          <t>»Je veux, Madame, vous remercier de la toute aimable lettre que vous m’avez écrite ...« à Waldor, 1835-08-29, https://constance-de-salm.de/archiv/#/document/9641 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2027-8-30</t>
+          <t>2027-08-30</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>17:38:13</t>
+          <t>09:37:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur le baron, et je me hâte de vous répondre et de vous remercier ..." à Ladoucette, 1829-08-30, https://constance-de-salm.de/archiv/#/document/9458 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur le baron, et je me hâte de vous répondre et de vous remercier ...« à Ladoucette, 1829-08-30, https://constance-de-salm.de/archiv/#/document/9458 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8374,17 +8374,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2027-8-31</t>
+          <t>2027-08-31</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16:33:52</t>
+          <t>15:44:34</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"J'ai reçu ta lettre il y a deux jours, cher frère, et au moment où je me disposais à t'écrire ..." à Théis, 1839-08-31, https://constance-de-salm.de/archiv/#/document/8103 #onthisday</t>
+          <t>»J'ai reçu ta lettre il y a deux jours, cher frère, et au moment où je me disposais à t'écrire ...« à Théis, 1839-08-31, https://constance-de-salm.de/archiv/#/document/8103 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8401,17 +8401,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2027-9-1</t>
+          <t>2027-09-01</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>19:14:38</t>
+          <t>09:20:42</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre, Monsieur, et je me hâte de vous envoyer les deux significations que vous demandez ..." à Pailliet, 1826-09-01, https://constance-de-salm.de/archiv/#/document/11360 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre, Monsieur, et je me hâte de vous envoyer les deux significations que vous demandez ...« à Pailliet, 1826-09-01, https://constance-de-salm.de/archiv/#/document/11360 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8428,17 +8428,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2027-9-2</t>
+          <t>2027-09-02</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>15:46:40</t>
+          <t>19:28:28</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"Je fais mettre à la poste aujourd’hui, Monsieur le baron, le numéro du Constitutionnel et celui du Messager ..." à Stassart, 1833-09-02, https://constance-de-salm.de/archiv/#/document/9542 #onthisday</t>
+          <t>»Je fais mettre à la poste aujourd’hui, Monsieur le baron, le numéro du Constitutionnel et celui du Messager ...« à Stassart, 1833-09-02, https://constance-de-salm.de/archiv/#/document/9542 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8455,17 +8455,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2027-9-2</t>
+          <t>2027-09-02</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>14:23:14</t>
+          <t>15:31:26</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que vous n'avez eu de mes nouvelles ..." à Drais, 1834-09-02, https://constance-de-salm.de/archiv/#/document/5595 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que vous n'avez eu de mes nouvelles ...« à Drais, 1834-09-02, https://constance-de-salm.de/archiv/#/document/5595 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8482,17 +8482,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2027-9-3</t>
+          <t>2027-09-03</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>13:42:38</t>
+          <t>15:31:08</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"J'espère que vous accompagnerez aujourd'hui la ..." à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/4383 #onthisday</t>
+          <t>»J'espère que vous accompagnerez aujourd'hui la ...« à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/4383 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8509,17 +8509,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2027-9-5</t>
+          <t>2027-09-05</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>10:20:48</t>
+          <t>18:13:33</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, Mademoiselle, et je m'empresse de vous annoncer que ..." à Dahmen, 1838-09-05, https://constance-de-salm.de/archiv/#/document/7948 #onthisday</t>
+          <t>»J'ai reçu votre lettre, Mademoiselle, et je m'empresse de vous annoncer que ...« à Dahmen, 1838-09-05, https://constance-de-salm.de/archiv/#/document/7948 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8536,17 +8536,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2027-9-6</t>
+          <t>2027-09-06</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>09:07:40</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que j’ai reçu ta lettre, mon cher Alexandre; ..." à Francq, 1835-09-06, https://constance-de-salm.de/archiv/#/document/9643 #onthisday</t>
+          <t>»Il y a déjà quelque temps que j’ai reçu ta lettre, mon cher Alexandre; ...« à Francq, 1835-09-06, https://constance-de-salm.de/archiv/#/document/9643 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8563,17 +8563,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2027-9-7</t>
+          <t>2027-09-07</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>11:27:06</t>
+          <t>08:40:29</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Voici, Général, la lettre que je vous avais promis de vous envoyer pour Monsieur de Sandt; je vous prie de la lui remettre ..." à Georgeon, 1828-09-07, https://constance-de-salm.de/archiv/#/document/9220 #onthisday</t>
+          <t>»Voici, Général, la lettre que je vous avais promis de vous envoyer pour Monsieur de Sandt; je vous prie de la lui remettre ...« à Georgeon, 1828-09-07, https://constance-de-salm.de/archiv/#/document/9220 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8590,17 +8590,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2027-9-8</t>
+          <t>2027-09-08</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>12:51:19</t>
+          <t>18:12:02</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"Je voulais attendre pour répondre à votre si bonne et si touchante lettre ..." à Laya, 1820-09-08, https://constance-de-salm.de/archiv/#/document/6760 #onthisday</t>
+          <t>»Je voulais attendre pour répondre à votre si bonne et si touchante lettre ...« à Laya, 1820-09-08, https://constance-de-salm.de/archiv/#/document/6760 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8617,17 +8617,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2027-9-9</t>
+          <t>2027-09-09</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>18:06:47</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Voulez vous bien, Monsieur, nous rendre un petit service? ..." à Barbier, 1839-09-09, https://constance-de-salm.de/archiv/#/document/8104 #onthisday</t>
+          <t>»Voulez vous bien, Monsieur, nous rendre un petit service? ...« à Barbier, 1839-09-09, https://constance-de-salm.de/archiv/#/document/8104 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8644,17 +8644,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2027-9-10</t>
+          <t>2027-09-10</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>12:56:16</t>
+          <t>14:20:29</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre il y a déjà quelque temps, Madame, et je n’aurais pas tant tardé à y répondre, si le lendemain du jour ..." à Montigny, 1829-09-10, https://constance-de-salm.de/archiv/#/document/9460 #onthisday</t>
+          <t>»J’ai reçu votre lettre il y a déjà quelque temps, Madame, et je n’aurais pas tant tardé à y répondre, si le lendemain du jour ...« à Montigny, 1829-09-10, https://constance-de-salm.de/archiv/#/document/9460 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8671,17 +8671,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2027-9-10</t>
+          <t>2027-09-10</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>13:35:13</t>
+          <t>12:34:49</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"Comment se fait-il, mon ancien ami, que je n’entende point parler de vous depuis près de six mois? ..." à Duval, 1835-09-10, https://constance-de-salm.de/archiv/#/document/9644 #onthisday</t>
+          <t>»Comment se fait-il, mon ancien ami, que je n’entende point parler de vous depuis près de six mois? ...« à Duval, 1835-09-10, https://constance-de-salm.de/archiv/#/document/9644 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8698,17 +8698,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2027-9-12</t>
+          <t>2027-09-12</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>08:01:47</t>
+          <t>19:32:01</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"J’ai enfin reçu vos poésies, très aimable Dame, je viens de les lire, et je veux vous en parler ..." à Waldor, 1835-09-12, https://constance-de-salm.de/archiv/#/document/9652 #onthisday</t>
+          <t>»J’ai enfin reçu vos poésies, très aimable Dame, je viens de les lire, et je veux vous en parler ...« à Waldor, 1835-09-12, https://constance-de-salm.de/archiv/#/document/9652 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8725,17 +8725,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2027-9-13</t>
+          <t>2027-09-13</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>12:07:37</t>
+          <t>13:02:28</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"Cher ami, je viens de recevoir ta double lettre écrite avant et après la chasse : ..." à Salm-Reifferscheidt-Dyck, 1844-09-13, https://constance-de-salm.de/archiv/#/document/5362 #onthisday</t>
+          <t>»Cher ami, je viens de recevoir ta double lettre écrite avant et après la chasse : ...« à Salm-Reifferscheidt-Dyck, 1844-09-13, https://constance-de-salm.de/archiv/#/document/5362 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8752,17 +8752,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2027-9-14</t>
+          <t>2027-09-14</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>11:15:09</t>
+          <t>15:18:40</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre belle épître, Monsieur, je l’ai lue avec une véritable satisfaction et je vous remercie mille fois ..." à Viennet, 1825-09-14, https://constance-de-salm.de/archiv/#/document/8965 #onthisday</t>
+          <t>»J’ai reçu votre belle épître, Monsieur, je l’ai lue avec une véritable satisfaction et je vous remercie mille fois ...« à Viennet, 1825-09-14, https://constance-de-salm.de/archiv/#/document/8965 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8779,17 +8779,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2027-9-14</t>
+          <t>2027-09-14</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>18:51:01</t>
+          <t>08:51:16</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"J'espère, Monsieur le baron, que vous êtes fâché de mon long silence; ..." à Ladoucette, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6574 #onthisday</t>
+          <t>»J'espère, Monsieur le baron, que vous êtes fâché de mon long silence; ...« à Ladoucette, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6574 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8806,17 +8806,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2027-9-15</t>
+          <t>2027-09-15</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>19:21:49</t>
+          <t>13:25:29</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"Monsieur Maleszewski me dit, mon ancien et véritable ami, que vous êtes malade, et que vous restez chez vous pour soigner une jambe ..." à Breguet, 1822-09-15, https://constance-de-salm.de/archiv/#/document/36 #onthisday</t>
+          <t>»Monsieur Maleszewski me dit, mon ancien et véritable ami, que vous êtes malade, et que vous restez chez vous pour soigner une jambe ...« à Breguet, 1822-09-15, https://constance-de-salm.de/archiv/#/document/36 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8833,17 +8833,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2027-9-15</t>
+          <t>2027-09-15</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>17:21:11</t>
+          <t>19:29:08</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre aimable lettre déjà il y a quelque temps, Madame et ancienne amie, et je vous aurais répondu ..." à Salis, 1829-09-15, https://constance-de-salm.de/archiv/#/document/9461 #onthisday</t>
+          <t>»J’ai reçu votre aimable lettre déjà il y a quelque temps, Madame et ancienne amie, et je vous aurais répondu ...« à Salis, 1829-09-15, https://constance-de-salm.de/archiv/#/document/9461 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8860,17 +8860,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2027-9-16</t>
+          <t>2027-09-16</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>08:09:44</t>
+          <t>14:46:20</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, votre beau dithyrambe, et je me hâte de vous faire ..." à Montémont, 1831-09-16, https://constance-de-salm.de/archiv/#/document/6575 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, votre beau dithyrambe, et je me hâte de vous faire ...« à Montémont, 1831-09-16, https://constance-de-salm.de/archiv/#/document/6575 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8887,17 +8887,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2027-9-17</t>
+          <t>2027-09-17</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>09:35:20</t>
+          <t>18:28:56</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"Vous avez raison de vous plaindre de moi, Monsieur le baron, je vous dois une réponse depuis bien longtemps ..." à Ladoucette, 1828-09-17, https://constance-de-salm.de/archiv/#/document/9223 #onthisday</t>
+          <t>»Vous avez raison de vous plaindre de moi, Monsieur le baron, je vous dois une réponse depuis bien longtemps ...« à Ladoucette, 1828-09-17, https://constance-de-salm.de/archiv/#/document/9223 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8914,17 +8914,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2027-9-18</t>
+          <t>2027-09-18</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>14:02:09</t>
+          <t>14:40:55</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"Voilà plus de trois mois écoulés, Monsieur et ami, depuis qu'un coup affreux nous a frappés, et il m'a été impossible de vous écrire ..." à Barbier, 1820-09-18, https://constance-de-salm.de/archiv/#/document/6930 #onthisday</t>
+          <t>»Voilà plus de trois mois écoulés, Monsieur et ami, depuis qu'un coup affreux nous a frappés, et il m'a été impossible de vous écrire ...« à Barbier, 1820-09-18, https://constance-de-salm.de/archiv/#/document/6930 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8941,17 +8941,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2027-9-18</t>
+          <t>2027-09-18</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>14:55:32</t>
+          <t>15:30:50</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"Je suis bien aise, mon voisin, de savoir que je me porte mieux ..." à Prous, 1821-09-18, https://constance-de-salm.de/archiv/#/document/2847 #onthisday</t>
+          <t>»Je suis bien aise, mon voisin, de savoir que je me porte mieux ...« à Prous, 1821-09-18, https://constance-de-salm.de/archiv/#/document/2847 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8968,17 +8968,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2027-9-19</t>
+          <t>2027-09-19</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>15:01:53</t>
+          <t>12:10:35</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"J’ai enfin reçu ta lettre, cher frère, et je suis charmée de te savoir chez toi, et en bonne santé ..." à Théis, 1838-09-19, https://constance-de-salm.de/archiv/#/document/10906 #onthisday</t>
+          <t>»J’ai enfin reçu ta lettre, cher frère, et je suis charmée de te savoir chez toi, et en bonne santé ...« à Théis, 1838-09-19, https://constance-de-salm.de/archiv/#/document/10906 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8995,17 +8995,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2027-9-20</t>
+          <t>2027-09-20</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16:19:57</t>
+          <t>11:35:03</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, si vous m’en voulez de mon long silence, mais je m’en veux à moi-même ..." à Villenave, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9225 #onthisday</t>
+          <t>»Je ne sais, Monsieur, si vous m’en voulez de mon long silence, mais je m’en veux à moi-même ...« à Villenave, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9225 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9022,17 +9022,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2027-9-21</t>
+          <t>2027-09-21</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>15:45:14</t>
+          <t>19:35:23</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre dernière lettre, mon ancien ami, au moment même où je venais de faire partir celle que vous devez avoir maintenant ..." à Duval, 1832-09-21, https://constance-de-salm.de/archiv/#/document/5425 #onthisday</t>
+          <t>»J'ai reçu votre dernière lettre, mon ancien ami, au moment même où je venais de faire partir celle que vous devez avoir maintenant ...« à Duval, 1832-09-21, https://constance-de-salm.de/archiv/#/document/5425 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9049,17 +9049,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2027-9-22</t>
+          <t>2027-09-22</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>08:06:53</t>
+          <t>18:55:29</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"Après vous avoir vu si souvent cet hiver et une partie de l'été, Monsieur, j'éprouve ici le besoin ..." à Raboteau, 1834-09-22, https://constance-de-salm.de/archiv/#/document/5598 #onthisday</t>
+          <t>»Après vous avoir vu si souvent cet hiver et une partie de l'été, Monsieur, j'éprouve ici le besoin ...« à Raboteau, 1834-09-22, https://constance-de-salm.de/archiv/#/document/5598 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9076,17 +9076,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2027-9-23</t>
+          <t>2027-09-23</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>16:49:34</t>
+          <t>18:21:22</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"Je suis dans toutes les horreurs du déménagement, Monsieur le Baron; ..." à Ladoucette, 1824-09-23, https://constance-de-salm.de/archiv/#/document/8964 #onthisday</t>
+          <t>»Je suis dans toutes les horreurs du déménagement, Monsieur le Baron; ...« à Ladoucette, 1824-09-23, https://constance-de-salm.de/archiv/#/document/8964 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9103,17 +9103,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2027-9-23</t>
+          <t>2027-09-23</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>14:16:02</t>
+          <t>14:18:38</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"Voici enfin, Monsieur, le petit mémoire explicatif ..." à Pailliet, 1824-09-23, https://constance-de-salm.de/archiv/#/document/11100 #onthisday</t>
+          <t>»Voici enfin, Monsieur, le petit mémoire explicatif ...« à Pailliet, 1824-09-23, https://constance-de-salm.de/archiv/#/document/11100 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2027-9-24</t>
+          <t>2027-09-24</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>09:26:45</t>
+          <t>14:52:15</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"J'ai vu hier, mon cher voisin de Paris, votre lettre de St. Jullien, datée du 19 ..." à Ladoucette, 1841-09-24, https://constance-de-salm.de/archiv/#/document/7492 #onthisday</t>
+          <t>»J'ai vu hier, mon cher voisin de Paris, votre lettre de St. Jullien, datée du 19 ...« à Ladoucette, 1841-09-24, https://constance-de-salm.de/archiv/#/document/7492 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9157,17 +9157,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2027-9-26</t>
+          <t>2027-09-26</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>10:24:57</t>
+          <t>12:11:36</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"Que devenez-vous, Monsieur et ancien ami? Nos vieux contemporains meurent les uns après les autres; ..." à Thurot, 1828-09-26, https://constance-de-salm.de/archiv/#/document/9231 #onthisday</t>
+          <t>»Que devenez-vous, Monsieur et ancien ami? Nos vieux contemporains meurent les uns après les autres; ...« à Thurot, 1828-09-26, https://constance-de-salm.de/archiv/#/document/9231 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2027-9-28</t>
+          <t>2027-09-28</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>08:41:34</t>
+          <t>15:22:19</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"Lorsque vous pensiez à m'écrire, à vous écrire je pensais ..." à Ladoucette, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8113 #onthisday</t>
+          <t>»Lorsque vous pensiez à m'écrire, à vous écrire je pensais ...« à Ladoucette, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8113 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9211,17 +9211,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2027-9-29</t>
+          <t>2027-09-29</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16:42:27</t>
+          <t>15:49:11</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"Je reçois ta lettre du 25, cher frère, tu ne m’envoies pas encore la note ..." à Théis, 1840-09-29, https://constance-de-salm.de/archiv/#/document/11171 #onthisday</t>
+          <t>»Je reçois ta lettre du 25, cher frère, tu ne m’envoies pas encore la note ...« à Théis, 1840-09-29, https://constance-de-salm.de/archiv/#/document/11171 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9238,17 +9238,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2027-9-30</t>
+          <t>2027-09-30</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>08:42:09</t>
+          <t>12:42:12</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"Cher frère, je pense que tu peux être inquiet de nous dans ce moment de trouble et de guerre ..." à Théis, 1830-09-30, https://constance-de-salm.de/archiv/#/document/10787 #onthisday</t>
+          <t>»Cher frère, je pense que tu peux être inquiet de nous dans ce moment de trouble et de guerre ...« à Théis, 1830-09-30, https://constance-de-salm.de/archiv/#/document/10787 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9265,17 +9265,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2027-10-2</t>
+          <t>2027-10-02</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>11:25:14</t>
+          <t>18:23:09</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"Après avoir tant tardé à vous écrire, mon ancienne amie, c’est moi maintenant qui me plains de ne pas ..." à Salis, 1836-10-02, https://constance-de-salm.de/archiv/#/document/10365 #onthisday</t>
+          <t>»Après avoir tant tardé à vous écrire, mon ancienne amie, c’est moi maintenant qui me plains de ne pas ...« à Salis, 1836-10-02, https://constance-de-salm.de/archiv/#/document/10365 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9292,17 +9292,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2027-10-3</t>
+          <t>2027-10-03</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>15:35:51</t>
+          <t>12:39:08</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, Monsieur, je sais que vous êtes très occupé; ..." à Barbier, 1828-10-03, https://constance-de-salm.de/archiv/#/document/9234 #onthisday</t>
+          <t>»Je n’entends point parler de vous, Monsieur, je sais que vous êtes très occupé; ...« à Barbier, 1828-10-03, https://constance-de-salm.de/archiv/#/document/9234 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9319,17 +9319,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2027-10-4</t>
+          <t>2027-10-04</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>09:45:48</t>
+          <t>09:00:17</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas écrit, Monsieur, depuis la terrible catastrophe ..." à N.N., 1820-10-04, https://constance-de-salm.de/archiv/#/document/6931 #onthisday</t>
+          <t>»Je ne vous ai pas écrit, Monsieur, depuis la terrible catastrophe ...« à N.N., 1820-10-04, https://constance-de-salm.de/archiv/#/document/6931 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9346,17 +9346,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2027-10-5</t>
+          <t>2027-10-05</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>18:54:16</t>
+          <t>16:00:31</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de plaisir, Monsieur le colonel, que j’ai appris par la lettre que j’ai reçue de vous ..." à Schepeler, 1836-10-05, https://constance-de-salm.de/archiv/#/document/9852 #onthisday</t>
+          <t>»C’est avec beaucoup de plaisir, Monsieur le colonel, que j’ai appris par la lettre que j’ai reçue de vous ...« à Schepeler, 1836-10-05, https://constance-de-salm.de/archiv/#/document/9852 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9373,17 +9373,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2027-10-6</t>
+          <t>2027-10-06</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>18:05:53</t>
+          <t>17:56:47</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu ta dernière lettre, cher frère, je me propose de t’écrire ..." à Théis, 1841-10-06, https://constance-de-salm.de/archiv/#/document/10967 #onthisday</t>
+          <t>»Depuis que j’ai reçu ta dernière lettre, cher frère, je me propose de t’écrire ...« à Théis, 1841-10-06, https://constance-de-salm.de/archiv/#/document/10967 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9400,17 +9400,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2027-10-7</t>
+          <t>2027-10-07</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>11:09:33</t>
+          <t>08:24:43</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je n’ai eu [l’]occasion de me rappeler à votre souvenir ..." à Pailliet, 1844-10-07, https://constance-de-salm.de/archiv/#/document/14 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je n’ai eu [l’]occasion de me rappeler à votre souvenir ...« à Pailliet, 1844-10-07, https://constance-de-salm.de/archiv/#/document/14 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9427,17 +9427,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2027-10-8</t>
+          <t>2027-10-08</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>18:29:47</t>
+          <t>19:16:23</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ..." à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/4565 #onthisday</t>
+          <t>»C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ...« à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/4565 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9454,17 +9454,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2027-10-8</t>
+          <t>2027-10-08</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>19:46:49</t>
+          <t>16:10:20</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ..." à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/8868 #onthisday</t>
+          <t>»C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ...« à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/8868 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9481,17 +9481,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2027-10-9</t>
+          <t>2027-10-09</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>09:50:04</t>
+          <t>14:20:42</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j'ai reçu votre lettre ..." à Montémont, 1833-10-09, https://constance-de-salm.de/archiv/#/document/5260 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j'ai reçu votre lettre ...« à Montémont, 1833-10-09, https://constance-de-salm.de/archiv/#/document/5260 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>18:57:54</t>
+          <t>11:14:27</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps, Monsieur le baron, je me propose de répondre aux deux bonnes lettres que j’ai reçues de vous; ..." à Ladoucette, 1835-10-10, https://constance-de-salm.de/archiv/#/document/9648 #onthisday</t>
+          <t>»Depuis bien longtemps, Monsieur le baron, je me propose de répondre aux deux bonnes lettres que j’ai reçues de vous; ...« à Ladoucette, 1835-10-10, https://constance-de-salm.de/archiv/#/document/9648 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>17:21:22</t>
+          <t>08:56:23</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre il y a quelques jours, Madame et amie, et je m’empresse de vous répondre pour vous dire ..." à Salis, 1829-10-12, https://constance-de-salm.de/archiv/#/document/10347 #onthisday</t>
+          <t>»J’ai reçu votre lettre il y a quelques jours, Madame et amie, et je m’empresse de vous répondre pour vous dire ...« à Salis, 1829-10-12, https://constance-de-salm.de/archiv/#/document/10347 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>17:31:48</t>
+          <t>19:21:00</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"J'ai tardé jusqu'à présent à vous répondre, Monsieur, afin de pouvoir vous dire ..." à Allenet (?), 1837-10-13, https://constance-de-salm.de/archiv/#/document/7843 #onthisday</t>
+          <t>»J'ai tardé jusqu'à présent à vous répondre, Monsieur, afin de pouvoir vous dire ...« à Allenet (?), 1837-10-13, https://constance-de-salm.de/archiv/#/document/7843 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9594,12 +9594,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>15:40:54</t>
+          <t>12:27:54</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"J'ai reçu avant-hier, Monsieur, votre dernière et bien triste lettre, vous étiez navré de la maladie ..." à Drais, 1839-10-13, https://constance-de-salm.de/archiv/#/document/8118 #onthisday</t>
+          <t>»J'ai reçu avant-hier, Monsieur, votre dernière et bien triste lettre, vous étiez navré de la maladie ...« à Drais, 1839-10-13, https://constance-de-salm.de/archiv/#/document/8118 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>14:00:41</t>
+          <t>15:46:53</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"Vous êtes sans doute étonné, Monsieur, de n'avoir pas entendu parler de moi depuis que je suis ici ..." à Châtelain, 1834-10-14, https://constance-de-salm.de/archiv/#/document/5600 #onthisday</t>
+          <t>»Vous êtes sans doute étonné, Monsieur, de n'avoir pas entendu parler de moi depuis que je suis ici ...« à Châtelain, 1834-10-14, https://constance-de-salm.de/archiv/#/document/5600 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9648,12 +9648,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>14:26:57</t>
+          <t>12:54:29</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre si intéressante lettre, Monsieur et ancien ami ..." à Duval, 1830-10-15, https://constance-de-salm.de/archiv/#/document/5192 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre si intéressante lettre, Monsieur et ancien ami ...« à Duval, 1830-10-15, https://constance-de-salm.de/archiv/#/document/5192 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9675,12 +9675,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>15:26:08</t>
+          <t>19:20:21</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Madame, elle a bien touché mon cœur; que vous répondre? Que vous dire? ..." à Salis, 1820-10-16, https://constance-de-salm.de/archiv/#/document/6933 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Madame, elle a bien touché mon cœur; que vous répondre? Que vous dire? ...« à Salis, 1820-10-16, https://constance-de-salm.de/archiv/#/document/6933 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>11:15:14</t>
+          <t>08:43:48</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"Si je n'ai pas encore répondu, Monsieur, à votre toute aimable lettre; ..." à Pröpper, 1833-10-16, https://constance-de-salm.de/archiv/#/document/5261 #onthisday</t>
+          <t>»Si je n'ai pas encore répondu, Monsieur, à votre toute aimable lettre; ...« à Pröpper, 1833-10-16, https://constance-de-salm.de/archiv/#/document/5261 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9729,12 +9729,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>14:31:48</t>
+          <t>19:48:27</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, Monsieur, dans un moment bien pénible pour moi ..." à Montémont, 1834-10-17, https://constance-de-salm.de/archiv/#/document/5603 #onthisday</t>
+          <t>»J'ai reçu votre lettre, Monsieur, dans un moment bien pénible pour moi ...« à Montémont, 1834-10-17, https://constance-de-salm.de/archiv/#/document/5603 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9756,12 +9756,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>15:01:24</t>
+          <t>13:37:28</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"Prince! Une longue maladie, dont je suis à peine rétablie, m’a empêché de vous envoyer plus tôt le petit ouvrage ..." à Dalberg, 1810-10-18, https://constance-de-salm.de/archiv/#/document/2169 #onthisday</t>
+          <t>»Prince! Une longue maladie, dont je suis à peine rétablie, m’a empêché de vous envoyer plus tôt le petit ouvrage ...« à Dalberg, 1810-10-18, https://constance-de-salm.de/archiv/#/document/2169 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>11:43:29</t>
+          <t>18:22:12</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu hier au soir ta grande lettre ; ..." à Salm-Reifferscheidt-Dyck, 1840-10-20, https://constance-de-salm.de/archiv/#/document/11172 #onthisday</t>
+          <t>»Cher ami, j’ai reçu hier au soir ta grande lettre ; ...« à Salm-Reifferscheidt-Dyck, 1840-10-20, https://constance-de-salm.de/archiv/#/document/11172 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9810,12 +9810,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>18:38:31</t>
+          <t>08:52:31</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"J’ai quitté la campagne et je suis près de vous / Vous ne m’écrivez plus, et je m’en plains avec cause / ..." à Gudin de La Brenellerie, 1808-10-21, https://constance-de-salm.de/archiv/#/document/8729 #onthisday</t>
+          <t>»J’ai quitté la campagne et je suis près de vous / Vous ne m’écrivez plus, et je m’en plains avec cause / ...« à Gudin de La Brenellerie, 1808-10-21, https://constance-de-salm.de/archiv/#/document/8729 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9837,12 +9837,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>08:28:43</t>
+          <t>09:52:10</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Monsieur et ancien ami ..." à Duval, 1833-10-22, https://constance-de-salm.de/archiv/#/document/5278 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Monsieur et ancien ami ...« à Duval, 1833-10-22, https://constance-de-salm.de/archiv/#/document/5278 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9864,12 +9864,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>18:01:17</t>
+          <t>19:01:39</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, mon très cher Général, que je vous ai écrit; ..." à Saint-Mars, 1836-10-22, https://constance-de-salm.de/archiv/#/document/9856 #onthisday</t>
+          <t>»Il y a bien longtemps, mon très cher Général, que je vous ai écrit; ...« à Saint-Mars, 1836-10-22, https://constance-de-salm.de/archiv/#/document/9856 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>12:08:51</t>
+          <t>15:51:11</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"Je veux joindre quelques mots pour vous à une lettre que j'écris à Monsieur Drais, Monsieur et ancien ami ..." à Duval, 1831-10-23, https://constance-de-salm.de/archiv/#/document/6584 #onthisday</t>
+          <t>»Je veux joindre quelques mots pour vous à une lettre que j'écris à Monsieur Drais, Monsieur et ancien ami ...« à Duval, 1831-10-23, https://constance-de-salm.de/archiv/#/document/6584 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9918,12 +9918,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>14:15:12</t>
+          <t>17:51:53</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"Je veux joindre quelques lignes pour vous, Monsieur, à une lettre ..." à Montémont, 1831-10-23, https://constance-de-salm.de/archiv/#/document/6628 #onthisday</t>
+          <t>»Je veux joindre quelques lignes pour vous, Monsieur, à une lettre ...« à Montémont, 1831-10-23, https://constance-de-salm.de/archiv/#/document/6628 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>08:32:51</t>
+          <t>19:05:01</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Monsieur Jomard et Mademoiselle sa fille nous ont fait, Monsieur, une surprise bien agréable ..." à Montémont, 1837-10-25, https://constance-de-salm.de/archiv/#/document/7847 #onthisday</t>
+          <t>»Monsieur Jomard et Mademoiselle sa fille nous ont fait, Monsieur, une surprise bien agréable ...« à Montémont, 1837-10-25, https://constance-de-salm.de/archiv/#/document/7847 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9972,12 +9972,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>13:52:46</t>
+          <t>14:15:43</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, combien de fois je me suis proposé de vous écrire ..." à Mathon de Fogères, 1836-10-26, https://constance-de-salm.de/archiv/#/document/9857 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, combien de fois je me suis proposé de vous écrire ...« à Mathon de Fogères, 1836-10-26, https://constance-de-salm.de/archiv/#/document/9857 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9999,12 +9999,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>19:26:05</t>
+          <t>13:11:51</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre, Monsieur, et j’en suis ravie ..." à Pailliet, 1824-10-27, https://constance-de-salm.de/archiv/#/document/11320 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre, Monsieur, et j’en suis ravie ...« à Pailliet, 1824-10-27, https://constance-de-salm.de/archiv/#/document/11320 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10026,12 +10026,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>10:35:05</t>
+          <t>19:13:02</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"Il y a plus de deux ans, Madame, qu'en arrivant ..." à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5282 #onthisday</t>
+          <t>»Il y a plus de deux ans, Madame, qu'en arrivant ...« à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5282 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10053,12 +10053,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>17:12:36</t>
+          <t>08:34:06</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"J'ai été plus touchée que je ne puis vous l'exprimer, Mademoiselle ..." à Sobry, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5283 #onthisday</t>
+          <t>»J'ai été plus touchée que je ne puis vous l'exprimer, Mademoiselle ...« à Sobry, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5283 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>19:15:42</t>
+          <t>10:13:43</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"Me voilà enfin, Madame et véritable amie ..." à Salis, 1823-10-30, https://constance-de-salm.de/archiv/#/document/80 #onthisday</t>
+          <t>»Me voilà enfin, Madame et véritable amie ...« à Salis, 1823-10-30, https://constance-de-salm.de/archiv/#/document/80 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10107,12 +10107,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>08:21:20</t>
+          <t>14:57:38</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"Me voilà enfin, Madame et véritable amie ..." à Salis, 1823-10-30, https://constance-de-salm.de/archiv/#/document/10339 #onthisday</t>
+          <t>»Me voilà enfin, Madame et véritable amie ...« à Salis, 1823-10-30, https://constance-de-salm.de/archiv/#/document/10339 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10134,12 +10134,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>08:47:43</t>
+          <t>16:58:16</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtemps, Monsieur, que j'ai reçu vos deux bonnes lettres, et que je m'y propose d'y répondre ..." à Boucharlat, 1842-10-31, https://constance-de-salm.de/archiv/#/document/7473 #onthisday</t>
+          <t>»Il y a déjà longtemps, Monsieur, que j'ai reçu vos deux bonnes lettres, et que je m'y propose d'y répondre ...« à Boucharlat, 1842-10-31, https://constance-de-salm.de/archiv/#/document/7473 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10156,17 +10156,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2027-11-1</t>
+          <t>2027-11-01</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>13:52:40</t>
+          <t>10:54:51</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre, Monsieur, et je m'empresse d'y répondre ..." à Sandt, 1837-11-01, https://constance-de-salm.de/archiv/#/document/7854 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre, Monsieur, et je m'empresse d'y répondre ...« à Sandt, 1837-11-01, https://constance-de-salm.de/archiv/#/document/7854 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10183,17 +10183,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2027-11-2</t>
+          <t>2027-11-02</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>13:17:26</t>
+          <t>15:28:17</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Je ne sais, Madame, de quelles expressions me servir pour m’excuser de n’avoir pas encore répondu à la lettre ..." à Thurot, 1835-11-02, https://constance-de-salm.de/archiv/#/document/9662 #onthisday</t>
+          <t>»Je ne sais, Madame, de quelles expressions me servir pour m’excuser de n’avoir pas encore répondu à la lettre ...« à Thurot, 1835-11-02, https://constance-de-salm.de/archiv/#/document/9662 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10210,17 +10210,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2027-11-3</t>
+          <t>2027-11-03</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>14:43:23</t>
+          <t>15:26:12</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Je quitte dans quatre jours ce pays, où, depuis plus d’un an, j’ai éprouvé plus de douleurs qu’il ne m’est possible de le dire ..." à Théis, 1835-11-03, https://constance-de-salm.de/archiv/#/document/9663 #onthisday</t>
+          <t>»Je quitte dans quatre jours ce pays, où, depuis plus d’un an, j’ai éprouvé plus de douleurs qu’il ne m’est possible de le dire ...« à Théis, 1835-11-03, https://constance-de-salm.de/archiv/#/document/9663 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10237,17 +10237,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2027-11-4</t>
+          <t>2027-11-04</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>12:49:16</t>
+          <t>09:41:03</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"J'ai enfin quitté la campagne, mon cher Anténor, je suis ..." à Lantier, 1822-11-04, https://constance-de-salm.de/archiv/#/document/40 #onthisday</t>
+          <t>»J'ai enfin quitté la campagne, mon cher Anténor, je suis ...« à Lantier, 1822-11-04, https://constance-de-salm.de/archiv/#/document/40 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2027-11-5</t>
+          <t>2027-11-05</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>16:07:53</t>
+          <t>09:33:50</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu hier ta lettre du 1er et du 2 ..." à Salm-Reifferscheidt-Dyck, 1844-11-05, https://constance-de-salm.de/archiv/#/document/5341 #onthisday</t>
+          <t>»Cher ami, j’ai reçu hier ta lettre du 1er et du 2 ...« à Salm-Reifferscheidt-Dyck, 1844-11-05, https://constance-de-salm.de/archiv/#/document/5341 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10291,17 +10291,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2027-11-6</t>
+          <t>2027-11-06</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>18:12:11</t>
+          <t>10:22:35</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, au milieu des apprêts de mon départ ..." à Audiffret, 1835-11-06, https://constance-de-salm.de/archiv/#/document/9664 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, au milieu des apprêts de mon départ ...« à Audiffret, 1835-11-06, https://constance-de-salm.de/archiv/#/document/9664 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10318,17 +10318,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2027-11-7</t>
+          <t>2027-11-07</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>08:05:40</t>
+          <t>17:39:46</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur, vos deux aimables lettres, au moment où l’on m’annonce qu’on nous attend pour commencer la messe; ..." à Pröpper, 1841-11-07, https://constance-de-salm.de/archiv/#/document/11268 #onthisday</t>
+          <t>»Je reçois, Monsieur, vos deux aimables lettres, au moment où l’on m’annonce qu’on nous attend pour commencer la messe; ...« à Pröpper, 1841-11-07, https://constance-de-salm.de/archiv/#/document/11268 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10345,17 +10345,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2027-11-8</t>
+          <t>2027-11-08</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>12:21:04</t>
+          <t>10:52:19</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"En vérité, Monsieur, je ne sais ce que je dois vous dire pour excuser mon long silence, tant j’en suis confuse ..." à Gohier, 1827-11-08, https://constance-de-salm.de/archiv/#/document/9099 #onthisday</t>
+          <t>»En vérité, Monsieur, je ne sais ce que je dois vous dire pour excuser mon long silence, tant j’en suis confuse ...« à Gohier, 1827-11-08, https://constance-de-salm.de/archiv/#/document/9099 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10372,17 +10372,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2027-11-8</t>
+          <t>2027-11-08</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>11:20:12</t>
+          <t>16:19:58</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"Je joins ce billet, Monsieur, à une lettre que j'adresse à Monsieur Drais, pour vous dire que plusieurs de mes amis ..." à Boucharlat, 1833-11-08, https://constance-de-salm.de/archiv/#/document/5290 #onthisday</t>
+          <t>»Je joins ce billet, Monsieur, à une lettre que j'adresse à Monsieur Drais, pour vous dire que plusieurs de mes amis ...« à Boucharlat, 1833-11-08, https://constance-de-salm.de/archiv/#/document/5290 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>18:02:36</t>
+          <t>13:06:46</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"Votre lettre que j'ai reçue ces jours-ci, Monsieur, m'a fait grand plaisir ..." à Barbier, 1833-11-10, https://constance-de-salm.de/archiv/#/document/5292 #onthisday</t>
+          <t>»Votre lettre que j'ai reçue ces jours-ci, Monsieur, m'a fait grand plaisir ...« à Barbier, 1833-11-10, https://constance-de-salm.de/archiv/#/document/5292 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10431,12 +10431,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>18:12:13</t>
+          <t>13:37:27</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"Ne recevant point de vos nouvelles, Monsieur, je pense que vous vous serez décidé à traduire ma biographie ..." à Sandt, 1837-11-12, https://constance-de-salm.de/archiv/#/document/7863 #onthisday</t>
+          <t>»Ne recevant point de vos nouvelles, Monsieur, je pense que vous vous serez décidé à traduire ma biographie ...« à Sandt, 1837-11-12, https://constance-de-salm.de/archiv/#/document/7863 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>16:19:43</t>
+          <t>18:30:15</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"Vous aurez sans doute lu dans le journal d'Aix-la-Chapelle, Monsieur le colonel, un article ..." à Schepeler, 1842-11-14, https://constance-de-salm.de/archiv/#/document/7477 #onthisday</t>
+          <t>»Vous aurez sans doute lu dans le journal d'Aix-la-Chapelle, Monsieur le colonel, un article ...« à Schepeler, 1842-11-14, https://constance-de-salm.de/archiv/#/document/7477 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10485,12 +10485,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>16:55:47</t>
+          <t>14:11:51</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Je vous dois bien des réponses, Monsieur; ..." à Jullien de Paris, 1836-11-15, https://constance-de-salm.de/archiv/#/document/9859 #onthisday</t>
+          <t>»Je vous dois bien des réponses, Monsieur; ...« à Jullien de Paris, 1836-11-15, https://constance-de-salm.de/archiv/#/document/9859 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10512,12 +10512,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>15:12:51</t>
+          <t>09:25:30</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre seconde lettre, Monsieur, c’est-à-dire la seconde depuis que j’ai répondu à la première ..." à Villenave, 1829-11-16, https://constance-de-salm.de/archiv/#/document/9466 #onthisday</t>
+          <t>»Je reçois ici votre seconde lettre, Monsieur, c’est-à-dire la seconde depuis que j’ai répondu à la première ...« à Villenave, 1829-11-16, https://constance-de-salm.de/archiv/#/document/9466 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>18:01:35</t>
+          <t>19:57:52</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"Je m'empresse de vous dire, Monsieur, que j'ai reçu votre lettre ..." à Jullien de Paris, 1831-11-16, https://constance-de-salm.de/archiv/#/document/6632 #onthisday</t>
+          <t>»Je m'empresse de vous dire, Monsieur, que j'ai reçu votre lettre ...« à Jullien de Paris, 1831-11-16, https://constance-de-salm.de/archiv/#/document/6632 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10566,12 +10566,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>09:50:58</t>
+          <t>10:35:42</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"Je viens d'écrire à votre frère, mon cher Duval, je lui apprends ce que je vous apprends aussi ..." à Duval, 1837-11-17, https://constance-de-salm.de/archiv/#/document/7866 #onthisday</t>
+          <t>»Je viens d'écrire à votre frère, mon cher Duval, je lui apprends ce que je vous apprends aussi ...« à Duval, 1837-11-17, https://constance-de-salm.de/archiv/#/document/7866 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10593,12 +10593,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>12:53:14</t>
+          <t>19:56:10</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis peu de jours, et je veux, Monsieur, vous apprendre moi-même mon retour et vous engager à venir me voir ..." à Sauvo, 1835-11-18, https://constance-de-salm.de/archiv/#/document/9666 #onthisday</t>
+          <t>»Je suis ici depuis peu de jours, et je veux, Monsieur, vous apprendre moi-même mon retour et vous engager à venir me voir ...« à Sauvo, 1835-11-18, https://constance-de-salm.de/archiv/#/document/9666 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10620,12 +10620,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>08:24:14</t>
+          <t>14:29:51</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelques jours votre bonne et grande lettre, Monsieur, et je ne veux pas tarder à y répondre ..." à Montémont, 1836-11-19, https://constance-de-salm.de/archiv/#/document/9862 #onthisday</t>
+          <t>»J’ai reçu il y a quelques jours votre bonne et grande lettre, Monsieur, et je ne veux pas tarder à y répondre ...« à Montémont, 1836-11-19, https://constance-de-salm.de/archiv/#/document/9862 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>18:43:13</t>
+          <t>15:27:16</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"Voici, cher frère, une lettre pour ta fille, je ne te répèterai pas ce que je lui dis; ..." à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/9280 #onthisday</t>
+          <t>»Voici, cher frère, une lettre pour ta fille, je ne te répèterai pas ce que je lui dis; ...« à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/9280 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10674,12 +10674,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>15:47:23</t>
+          <t>14:56:54</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"J'ai fait partir hier pour vous, Monsieur, une lettre immense, et écrite à plusieurs reprises ..." à Drais, 1842-11-21, https://constance-de-salm.de/archiv/#/document/7484 #onthisday</t>
+          <t>»J'ai fait partir hier pour vous, Monsieur, une lettre immense, et écrite à plusieurs reprises ...« à Drais, 1842-11-21, https://constance-de-salm.de/archiv/#/document/7484 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10701,12 +10701,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>13:38:15</t>
+          <t>13:38:06</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"Je retrouve, Monsieur, un vieux morceau d'une vieille épreuve dans laquelle vous verrez une partie de ce que je vous ai dit avant hier ..." à Berville, 1835-11-22, https://constance-de-salm.de/archiv/#/document/5113 #onthisday</t>
+          <t>»Je retrouve, Monsieur, un vieux morceau d'une vieille épreuve dans laquelle vous verrez une partie de ce que je vous ai dit avant hier ...« à Berville, 1835-11-22, https://constance-de-salm.de/archiv/#/document/5113 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>19:31:30</t>
+          <t>11:38:55</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques jours, mon cher Viennet, je commence à me remettre ..." à Viennet, 1838-11-23, https://constance-de-salm.de/archiv/#/document/7968 #onthisday</t>
+          <t>»Je suis ici depuis quelques jours, mon cher Viennet, je commence à me remettre ...« à Viennet, 1838-11-23, https://constance-de-salm.de/archiv/#/document/7968 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10755,12 +10755,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>16:58:51</t>
+          <t>11:17:26</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"J'apprends à l'instant par les journaux, mon cher Viennet, que vous êtes enfin au nombre de nos académiciens ..." à Viennet, 1830-11-24, https://constance-de-salm.de/archiv/#/document/5197 #onthisday</t>
+          <t>»J'apprends à l'instant par les journaux, mon cher Viennet, que vous êtes enfin au nombre de nos académiciens ...« à Viennet, 1830-11-24, https://constance-de-salm.de/archiv/#/document/5197 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10782,12 +10782,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>12:20:12</t>
+          <t>09:31:15</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelque jours votre excellente lettre, mon ancienne amie ..." à Salis, 1837-11-26, https://constance-de-salm.de/archiv/#/document/7873 #onthisday</t>
+          <t>»J'ai reçu il y a quelque jours votre excellente lettre, mon ancienne amie ...« à Salis, 1837-11-26, https://constance-de-salm.de/archiv/#/document/7873 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10809,12 +10809,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>08:01:08</t>
+          <t>17:23:47</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"Les journaux m'avaient déjà appris votre réélection, Monsieur le baron, lorsque votre dernière lettre ..." à Ladoucette, 1837-11-27, https://constance-de-salm.de/archiv/#/document/7874 #onthisday</t>
+          <t>»Les journaux m'avaient déjà appris votre réélection, Monsieur le baron, lorsque votre dernière lettre ...« à Ladoucette, 1837-11-27, https://constance-de-salm.de/archiv/#/document/7874 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10836,12 +10836,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>08:50:20</t>
+          <t>15:39:38</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici le 15, comme je te l’avais annoncé, cher frère; ..." à Théis, 1838-11-28, https://constance-de-salm.de/archiv/#/document/10910 #onthisday</t>
+          <t>»Je suis arrivée ici le 15, comme je te l’avais annoncé, cher frère; ...« à Théis, 1838-11-28, https://constance-de-salm.de/archiv/#/document/10910 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10863,12 +10863,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>08:44:13</t>
+          <t>19:12:15</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"Je m’empresse de vous apprendre, Monsieur le baron, que, d’après l’approbation que vous avez donnée ..." à Humboldt, 1840-11-29, https://constance-de-salm.de/archiv/#/document/11178 #onthisday</t>
+          <t>»Je m’empresse de vous apprendre, Monsieur le baron, que, d’après l’approbation que vous avez donnée ...« à Humboldt, 1840-11-29, https://constance-de-salm.de/archiv/#/document/11178 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10890,12 +10890,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>13:13:17</t>
+          <t>18:05:06</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"C'est encore ici que j'ai reçu votre dernière lettre de Vieils-Maisons, Monsieur le baron ..." à Ladoucette, 1839-11-30, https://constance-de-salm.de/archiv/#/document/8137 #onthisday</t>
+          <t>»C'est encore ici que j'ai reçu votre dernière lettre de Vieils-Maisons, Monsieur le baron ...« à Ladoucette, 1839-11-30, https://constance-de-salm.de/archiv/#/document/8137 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10917,12 +10917,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>15:01:08</t>
+          <t>09:56:49</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Votre bonne, votre excellente lettre que j’ai reçue peu de temps après mon arrivée ici ..." à Vanhove, 1841-11-30, https://constance-de-salm.de/archiv/#/document/10972 #onthisday</t>
+          <t>»Votre bonne, votre excellente lettre que j’ai reçue peu de temps après mon arrivée ici ...« à Vanhove, 1841-11-30, https://constance-de-salm.de/archiv/#/document/10972 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10939,17 +10939,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2027-12-1</t>
+          <t>2027-12-01</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>12:45:58</t>
+          <t>11:29:45</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"J’envoie un paquet de lettres à Monsieur Drais pour mes amis, et je veux, Monsieur le baron, qu’il y en ait une pour vous ..." à Ladoucette, 1829-12-01, https://constance-de-salm.de/archiv/#/document/9471 #onthisday</t>
+          <t>»J’envoie un paquet de lettres à Monsieur Drais pour mes amis, et je veux, Monsieur le baron, qu’il y en ait une pour vous ...« à Ladoucette, 1829-12-01, https://constance-de-salm.de/archiv/#/document/9471 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2027-12-3</t>
+          <t>2027-12-03</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>09:22:36</t>
+          <t>08:42:27</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu vos tout aimables lettres, Monsieur et Madame, je me suis proposé bien souvent de vous répondre ..." à Ladoucette, 1842-12-03, https://constance-de-salm.de/archiv/#/document/7487 #onthisday</t>
+          <t>»Depuis que j'ai reçu vos tout aimables lettres, Monsieur et Madame, je me suis proposé bien souvent de vous répondre ...« à Ladoucette, 1842-12-03, https://constance-de-salm.de/archiv/#/document/7487 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10993,17 +10993,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2027-12-4</t>
+          <t>2027-12-04</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>18:35:25</t>
+          <t>10:57:03</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>"J'ai reçu avant hier votre lettre, Monsieur le baron, et je vous dirai d'abord que le soir ..." à Ladoucette, 1833-12-04, https://constance-de-salm.de/archiv/#/document/5303 #onthisday</t>
+          <t>»J'ai reçu avant hier votre lettre, Monsieur le baron, et je vous dirai d'abord que le soir ...« à Ladoucette, 1833-12-04, https://constance-de-salm.de/archiv/#/document/5303 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11020,17 +11020,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2027-12-6</t>
+          <t>2027-12-06</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>15:33:25</t>
+          <t>10:38:20</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm-Dyck se trouvant tout à coup retenue chez elle ..." à Preußen, 1822-12-06, https://constance-de-salm.de/archiv/#/document/42 #onthisday</t>
+          <t>»La Princesse de Salm-Dyck se trouvant tout à coup retenue chez elle ...« à Preußen, 1822-12-06, https://constance-de-salm.de/archiv/#/document/42 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11047,17 +11047,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2027-12-6</t>
+          <t>2027-12-06</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>11:20:37</t>
+          <t>16:54:55</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques jours, Monsieur, et je viens d'y recevoir ..." à Pailliet, 1824-12-06, https://constance-de-salm.de/archiv/#/document/11331 #onthisday</t>
+          <t>»Je suis ici depuis quelques jours, Monsieur, et je viens d'y recevoir ...« à Pailliet, 1824-12-06, https://constance-de-salm.de/archiv/#/document/11331 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11074,17 +11074,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2027-12-7</t>
+          <t>2027-12-07</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>09:31:57</t>
+          <t>17:24:27</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques temps, Madame, et c'est au moment de mon arrivée ..." à Guyet, 1838-12-07, https://constance-de-salm.de/archiv/#/document/7975 #onthisday</t>
+          <t>»Je suis ici depuis quelques temps, Madame, et c'est au moment de mon arrivée ...« à Guyet, 1838-12-07, https://constance-de-salm.de/archiv/#/document/7975 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11101,17 +11101,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2027-12-8</t>
+          <t>2027-12-08</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>09:40:04</t>
+          <t>18:39:22</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"Que direz-vous de mon long silence, chère Princesse? ..." à Thurn und Taxis, 1829-12-08, https://constance-de-salm.de/archiv/#/document/256 #onthisday</t>
+          <t>»Que direz-vous de mon long silence, chère Princesse? ...« à Thurn und Taxis, 1829-12-08, https://constance-de-salm.de/archiv/#/document/256 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11128,17 +11128,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2027-12-9</t>
+          <t>2027-12-09</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>17:10:50</t>
+          <t>14:22:40</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"Depuis deux jours, Monsieur, il me semblait que vous deviez m'écrire ..." à Prous, 1816-12-09, https://constance-de-salm.de/archiv/#/document/4338 #onthisday</t>
+          <t>»Depuis deux jours, Monsieur, il me semblait que vous deviez m'écrire ...« à Prous, 1816-12-09, https://constance-de-salm.de/archiv/#/document/4338 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11160,12 +11160,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>17:20:08</t>
+          <t>10:41:20</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant, Monsieur, et avec la plus vive peine la perte sensible que nous venons de faire de Monsieur Barbier ..." à Drais, 1825-12-10, https://constance-de-salm.de/archiv/#/document/8973 #onthisday</t>
+          <t>»J’apprends à l’instant, Monsieur, et avec la plus vive peine la perte sensible que nous venons de faire de Monsieur Barbier ...« à Drais, 1825-12-10, https://constance-de-salm.de/archiv/#/document/8973 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11187,12 +11187,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>08:07:20</t>
+          <t>16:24:42</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, ma très belle; et je m’en ennuie d’autant plus ..." à Vanhove, 1828-12-12, https://constance-de-salm.de/archiv/#/document/9297 #onthisday</t>
+          <t>»Je n’entends point parler de vous, ma très belle; et je m’en ennuie d’autant plus ...« à Vanhove, 1828-12-12, https://constance-de-salm.de/archiv/#/document/9297 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>13:32:09</t>
+          <t>12:21:36</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"J’apprends ici, Madame, avec la plus vive douleur, la perte cruelle que vous venez de faire; ..." à Raboteau, 1825-12-13, https://constance-de-salm.de/archiv/#/document/8976 #onthisday</t>
+          <t>»J’apprends ici, Madame, avec la plus vive douleur, la perte cruelle que vous venez de faire; ...« à Raboteau, 1825-12-13, https://constance-de-salm.de/archiv/#/document/8976 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>10:39:15</t>
+          <t>09:13:35</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"Vous avez su Monsieur, par Monsieur Drais et par mon petit-fils Félix ..." à Barbier, 1842-12-14, https://constance-de-salm.de/archiv/#/document/7489 #onthisday</t>
+          <t>»Vous avez su Monsieur, par Monsieur Drais et par mon petit-fils Félix ...« à Barbier, 1842-12-14, https://constance-de-salm.de/archiv/#/document/7489 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>15:19:31</t>
+          <t>19:13:13</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"Je ne veux plus vous voir, vous lire, vous entendre; / Je vous trouve maussade, injuste, ingrat, jaloux. / Je parierais que votre cœur … ..." à Duval, 1827-12-15, https://constance-de-salm.de/archiv/#/document/9101 #onthisday</t>
+          <t>»Je ne veux plus vous voir, vous lire, vous entendre; / Je vous trouve maussade, injuste, ingrat, jaloux. / Je parierais que votre cœur … ...« à Duval, 1827-12-15, https://constance-de-salm.de/archiv/#/document/9101 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11295,12 +11295,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>17:42:03</t>
+          <t>14:58:15</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"J’ai trouvé en arrivant ici, Monsieur, votre bonne lettre, j’ai reçu le lendemain celle ..." à Villenave, 1841-12-16, https://constance-de-salm.de/archiv/#/document/11046 #onthisday</t>
+          <t>»J’ai trouvé en arrivant ici, Monsieur, votre bonne lettre, j’ai reçu le lendemain celle ...« à Villenave, 1841-12-16, https://constance-de-salm.de/archiv/#/document/11046 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
